--- a/sourse.xlsx
+++ b/sourse.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1080" windowWidth="24915" windowHeight="11625" tabRatio="892" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="1080" windowWidth="24915" windowHeight="11625" tabRatio="892" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Комбайн" sheetId="1" r:id="rId1"/>
     <sheet name="01.10" sheetId="71" r:id="rId2"/>
+    <sheet name="19.11" sheetId="72" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -2793,8 +2794,201 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Диспетчер ЧИМК Васюк Евгений</author>
+  </authors>
+  <commentList>
+    <comment ref="C5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Диспетчер ЧИМК Васюк Евгений:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+237</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Диспетчер ЧИМК Васюк Евгений:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+238</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Диспетчер ЧИМК Васюк Евгений:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+239</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Диспетчер ЧИМК Васюк Евгений:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+240</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Диспетчер ЧИМК Васюк Евгений:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+241
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Диспетчер ЧИМК Васюк Евгений:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+242</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Диспетчер ЧИМК Васюк Евгений:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+446</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="87">
   <si>
     <t>Держ №</t>
   </si>
@@ -3038,6 +3232,24 @@
   <si>
     <t>test version</t>
   </si>
+  <si>
+    <t>19.11</t>
+  </si>
+  <si>
+    <t>Комбайни Шибиринівка</t>
+  </si>
+  <si>
+    <t>Бункера Шибиринівка</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Case210 15122</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Case210 15121</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
 </sst>
 </file>
 
@@ -3201,7 +3413,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -3527,12 +3739,203 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3711,6 +4114,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3723,24 +4138,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -6763,7 +7256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AH12" sqref="AH12"/>
       <selection pane="bottomLeft" activeCell="K25" sqref="K25"/>
@@ -6789,63 +7282,63 @@
       </c>
     </row>
     <row r="2" spans="1:53" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="111"/>
+      <c r="B2" s="104"/>
       <c r="C2" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="112" t="s">
+      <c r="F2" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="112"/>
-      <c r="AB2" s="112"/>
-      <c r="AC2" s="112"/>
-      <c r="AD2" s="112"/>
-      <c r="AE2" s="112"/>
-      <c r="AF2" s="112"/>
-      <c r="AG2" s="112"/>
-      <c r="AH2" s="112"/>
-      <c r="AI2" s="112"/>
-      <c r="AJ2" s="112"/>
-      <c r="AK2" s="112"/>
-      <c r="AL2" s="112"/>
-      <c r="AM2" s="112"/>
-      <c r="AN2" s="112"/>
-      <c r="AO2" s="112"/>
-      <c r="AP2" s="112"/>
-      <c r="AQ2" s="112"/>
-      <c r="AR2" s="112"/>
-      <c r="AS2" s="112"/>
-      <c r="AT2" s="112"/>
-      <c r="AU2" s="112"/>
-      <c r="AV2" s="112"/>
-      <c r="AW2" s="112"/>
-      <c r="AX2" s="112"/>
-      <c r="AY2" s="112"/>
-      <c r="AZ2" s="112"/>
-      <c r="BA2" s="112"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="105"/>
+      <c r="Y2" s="105"/>
+      <c r="Z2" s="105"/>
+      <c r="AA2" s="105"/>
+      <c r="AB2" s="105"/>
+      <c r="AC2" s="105"/>
+      <c r="AD2" s="105"/>
+      <c r="AE2" s="105"/>
+      <c r="AF2" s="105"/>
+      <c r="AG2" s="105"/>
+      <c r="AH2" s="105"/>
+      <c r="AI2" s="105"/>
+      <c r="AJ2" s="105"/>
+      <c r="AK2" s="105"/>
+      <c r="AL2" s="105"/>
+      <c r="AM2" s="105"/>
+      <c r="AN2" s="105"/>
+      <c r="AO2" s="105"/>
+      <c r="AP2" s="105"/>
+      <c r="AQ2" s="105"/>
+      <c r="AR2" s="105"/>
+      <c r="AS2" s="105"/>
+      <c r="AT2" s="105"/>
+      <c r="AU2" s="105"/>
+      <c r="AV2" s="105"/>
+      <c r="AW2" s="105"/>
+      <c r="AX2" s="105"/>
+      <c r="AY2" s="105"/>
+      <c r="AZ2" s="105"/>
+      <c r="BA2" s="105"/>
     </row>
     <row r="3" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
@@ -6863,102 +7356,102 @@
       <c r="E3" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="108">
+      <c r="F3" s="106">
         <v>7</v>
       </c>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108">
+      <c r="G3" s="106"/>
+      <c r="H3" s="106">
         <v>8</v>
       </c>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108">
+      <c r="I3" s="106"/>
+      <c r="J3" s="106">
         <v>9</v>
       </c>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108">
+      <c r="K3" s="106"/>
+      <c r="L3" s="106">
         <v>10</v>
       </c>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108">
+      <c r="M3" s="106"/>
+      <c r="N3" s="106">
         <v>11</v>
       </c>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108">
+      <c r="O3" s="106"/>
+      <c r="P3" s="106">
         <v>12</v>
       </c>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108">
+      <c r="Q3" s="106"/>
+      <c r="R3" s="106">
         <v>13</v>
       </c>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108">
+      <c r="S3" s="106"/>
+      <c r="T3" s="106">
         <v>14</v>
       </c>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108">
+      <c r="U3" s="106"/>
+      <c r="V3" s="106">
         <v>15</v>
       </c>
-      <c r="W3" s="108"/>
-      <c r="X3" s="108">
+      <c r="W3" s="106"/>
+      <c r="X3" s="106">
         <v>16</v>
       </c>
-      <c r="Y3" s="108"/>
-      <c r="Z3" s="110">
+      <c r="Y3" s="106"/>
+      <c r="Z3" s="113">
         <v>17</v>
       </c>
-      <c r="AA3" s="110"/>
-      <c r="AB3" s="110">
+      <c r="AA3" s="113"/>
+      <c r="AB3" s="113">
         <v>18</v>
       </c>
-      <c r="AC3" s="110"/>
-      <c r="AD3" s="108">
+      <c r="AC3" s="113"/>
+      <c r="AD3" s="106">
         <v>19</v>
       </c>
-      <c r="AE3" s="108"/>
-      <c r="AF3" s="108">
+      <c r="AE3" s="106"/>
+      <c r="AF3" s="106">
         <v>20</v>
       </c>
-      <c r="AG3" s="108"/>
-      <c r="AH3" s="108">
+      <c r="AG3" s="106"/>
+      <c r="AH3" s="106">
         <v>21</v>
       </c>
-      <c r="AI3" s="108"/>
-      <c r="AJ3" s="108">
+      <c r="AI3" s="106"/>
+      <c r="AJ3" s="106">
         <v>22</v>
       </c>
-      <c r="AK3" s="108"/>
-      <c r="AL3" s="108">
+      <c r="AK3" s="106"/>
+      <c r="AL3" s="106">
         <v>23</v>
       </c>
-      <c r="AM3" s="108"/>
-      <c r="AN3" s="108">
+      <c r="AM3" s="106"/>
+      <c r="AN3" s="106">
         <v>24</v>
       </c>
-      <c r="AO3" s="108"/>
-      <c r="AP3" s="108">
+      <c r="AO3" s="106"/>
+      <c r="AP3" s="106">
         <v>1</v>
       </c>
-      <c r="AQ3" s="108"/>
-      <c r="AR3" s="108">
+      <c r="AQ3" s="106"/>
+      <c r="AR3" s="106">
         <v>2</v>
       </c>
-      <c r="AS3" s="108"/>
-      <c r="AT3" s="108">
+      <c r="AS3" s="106"/>
+      <c r="AT3" s="106">
         <v>3</v>
       </c>
-      <c r="AU3" s="108"/>
-      <c r="AV3" s="108">
+      <c r="AU3" s="106"/>
+      <c r="AV3" s="106">
         <v>4</v>
       </c>
-      <c r="AW3" s="108"/>
-      <c r="AX3" s="108">
+      <c r="AW3" s="106"/>
+      <c r="AX3" s="106">
         <v>5</v>
       </c>
-      <c r="AY3" s="108"/>
-      <c r="AZ3" s="108">
+      <c r="AY3" s="106"/>
+      <c r="AZ3" s="106">
         <v>6</v>
       </c>
-      <c r="BA3" s="113"/>
+      <c r="BA3" s="107"/>
     </row>
     <row r="4" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="94" t="s">
@@ -7018,7 +7511,7 @@
       <c r="BA4" s="97"/>
     </row>
     <row r="5" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="108" t="s">
         <v>72</v>
       </c>
       <c r="B5" s="59" t="s">
@@ -7085,7 +7578,7 @@
       <c r="BA5" s="50"/>
     </row>
     <row r="6" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="107"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="34" t="s">
         <v>62</v>
       </c>
@@ -7152,7 +7645,7 @@
       <c r="BA6" s="51"/>
     </row>
     <row r="7" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="105"/>
+      <c r="A7" s="109"/>
       <c r="B7" s="40" t="s">
         <v>62</v>
       </c>
@@ -7217,7 +7710,7 @@
       <c r="BA7" s="57"/>
     </row>
     <row r="8" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="110" t="s">
         <v>67</v>
       </c>
       <c r="B8" s="38" t="s">
@@ -7284,7 +7777,7 @@
       <c r="BA8" s="74"/>
     </row>
     <row r="9" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109"/>
+      <c r="A9" s="112"/>
       <c r="B9" s="87" t="s">
         <v>32</v>
       </c>
@@ -7347,7 +7840,7 @@
       <c r="BA9" s="70"/>
     </row>
     <row r="10" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="108" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="59" t="s">
@@ -7412,7 +7905,7 @@
       <c r="BA10" s="50"/>
     </row>
     <row r="11" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="105"/>
+      <c r="A11" s="109"/>
       <c r="B11" s="40" t="s">
         <v>69</v>
       </c>
@@ -7471,7 +7964,7 @@
       <c r="BA11" s="57"/>
     </row>
     <row r="12" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="110" t="s">
         <v>70</v>
       </c>
       <c r="B12" s="58" t="s">
@@ -7540,7 +8033,7 @@
       <c r="BA12" s="71"/>
     </row>
     <row r="13" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="107"/>
+      <c r="A13" s="111"/>
       <c r="B13" s="34" t="s">
         <v>24</v>
       </c>
@@ -7607,7 +8100,7 @@
       <c r="BA13" s="51"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A14" s="107"/>
+      <c r="A14" s="111"/>
       <c r="B14" s="34" t="s">
         <v>24</v>
       </c>
@@ -7672,7 +8165,7 @@
       <c r="BA14" s="51"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A15" s="107"/>
+      <c r="A15" s="111"/>
       <c r="B15" s="34" t="s">
         <v>24</v>
       </c>
@@ -7735,7 +8228,7 @@
       <c r="BA15" s="51"/>
     </row>
     <row r="16" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="107"/>
+      <c r="A16" s="111"/>
       <c r="B16" s="34" t="s">
         <v>45</v>
       </c>
@@ -7796,7 +8289,7 @@
       <c r="BA16" s="51"/>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A17" s="107"/>
+      <c r="A17" s="111"/>
       <c r="B17" s="34" t="s">
         <v>24</v>
       </c>
@@ -7861,7 +8354,7 @@
       <c r="BA17" s="51"/>
     </row>
     <row r="18" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="105"/>
+      <c r="A18" s="109"/>
       <c r="B18" s="40" t="s">
         <v>24</v>
       </c>
@@ -7926,7 +8419,7 @@
       <c r="BA18" s="57"/>
     </row>
     <row r="19" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="106" t="s">
+      <c r="A19" s="110" t="s">
         <v>71</v>
       </c>
       <c r="B19" s="38" t="s">
@@ -7993,7 +8486,7 @@
       <c r="BA19" s="71"/>
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A20" s="107"/>
+      <c r="A20" s="111"/>
       <c r="B20" s="41" t="s">
         <v>32</v>
       </c>
@@ -8056,7 +8549,7 @@
       <c r="BA20" s="51"/>
     </row>
     <row r="21" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="105"/>
+      <c r="A21" s="109"/>
       <c r="B21" s="60" t="s">
         <v>32</v>
       </c>
@@ -8579,21 +9072,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:BA2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="AX3:AY3"/>
-    <mergeCell ref="AZ3:BA3"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="AR3:AS3"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="A19:A21"/>
@@ -8610,6 +9088,1990 @@
     <mergeCell ref="AB3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:BA2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="AX3:AY3"/>
+    <mergeCell ref="AZ3:BA3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AR3:AS3"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:CW26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="X18" sqref="X18"/>
+      <selection pane="bottomLeft" activeCell="AT33" sqref="AT33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" style="32" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="32" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" style="32" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="32" customWidth="1"/>
+    <col min="6" max="101" width="1.42578125" style="32" customWidth="1"/>
+    <col min="102" max="16384" width="9.140625" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:101" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="104" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="104"/>
+      <c r="C2" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="105"/>
+      <c r="Y2" s="105"/>
+      <c r="Z2" s="105"/>
+      <c r="AA2" s="105"/>
+      <c r="AB2" s="105"/>
+      <c r="AC2" s="105"/>
+      <c r="AD2" s="105"/>
+      <c r="AE2" s="105"/>
+      <c r="AF2" s="105"/>
+      <c r="AG2" s="105"/>
+      <c r="AH2" s="105"/>
+      <c r="AI2" s="105"/>
+      <c r="AJ2" s="105"/>
+      <c r="AK2" s="105"/>
+      <c r="AL2" s="105"/>
+      <c r="AM2" s="105"/>
+      <c r="AN2" s="105"/>
+      <c r="AO2" s="105"/>
+      <c r="AP2" s="105"/>
+      <c r="AQ2" s="105"/>
+      <c r="AR2" s="105"/>
+      <c r="AS2" s="105"/>
+      <c r="AT2" s="105"/>
+      <c r="AU2" s="105"/>
+      <c r="AV2" s="105"/>
+      <c r="AW2" s="105"/>
+      <c r="AX2" s="105"/>
+      <c r="AY2" s="105"/>
+      <c r="AZ2" s="105"/>
+      <c r="BA2" s="105"/>
+    </row>
+    <row r="3" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="114" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="115" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="115" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="116">
+        <v>7</v>
+      </c>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="119">
+        <v>8</v>
+      </c>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="119">
+        <v>9</v>
+      </c>
+      <c r="O3" s="120"/>
+      <c r="P3" s="120"/>
+      <c r="Q3" s="121"/>
+      <c r="R3" s="119">
+        <v>10</v>
+      </c>
+      <c r="S3" s="120"/>
+      <c r="T3" s="120"/>
+      <c r="U3" s="121"/>
+      <c r="V3" s="119">
+        <v>11</v>
+      </c>
+      <c r="W3" s="120"/>
+      <c r="X3" s="120"/>
+      <c r="Y3" s="121"/>
+      <c r="Z3" s="122">
+        <v>12</v>
+      </c>
+      <c r="AA3" s="123"/>
+      <c r="AB3" s="123"/>
+      <c r="AC3" s="124"/>
+      <c r="AD3" s="119">
+        <v>13</v>
+      </c>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="120"/>
+      <c r="AG3" s="121"/>
+      <c r="AH3" s="119">
+        <v>14</v>
+      </c>
+      <c r="AI3" s="120"/>
+      <c r="AJ3" s="120"/>
+      <c r="AK3" s="121"/>
+      <c r="AL3" s="119">
+        <v>15</v>
+      </c>
+      <c r="AM3" s="120"/>
+      <c r="AN3" s="120"/>
+      <c r="AO3" s="121"/>
+      <c r="AP3" s="119">
+        <v>16</v>
+      </c>
+      <c r="AQ3" s="120"/>
+      <c r="AR3" s="120"/>
+      <c r="AS3" s="121"/>
+      <c r="AT3" s="119">
+        <v>17</v>
+      </c>
+      <c r="AU3" s="120"/>
+      <c r="AV3" s="120"/>
+      <c r="AW3" s="121"/>
+      <c r="AX3" s="119">
+        <v>18</v>
+      </c>
+      <c r="AY3" s="120"/>
+      <c r="AZ3" s="120"/>
+      <c r="BA3" s="125"/>
+      <c r="BB3" s="116">
+        <v>19</v>
+      </c>
+      <c r="BC3" s="117"/>
+      <c r="BD3" s="117"/>
+      <c r="BE3" s="118"/>
+      <c r="BF3" s="119">
+        <v>20</v>
+      </c>
+      <c r="BG3" s="120"/>
+      <c r="BH3" s="120"/>
+      <c r="BI3" s="121"/>
+      <c r="BJ3" s="119">
+        <v>21</v>
+      </c>
+      <c r="BK3" s="120"/>
+      <c r="BL3" s="120"/>
+      <c r="BM3" s="121"/>
+      <c r="BN3" s="119">
+        <v>22</v>
+      </c>
+      <c r="BO3" s="120"/>
+      <c r="BP3" s="120"/>
+      <c r="BQ3" s="121"/>
+      <c r="BR3" s="119">
+        <v>23</v>
+      </c>
+      <c r="BS3" s="120"/>
+      <c r="BT3" s="120"/>
+      <c r="BU3" s="120"/>
+      <c r="BV3" s="126">
+        <v>24</v>
+      </c>
+      <c r="BW3" s="127"/>
+      <c r="BX3" s="127"/>
+      <c r="BY3" s="128"/>
+      <c r="BZ3" s="120">
+        <v>1</v>
+      </c>
+      <c r="CA3" s="120"/>
+      <c r="CB3" s="120"/>
+      <c r="CC3" s="121"/>
+      <c r="CD3" s="119">
+        <v>2</v>
+      </c>
+      <c r="CE3" s="120"/>
+      <c r="CF3" s="120"/>
+      <c r="CG3" s="121"/>
+      <c r="CH3" s="119">
+        <v>3</v>
+      </c>
+      <c r="CI3" s="120"/>
+      <c r="CJ3" s="120"/>
+      <c r="CK3" s="121"/>
+      <c r="CL3" s="119">
+        <v>4</v>
+      </c>
+      <c r="CM3" s="120"/>
+      <c r="CN3" s="120"/>
+      <c r="CO3" s="121"/>
+      <c r="CP3" s="119">
+        <v>5</v>
+      </c>
+      <c r="CQ3" s="120"/>
+      <c r="CR3" s="120"/>
+      <c r="CS3" s="121"/>
+      <c r="CT3" s="119">
+        <v>6</v>
+      </c>
+      <c r="CU3" s="120"/>
+      <c r="CV3" s="120"/>
+      <c r="CW3" s="125"/>
+    </row>
+    <row r="4" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="129" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="131"/>
+      <c r="M4" s="131"/>
+      <c r="N4" s="131"/>
+      <c r="O4" s="131"/>
+      <c r="P4" s="131"/>
+      <c r="Q4" s="131"/>
+      <c r="R4" s="131"/>
+      <c r="S4" s="131"/>
+      <c r="T4" s="131"/>
+      <c r="U4" s="131"/>
+      <c r="V4" s="131"/>
+      <c r="W4" s="131"/>
+      <c r="X4" s="131"/>
+      <c r="Y4" s="131"/>
+      <c r="Z4" s="131"/>
+      <c r="AA4" s="131"/>
+      <c r="AB4" s="131"/>
+      <c r="AC4" s="131"/>
+      <c r="AD4" s="131"/>
+      <c r="AE4" s="131"/>
+      <c r="AF4" s="131"/>
+      <c r="AG4" s="131"/>
+      <c r="AH4" s="131"/>
+      <c r="AI4" s="131"/>
+      <c r="AJ4" s="131"/>
+      <c r="AK4" s="131"/>
+      <c r="AL4" s="131"/>
+      <c r="AM4" s="131"/>
+      <c r="AN4" s="131"/>
+      <c r="AO4" s="131"/>
+      <c r="AP4" s="131"/>
+      <c r="AQ4" s="131"/>
+      <c r="AR4" s="131"/>
+      <c r="AS4" s="131"/>
+      <c r="AT4" s="131"/>
+      <c r="AU4" s="131"/>
+      <c r="AV4" s="131"/>
+      <c r="AW4" s="131"/>
+      <c r="AX4" s="131"/>
+      <c r="AY4" s="132"/>
+      <c r="AZ4" s="132"/>
+      <c r="BA4" s="132"/>
+      <c r="BB4" s="132"/>
+      <c r="BC4" s="132"/>
+      <c r="BD4" s="133"/>
+      <c r="BE4" s="134"/>
+      <c r="BF4" s="134"/>
+      <c r="BG4" s="134"/>
+      <c r="BH4" s="134"/>
+      <c r="BI4" s="134"/>
+      <c r="BJ4" s="134"/>
+      <c r="BK4" s="134"/>
+      <c r="BL4" s="134"/>
+      <c r="BM4" s="134"/>
+      <c r="BN4" s="134"/>
+      <c r="BO4" s="134"/>
+      <c r="BP4" s="134"/>
+      <c r="BQ4" s="134"/>
+      <c r="BR4" s="134"/>
+      <c r="BS4" s="134"/>
+      <c r="BT4" s="134"/>
+      <c r="BU4" s="134"/>
+      <c r="BV4" s="134"/>
+      <c r="BW4" s="134"/>
+      <c r="BX4" s="134"/>
+      <c r="BY4" s="134"/>
+      <c r="BZ4" s="134"/>
+      <c r="CA4" s="134"/>
+      <c r="CB4" s="134"/>
+      <c r="CC4" s="134"/>
+      <c r="CD4" s="134"/>
+      <c r="CE4" s="134"/>
+      <c r="CF4" s="134"/>
+      <c r="CG4" s="134"/>
+      <c r="CH4" s="134"/>
+      <c r="CI4" s="134"/>
+      <c r="CJ4" s="134"/>
+      <c r="CK4" s="134"/>
+      <c r="CL4" s="134"/>
+      <c r="CM4" s="134"/>
+      <c r="CN4" s="134"/>
+      <c r="CO4" s="134"/>
+      <c r="CP4" s="134"/>
+      <c r="CQ4" s="134"/>
+      <c r="CR4" s="134"/>
+      <c r="CS4" s="134"/>
+      <c r="CT4" s="134"/>
+      <c r="CU4" s="134"/>
+      <c r="CV4" s="134"/>
+      <c r="CW4" s="135"/>
+    </row>
+    <row r="5" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="108" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="136" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="137" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="138"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="139"/>
+      <c r="K5" s="139"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="139"/>
+      <c r="N5" s="139"/>
+      <c r="O5" s="139"/>
+      <c r="P5" s="139"/>
+      <c r="Q5" s="139"/>
+      <c r="R5" s="139"/>
+      <c r="S5" s="139"/>
+      <c r="T5" s="139"/>
+      <c r="U5" s="139"/>
+      <c r="V5" s="139"/>
+      <c r="W5" s="139"/>
+      <c r="X5" s="139"/>
+      <c r="Y5" s="139"/>
+      <c r="Z5" s="139"/>
+      <c r="AA5" s="139"/>
+      <c r="AB5" s="139"/>
+      <c r="AC5" s="139"/>
+      <c r="AD5" s="139"/>
+      <c r="AE5" s="139"/>
+      <c r="AF5" s="139"/>
+      <c r="AG5" s="139"/>
+      <c r="AH5" s="139"/>
+      <c r="AI5" s="139"/>
+      <c r="AJ5" s="139"/>
+      <c r="AK5" s="139"/>
+      <c r="AL5" s="139"/>
+      <c r="AM5" s="139"/>
+      <c r="AN5" s="139"/>
+      <c r="AO5" s="139"/>
+      <c r="AP5" s="139"/>
+      <c r="AQ5" s="139"/>
+      <c r="AR5" s="139"/>
+      <c r="AS5" s="139"/>
+      <c r="AT5" s="139"/>
+      <c r="AU5" s="139"/>
+      <c r="AV5" s="139"/>
+      <c r="AW5" s="139"/>
+      <c r="AX5" s="139"/>
+      <c r="AY5" s="139"/>
+      <c r="AZ5" s="139"/>
+      <c r="BA5" s="139"/>
+      <c r="BB5" s="139"/>
+      <c r="BC5" s="139"/>
+      <c r="BD5" s="139"/>
+      <c r="BE5" s="139"/>
+      <c r="BF5" s="139"/>
+      <c r="BG5" s="139"/>
+      <c r="BH5" s="139"/>
+      <c r="BI5" s="139"/>
+      <c r="BJ5" s="139"/>
+      <c r="BK5" s="139"/>
+      <c r="BL5" s="139"/>
+      <c r="BM5" s="139"/>
+      <c r="BN5" s="139"/>
+      <c r="BO5" s="139"/>
+      <c r="BP5" s="139"/>
+      <c r="BQ5" s="139"/>
+      <c r="BR5" s="139"/>
+      <c r="BS5" s="139"/>
+      <c r="BT5" s="139"/>
+      <c r="BU5" s="139"/>
+      <c r="BV5" s="139"/>
+      <c r="BW5" s="139"/>
+      <c r="BX5" s="139"/>
+      <c r="BY5" s="139"/>
+      <c r="BZ5" s="139"/>
+      <c r="CA5" s="139"/>
+      <c r="CB5" s="139"/>
+      <c r="CC5" s="139"/>
+      <c r="CD5" s="139"/>
+      <c r="CE5" s="139"/>
+      <c r="CF5" s="139"/>
+      <c r="CG5" s="139"/>
+      <c r="CH5" s="139"/>
+      <c r="CI5" s="139"/>
+      <c r="CJ5" s="139"/>
+      <c r="CK5" s="139"/>
+      <c r="CL5" s="139"/>
+      <c r="CM5" s="139"/>
+      <c r="CN5" s="139"/>
+      <c r="CO5" s="139"/>
+      <c r="CP5" s="139"/>
+      <c r="CQ5" s="139"/>
+      <c r="CR5" s="139"/>
+      <c r="CS5" s="139"/>
+      <c r="CT5" s="139"/>
+      <c r="CU5" s="139"/>
+      <c r="CV5" s="139"/>
+      <c r="CW5" s="140"/>
+    </row>
+    <row r="6" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="111"/>
+      <c r="B6" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="141" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="138"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="139"/>
+      <c r="K6" s="139"/>
+      <c r="L6" s="139"/>
+      <c r="M6" s="139"/>
+      <c r="N6" s="139"/>
+      <c r="O6" s="139"/>
+      <c r="P6" s="139"/>
+      <c r="Q6" s="139"/>
+      <c r="R6" s="139"/>
+      <c r="S6" s="139"/>
+      <c r="T6" s="139"/>
+      <c r="U6" s="139"/>
+      <c r="V6" s="139"/>
+      <c r="W6" s="139"/>
+      <c r="X6" s="139"/>
+      <c r="Y6" s="139"/>
+      <c r="Z6" s="139"/>
+      <c r="AA6" s="139"/>
+      <c r="AB6" s="139"/>
+      <c r="AC6" s="139"/>
+      <c r="AD6" s="139"/>
+      <c r="AE6" s="139"/>
+      <c r="AF6" s="139"/>
+      <c r="AG6" s="139"/>
+      <c r="AH6" s="139"/>
+      <c r="AI6" s="139"/>
+      <c r="AJ6" s="139"/>
+      <c r="AK6" s="139"/>
+      <c r="AL6" s="139"/>
+      <c r="AM6" s="139"/>
+      <c r="AN6" s="139"/>
+      <c r="AO6" s="139"/>
+      <c r="AP6" s="139"/>
+      <c r="AQ6" s="139"/>
+      <c r="AR6" s="139"/>
+      <c r="AS6" s="139"/>
+      <c r="AT6" s="139"/>
+      <c r="AU6" s="139"/>
+      <c r="AV6" s="139"/>
+      <c r="AW6" s="139"/>
+      <c r="AX6" s="139"/>
+      <c r="AY6" s="139"/>
+      <c r="AZ6" s="139"/>
+      <c r="BA6" s="139"/>
+      <c r="BB6" s="139"/>
+      <c r="BC6" s="139"/>
+      <c r="BD6" s="139"/>
+      <c r="BE6" s="139"/>
+      <c r="BF6" s="139"/>
+      <c r="BG6" s="139"/>
+      <c r="BH6" s="139"/>
+      <c r="BI6" s="139"/>
+      <c r="BJ6" s="139"/>
+      <c r="BK6" s="139"/>
+      <c r="BL6" s="139"/>
+      <c r="BM6" s="139"/>
+      <c r="BN6" s="139"/>
+      <c r="BO6" s="139"/>
+      <c r="BP6" s="139"/>
+      <c r="BQ6" s="139"/>
+      <c r="BR6" s="139"/>
+      <c r="BS6" s="139"/>
+      <c r="BT6" s="139"/>
+      <c r="BU6" s="139"/>
+      <c r="BV6" s="139"/>
+      <c r="BW6" s="139"/>
+      <c r="BX6" s="139"/>
+      <c r="BY6" s="139"/>
+      <c r="BZ6" s="139"/>
+      <c r="CA6" s="139"/>
+      <c r="CB6" s="139"/>
+      <c r="CC6" s="139"/>
+      <c r="CD6" s="139"/>
+      <c r="CE6" s="139"/>
+      <c r="CF6" s="139"/>
+      <c r="CG6" s="139"/>
+      <c r="CH6" s="139"/>
+      <c r="CI6" s="139"/>
+      <c r="CJ6" s="139"/>
+      <c r="CK6" s="139"/>
+      <c r="CL6" s="139"/>
+      <c r="CM6" s="139"/>
+      <c r="CN6" s="139"/>
+      <c r="CO6" s="139"/>
+      <c r="CP6" s="139"/>
+      <c r="CQ6" s="139"/>
+      <c r="CR6" s="139"/>
+      <c r="CS6" s="139"/>
+      <c r="CT6" s="139"/>
+      <c r="CU6" s="139"/>
+      <c r="CV6" s="139"/>
+      <c r="CW6" s="140"/>
+    </row>
+    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A7" s="111"/>
+      <c r="B7" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="142" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="138"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="139"/>
+      <c r="N7" s="139"/>
+      <c r="O7" s="139"/>
+      <c r="P7" s="139"/>
+      <c r="Q7" s="139"/>
+      <c r="R7" s="139"/>
+      <c r="S7" s="139"/>
+      <c r="T7" s="139"/>
+      <c r="U7" s="139"/>
+      <c r="V7" s="139"/>
+      <c r="W7" s="139"/>
+      <c r="X7" s="139"/>
+      <c r="Y7" s="139"/>
+      <c r="Z7" s="139"/>
+      <c r="AA7" s="139"/>
+      <c r="AB7" s="139"/>
+      <c r="AC7" s="139"/>
+      <c r="AD7" s="139"/>
+      <c r="AE7" s="139"/>
+      <c r="AF7" s="139"/>
+      <c r="AG7" s="139"/>
+      <c r="AH7" s="139"/>
+      <c r="AI7" s="139"/>
+      <c r="AJ7" s="139"/>
+      <c r="AK7" s="139"/>
+      <c r="AL7" s="139"/>
+      <c r="AM7" s="139"/>
+      <c r="AN7" s="139"/>
+      <c r="AO7" s="139"/>
+      <c r="AP7" s="139"/>
+      <c r="AQ7" s="139"/>
+      <c r="AR7" s="139"/>
+      <c r="AS7" s="139"/>
+      <c r="AT7" s="139"/>
+      <c r="AU7" s="139"/>
+      <c r="AV7" s="139"/>
+      <c r="AW7" s="139"/>
+      <c r="AX7" s="139"/>
+      <c r="AY7" s="139"/>
+      <c r="AZ7" s="139"/>
+      <c r="BA7" s="139"/>
+      <c r="BB7" s="139"/>
+      <c r="BC7" s="139"/>
+      <c r="BD7" s="139"/>
+      <c r="BE7" s="139"/>
+      <c r="BF7" s="139"/>
+      <c r="BG7" s="139"/>
+      <c r="BH7" s="139"/>
+      <c r="BI7" s="139"/>
+      <c r="BJ7" s="139"/>
+      <c r="BK7" s="139"/>
+      <c r="BL7" s="139"/>
+      <c r="BM7" s="139"/>
+      <c r="BN7" s="139"/>
+      <c r="BO7" s="139"/>
+      <c r="BP7" s="139"/>
+      <c r="BQ7" s="139"/>
+      <c r="BR7" s="139"/>
+      <c r="BS7" s="139"/>
+      <c r="BT7" s="139"/>
+      <c r="BU7" s="139"/>
+      <c r="BV7" s="139"/>
+      <c r="BW7" s="139"/>
+      <c r="BX7" s="139"/>
+      <c r="BY7" s="139"/>
+      <c r="BZ7" s="139"/>
+      <c r="CA7" s="139"/>
+      <c r="CB7" s="139"/>
+      <c r="CC7" s="139"/>
+      <c r="CD7" s="139"/>
+      <c r="CE7" s="139"/>
+      <c r="CF7" s="139"/>
+      <c r="CG7" s="139"/>
+      <c r="CH7" s="139"/>
+      <c r="CI7" s="139"/>
+      <c r="CJ7" s="139"/>
+      <c r="CK7" s="139"/>
+      <c r="CL7" s="139"/>
+      <c r="CM7" s="139"/>
+      <c r="CN7" s="139"/>
+      <c r="CO7" s="139"/>
+      <c r="CP7" s="139"/>
+      <c r="CQ7" s="139"/>
+      <c r="CR7" s="139"/>
+      <c r="CS7" s="139"/>
+      <c r="CT7" s="139"/>
+      <c r="CU7" s="139"/>
+      <c r="CV7" s="139"/>
+      <c r="CW7" s="140"/>
+    </row>
+    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A8" s="111"/>
+      <c r="B8" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="142" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="138"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="139"/>
+      <c r="J8" s="139"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="139"/>
+      <c r="N8" s="139"/>
+      <c r="O8" s="139"/>
+      <c r="P8" s="139"/>
+      <c r="Q8" s="139"/>
+      <c r="R8" s="139"/>
+      <c r="S8" s="139"/>
+      <c r="T8" s="139"/>
+      <c r="U8" s="139"/>
+      <c r="V8" s="139"/>
+      <c r="W8" s="139"/>
+      <c r="X8" s="139"/>
+      <c r="Y8" s="139"/>
+      <c r="Z8" s="139"/>
+      <c r="AA8" s="139"/>
+      <c r="AB8" s="139"/>
+      <c r="AC8" s="139"/>
+      <c r="AD8" s="139"/>
+      <c r="AE8" s="139"/>
+      <c r="AF8" s="139"/>
+      <c r="AG8" s="139"/>
+      <c r="AH8" s="139"/>
+      <c r="AI8" s="139"/>
+      <c r="AJ8" s="139"/>
+      <c r="AK8" s="139"/>
+      <c r="AL8" s="139"/>
+      <c r="AM8" s="139"/>
+      <c r="AN8" s="139"/>
+      <c r="AO8" s="139"/>
+      <c r="AP8" s="139"/>
+      <c r="AQ8" s="139"/>
+      <c r="AR8" s="139"/>
+      <c r="AS8" s="139"/>
+      <c r="AT8" s="139"/>
+      <c r="AU8" s="139"/>
+      <c r="AV8" s="139"/>
+      <c r="AW8" s="139"/>
+      <c r="AX8" s="139"/>
+      <c r="AY8" s="139"/>
+      <c r="AZ8" s="139"/>
+      <c r="BA8" s="139"/>
+      <c r="BB8" s="139"/>
+      <c r="BC8" s="139"/>
+      <c r="BD8" s="139"/>
+      <c r="BE8" s="139"/>
+      <c r="BF8" s="139"/>
+      <c r="BG8" s="139"/>
+      <c r="BH8" s="139"/>
+      <c r="BI8" s="139"/>
+      <c r="BJ8" s="139"/>
+      <c r="BK8" s="139"/>
+      <c r="BL8" s="139"/>
+      <c r="BM8" s="139"/>
+      <c r="BN8" s="139"/>
+      <c r="BO8" s="139"/>
+      <c r="BP8" s="139"/>
+      <c r="BQ8" s="139"/>
+      <c r="BR8" s="139"/>
+      <c r="BS8" s="139"/>
+      <c r="BT8" s="139"/>
+      <c r="BU8" s="139"/>
+      <c r="BV8" s="139"/>
+      <c r="BW8" s="139"/>
+      <c r="BX8" s="139"/>
+      <c r="BY8" s="139"/>
+      <c r="BZ8" s="139"/>
+      <c r="CA8" s="139"/>
+      <c r="CB8" s="139"/>
+      <c r="CC8" s="139"/>
+      <c r="CD8" s="139"/>
+      <c r="CE8" s="139"/>
+      <c r="CF8" s="139"/>
+      <c r="CG8" s="139"/>
+      <c r="CH8" s="139"/>
+      <c r="CI8" s="139"/>
+      <c r="CJ8" s="139"/>
+      <c r="CK8" s="139"/>
+      <c r="CL8" s="139"/>
+      <c r="CM8" s="139"/>
+      <c r="CN8" s="139"/>
+      <c r="CO8" s="139"/>
+      <c r="CP8" s="139"/>
+      <c r="CQ8" s="139"/>
+      <c r="CR8" s="139"/>
+      <c r="CS8" s="139"/>
+      <c r="CT8" s="139"/>
+      <c r="CU8" s="139"/>
+      <c r="CV8" s="139"/>
+      <c r="CW8" s="140"/>
+    </row>
+    <row r="9" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="111"/>
+      <c r="B9" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="142" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="138"/>
+      <c r="G9" s="139"/>
+      <c r="H9" s="139"/>
+      <c r="I9" s="139"/>
+      <c r="J9" s="139"/>
+      <c r="K9" s="139"/>
+      <c r="L9" s="139"/>
+      <c r="M9" s="139"/>
+      <c r="N9" s="139"/>
+      <c r="O9" s="139"/>
+      <c r="P9" s="139"/>
+      <c r="Q9" s="139"/>
+      <c r="R9" s="139"/>
+      <c r="S9" s="139"/>
+      <c r="T9" s="139"/>
+      <c r="U9" s="139"/>
+      <c r="V9" s="139"/>
+      <c r="W9" s="139"/>
+      <c r="X9" s="139"/>
+      <c r="Y9" s="139"/>
+      <c r="Z9" s="139"/>
+      <c r="AA9" s="139"/>
+      <c r="AB9" s="139"/>
+      <c r="AC9" s="139"/>
+      <c r="AD9" s="139"/>
+      <c r="AE9" s="139"/>
+      <c r="AF9" s="139"/>
+      <c r="AG9" s="139"/>
+      <c r="AH9" s="139"/>
+      <c r="AI9" s="139"/>
+      <c r="AJ9" s="139"/>
+      <c r="AK9" s="139"/>
+      <c r="AL9" s="139"/>
+      <c r="AM9" s="139"/>
+      <c r="AN9" s="139"/>
+      <c r="AO9" s="139"/>
+      <c r="AP9" s="139"/>
+      <c r="AQ9" s="139"/>
+      <c r="AR9" s="139"/>
+      <c r="AS9" s="139"/>
+      <c r="AT9" s="139"/>
+      <c r="AU9" s="139"/>
+      <c r="AV9" s="139"/>
+      <c r="AW9" s="139"/>
+      <c r="AX9" s="139"/>
+      <c r="AY9" s="139"/>
+      <c r="AZ9" s="139"/>
+      <c r="BA9" s="139"/>
+      <c r="BB9" s="139"/>
+      <c r="BC9" s="139"/>
+      <c r="BD9" s="139"/>
+      <c r="BE9" s="139"/>
+      <c r="BF9" s="139"/>
+      <c r="BG9" s="139"/>
+      <c r="BH9" s="139"/>
+      <c r="BI9" s="139"/>
+      <c r="BJ9" s="139"/>
+      <c r="BK9" s="139"/>
+      <c r="BL9" s="139"/>
+      <c r="BM9" s="139"/>
+      <c r="BN9" s="139"/>
+      <c r="BO9" s="139"/>
+      <c r="BP9" s="139"/>
+      <c r="BQ9" s="139"/>
+      <c r="BR9" s="139"/>
+      <c r="BS9" s="139"/>
+      <c r="BT9" s="139"/>
+      <c r="BU9" s="139"/>
+      <c r="BV9" s="139"/>
+      <c r="BW9" s="139"/>
+      <c r="BX9" s="139"/>
+      <c r="BY9" s="139"/>
+      <c r="BZ9" s="139"/>
+      <c r="CA9" s="139"/>
+      <c r="CB9" s="139"/>
+      <c r="CC9" s="139"/>
+      <c r="CD9" s="139"/>
+      <c r="CE9" s="139"/>
+      <c r="CF9" s="139"/>
+      <c r="CG9" s="139"/>
+      <c r="CH9" s="139"/>
+      <c r="CI9" s="139"/>
+      <c r="CJ9" s="139"/>
+      <c r="CK9" s="139"/>
+      <c r="CL9" s="139"/>
+      <c r="CM9" s="139"/>
+      <c r="CN9" s="139"/>
+      <c r="CO9" s="139"/>
+      <c r="CP9" s="139"/>
+      <c r="CQ9" s="139"/>
+      <c r="CR9" s="139"/>
+      <c r="CS9" s="139"/>
+      <c r="CT9" s="139"/>
+      <c r="CU9" s="139"/>
+      <c r="CV9" s="139"/>
+      <c r="CW9" s="140"/>
+    </row>
+    <row r="10" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="111"/>
+      <c r="B10" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="142" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="138"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="139"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="139"/>
+      <c r="K10" s="139"/>
+      <c r="L10" s="139"/>
+      <c r="M10" s="139"/>
+      <c r="N10" s="139"/>
+      <c r="O10" s="139"/>
+      <c r="P10" s="139"/>
+      <c r="Q10" s="139"/>
+      <c r="R10" s="139"/>
+      <c r="S10" s="139"/>
+      <c r="T10" s="139"/>
+      <c r="U10" s="139"/>
+      <c r="V10" s="139"/>
+      <c r="W10" s="139"/>
+      <c r="X10" s="139"/>
+      <c r="Y10" s="139"/>
+      <c r="Z10" s="139"/>
+      <c r="AA10" s="139"/>
+      <c r="AB10" s="139"/>
+      <c r="AC10" s="139"/>
+      <c r="AD10" s="139"/>
+      <c r="AE10" s="139"/>
+      <c r="AF10" s="139"/>
+      <c r="AG10" s="139"/>
+      <c r="AH10" s="139"/>
+      <c r="AI10" s="139"/>
+      <c r="AJ10" s="139"/>
+      <c r="AK10" s="139"/>
+      <c r="AL10" s="139"/>
+      <c r="AM10" s="139"/>
+      <c r="AN10" s="139"/>
+      <c r="AO10" s="139"/>
+      <c r="AP10" s="139"/>
+      <c r="AQ10" s="139"/>
+      <c r="AR10" s="139"/>
+      <c r="AS10" s="139"/>
+      <c r="AT10" s="139"/>
+      <c r="AU10" s="139"/>
+      <c r="AV10" s="139"/>
+      <c r="AW10" s="139"/>
+      <c r="AX10" s="139"/>
+      <c r="AY10" s="139"/>
+      <c r="AZ10" s="139"/>
+      <c r="BA10" s="139"/>
+      <c r="BB10" s="139"/>
+      <c r="BC10" s="139"/>
+      <c r="BD10" s="139"/>
+      <c r="BE10" s="139"/>
+      <c r="BF10" s="139"/>
+      <c r="BG10" s="139"/>
+      <c r="BH10" s="139"/>
+      <c r="BI10" s="139"/>
+      <c r="BJ10" s="139"/>
+      <c r="BK10" s="139"/>
+      <c r="BL10" s="139"/>
+      <c r="BM10" s="139"/>
+      <c r="BN10" s="139"/>
+      <c r="BO10" s="139"/>
+      <c r="BP10" s="139"/>
+      <c r="BQ10" s="139"/>
+      <c r="BR10" s="139"/>
+      <c r="BS10" s="139"/>
+      <c r="BT10" s="139"/>
+      <c r="BU10" s="139"/>
+      <c r="BV10" s="139"/>
+      <c r="BW10" s="139"/>
+      <c r="BX10" s="139"/>
+      <c r="BY10" s="139"/>
+      <c r="BZ10" s="139"/>
+      <c r="CA10" s="139"/>
+      <c r="CB10" s="139"/>
+      <c r="CC10" s="139"/>
+      <c r="CD10" s="139"/>
+      <c r="CE10" s="139"/>
+      <c r="CF10" s="139"/>
+      <c r="CG10" s="139"/>
+      <c r="CH10" s="139"/>
+      <c r="CI10" s="139"/>
+      <c r="CJ10" s="139"/>
+      <c r="CK10" s="139"/>
+      <c r="CL10" s="139"/>
+      <c r="CM10" s="139"/>
+      <c r="CN10" s="139"/>
+      <c r="CO10" s="139"/>
+      <c r="CP10" s="139"/>
+      <c r="CQ10" s="139"/>
+      <c r="CR10" s="139"/>
+      <c r="CS10" s="139"/>
+      <c r="CT10" s="139"/>
+      <c r="CU10" s="139"/>
+      <c r="CV10" s="139"/>
+      <c r="CW10" s="140"/>
+    </row>
+    <row r="11" spans="1:101" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="112"/>
+      <c r="B11" s="143" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="144"/>
+      <c r="D11" s="145" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="146" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="138"/>
+      <c r="G11" s="139"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="139"/>
+      <c r="J11" s="139"/>
+      <c r="K11" s="139"/>
+      <c r="L11" s="139"/>
+      <c r="M11" s="139"/>
+      <c r="N11" s="139"/>
+      <c r="O11" s="139"/>
+      <c r="P11" s="139"/>
+      <c r="Q11" s="139"/>
+      <c r="R11" s="139"/>
+      <c r="S11" s="139"/>
+      <c r="T11" s="139"/>
+      <c r="U11" s="139"/>
+      <c r="V11" s="139"/>
+      <c r="W11" s="139"/>
+      <c r="X11" s="139"/>
+      <c r="Y11" s="139"/>
+      <c r="Z11" s="139"/>
+      <c r="AA11" s="139"/>
+      <c r="AB11" s="139"/>
+      <c r="AC11" s="139"/>
+      <c r="AD11" s="139"/>
+      <c r="AE11" s="139"/>
+      <c r="AF11" s="139"/>
+      <c r="AG11" s="139"/>
+      <c r="AH11" s="139"/>
+      <c r="AI11" s="139"/>
+      <c r="AJ11" s="139"/>
+      <c r="AK11" s="139"/>
+      <c r="AL11" s="139"/>
+      <c r="AM11" s="139"/>
+      <c r="AN11" s="139"/>
+      <c r="AO11" s="139"/>
+      <c r="AP11" s="139"/>
+      <c r="AQ11" s="139"/>
+      <c r="AR11" s="139"/>
+      <c r="AS11" s="139"/>
+      <c r="AT11" s="139"/>
+      <c r="AU11" s="139"/>
+      <c r="AV11" s="139"/>
+      <c r="AW11" s="139"/>
+      <c r="AX11" s="139"/>
+      <c r="AY11" s="139"/>
+      <c r="AZ11" s="139"/>
+      <c r="BA11" s="139"/>
+      <c r="BB11" s="139"/>
+      <c r="BC11" s="139"/>
+      <c r="BD11" s="139"/>
+      <c r="BE11" s="139"/>
+      <c r="BF11" s="139"/>
+      <c r="BG11" s="139"/>
+      <c r="BH11" s="139"/>
+      <c r="BI11" s="139"/>
+      <c r="BJ11" s="139"/>
+      <c r="BK11" s="139"/>
+      <c r="BL11" s="139"/>
+      <c r="BM11" s="139"/>
+      <c r="BN11" s="139"/>
+      <c r="BO11" s="139"/>
+      <c r="BP11" s="139"/>
+      <c r="BQ11" s="139"/>
+      <c r="BR11" s="139"/>
+      <c r="BS11" s="139"/>
+      <c r="BT11" s="139"/>
+      <c r="BU11" s="139"/>
+      <c r="BV11" s="139"/>
+      <c r="BW11" s="139"/>
+      <c r="BX11" s="139"/>
+      <c r="BY11" s="139"/>
+      <c r="BZ11" s="139"/>
+      <c r="CA11" s="139"/>
+      <c r="CB11" s="139"/>
+      <c r="CC11" s="139"/>
+      <c r="CD11" s="139"/>
+      <c r="CE11" s="139"/>
+      <c r="CF11" s="139"/>
+      <c r="CG11" s="139"/>
+      <c r="CH11" s="139"/>
+      <c r="CI11" s="139"/>
+      <c r="CJ11" s="139"/>
+      <c r="CK11" s="139"/>
+      <c r="CL11" s="139"/>
+      <c r="CM11" s="139"/>
+      <c r="CN11" s="139"/>
+      <c r="CO11" s="139"/>
+      <c r="CP11" s="139"/>
+      <c r="CQ11" s="139"/>
+      <c r="CR11" s="139"/>
+      <c r="CS11" s="139"/>
+      <c r="CT11" s="139"/>
+      <c r="CU11" s="139"/>
+      <c r="CV11" s="139"/>
+      <c r="CW11" s="140"/>
+    </row>
+    <row r="12" spans="1:101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="108" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="147" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="148" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="137">
+        <v>187</v>
+      </c>
+      <c r="F12" s="138"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="139"/>
+      <c r="K12" s="139"/>
+      <c r="L12" s="139"/>
+      <c r="M12" s="139"/>
+      <c r="N12" s="139"/>
+      <c r="O12" s="139"/>
+      <c r="P12" s="139"/>
+      <c r="Q12" s="139"/>
+      <c r="R12" s="139"/>
+      <c r="S12" s="139"/>
+      <c r="T12" s="139"/>
+      <c r="U12" s="139"/>
+      <c r="V12" s="139"/>
+      <c r="W12" s="139"/>
+      <c r="X12" s="139"/>
+      <c r="Y12" s="139"/>
+      <c r="Z12" s="139"/>
+      <c r="AA12" s="139"/>
+      <c r="AB12" s="139"/>
+      <c r="AC12" s="139"/>
+      <c r="AD12" s="139"/>
+      <c r="AE12" s="139"/>
+      <c r="AF12" s="139"/>
+      <c r="AG12" s="139"/>
+      <c r="AH12" s="139"/>
+      <c r="AI12" s="139"/>
+      <c r="AJ12" s="139"/>
+      <c r="AK12" s="139"/>
+      <c r="AL12" s="139"/>
+      <c r="AM12" s="139"/>
+      <c r="AN12" s="139"/>
+      <c r="AO12" s="139"/>
+      <c r="AP12" s="139"/>
+      <c r="AQ12" s="139"/>
+      <c r="AR12" s="139"/>
+      <c r="AS12" s="139"/>
+      <c r="AT12" s="139"/>
+      <c r="AU12" s="139"/>
+      <c r="AV12" s="139"/>
+      <c r="AW12" s="139"/>
+      <c r="AX12" s="139"/>
+      <c r="AY12" s="139"/>
+      <c r="AZ12" s="139"/>
+      <c r="BA12" s="139"/>
+      <c r="BB12" s="139"/>
+      <c r="BC12" s="139"/>
+      <c r="BD12" s="139"/>
+      <c r="BE12" s="139"/>
+      <c r="BF12" s="139"/>
+      <c r="BG12" s="139"/>
+      <c r="BH12" s="139"/>
+      <c r="BI12" s="139"/>
+      <c r="BJ12" s="139"/>
+      <c r="BK12" s="139"/>
+      <c r="BL12" s="139"/>
+      <c r="BM12" s="139"/>
+      <c r="BN12" s="139"/>
+      <c r="BO12" s="139"/>
+      <c r="BP12" s="139"/>
+      <c r="BQ12" s="139"/>
+      <c r="BR12" s="139"/>
+      <c r="BS12" s="139"/>
+      <c r="BT12" s="139"/>
+      <c r="BU12" s="139"/>
+      <c r="BV12" s="139"/>
+      <c r="BW12" s="139"/>
+      <c r="BX12" s="139"/>
+      <c r="BY12" s="139"/>
+      <c r="BZ12" s="139"/>
+      <c r="CA12" s="139"/>
+      <c r="CB12" s="139"/>
+      <c r="CC12" s="139"/>
+      <c r="CD12" s="139"/>
+      <c r="CE12" s="139"/>
+      <c r="CF12" s="139"/>
+      <c r="CG12" s="139"/>
+      <c r="CH12" s="139"/>
+      <c r="CI12" s="139"/>
+      <c r="CJ12" s="139"/>
+      <c r="CK12" s="139"/>
+      <c r="CL12" s="139"/>
+      <c r="CM12" s="139"/>
+      <c r="CN12" s="139"/>
+      <c r="CO12" s="139"/>
+      <c r="CP12" s="139"/>
+      <c r="CQ12" s="139"/>
+      <c r="CR12" s="139"/>
+      <c r="CS12" s="139"/>
+      <c r="CT12" s="139"/>
+      <c r="CU12" s="139"/>
+      <c r="CV12" s="139"/>
+      <c r="CW12" s="140"/>
+    </row>
+    <row r="13" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A13" s="111"/>
+      <c r="B13" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="39">
+        <v>2012309</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="149">
+        <v>162</v>
+      </c>
+      <c r="F13" s="138"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="139"/>
+      <c r="J13" s="139"/>
+      <c r="K13" s="139"/>
+      <c r="L13" s="139"/>
+      <c r="M13" s="139"/>
+      <c r="N13" s="139"/>
+      <c r="O13" s="139"/>
+      <c r="P13" s="139"/>
+      <c r="Q13" s="139"/>
+      <c r="R13" s="139"/>
+      <c r="S13" s="139"/>
+      <c r="T13" s="139"/>
+      <c r="U13" s="139"/>
+      <c r="V13" s="139"/>
+      <c r="W13" s="139"/>
+      <c r="X13" s="139"/>
+      <c r="Y13" s="139"/>
+      <c r="Z13" s="139"/>
+      <c r="AA13" s="139"/>
+      <c r="AB13" s="139"/>
+      <c r="AC13" s="139"/>
+      <c r="AD13" s="139"/>
+      <c r="AE13" s="139"/>
+      <c r="AF13" s="139"/>
+      <c r="AG13" s="139"/>
+      <c r="AH13" s="139"/>
+      <c r="AI13" s="139"/>
+      <c r="AJ13" s="139"/>
+      <c r="AK13" s="139"/>
+      <c r="AL13" s="139"/>
+      <c r="AM13" s="139"/>
+      <c r="AN13" s="139"/>
+      <c r="AO13" s="139"/>
+      <c r="AP13" s="139"/>
+      <c r="AQ13" s="139"/>
+      <c r="AR13" s="139"/>
+      <c r="AS13" s="139"/>
+      <c r="AT13" s="139"/>
+      <c r="AU13" s="139"/>
+      <c r="AV13" s="139"/>
+      <c r="AW13" s="139"/>
+      <c r="AX13" s="139"/>
+      <c r="AY13" s="139"/>
+      <c r="AZ13" s="139"/>
+      <c r="BA13" s="139"/>
+      <c r="BB13" s="139"/>
+      <c r="BC13" s="139"/>
+      <c r="BD13" s="139"/>
+      <c r="BE13" s="139"/>
+      <c r="BF13" s="139"/>
+      <c r="BG13" s="139"/>
+      <c r="BH13" s="139"/>
+      <c r="BI13" s="139"/>
+      <c r="BJ13" s="139"/>
+      <c r="BK13" s="139"/>
+      <c r="BL13" s="139"/>
+      <c r="BM13" s="139"/>
+      <c r="BN13" s="139"/>
+      <c r="BO13" s="139"/>
+      <c r="BP13" s="139"/>
+      <c r="BQ13" s="139"/>
+      <c r="BR13" s="139"/>
+      <c r="BS13" s="139"/>
+      <c r="BT13" s="139"/>
+      <c r="BU13" s="139"/>
+      <c r="BV13" s="139"/>
+      <c r="BW13" s="139"/>
+      <c r="BX13" s="139"/>
+      <c r="BY13" s="139"/>
+      <c r="BZ13" s="139"/>
+      <c r="CA13" s="139"/>
+      <c r="CB13" s="139"/>
+      <c r="CC13" s="139"/>
+      <c r="CD13" s="139"/>
+      <c r="CE13" s="139"/>
+      <c r="CF13" s="139"/>
+      <c r="CG13" s="139"/>
+      <c r="CH13" s="139"/>
+      <c r="CI13" s="139"/>
+      <c r="CJ13" s="139"/>
+      <c r="CK13" s="139"/>
+      <c r="CL13" s="139"/>
+      <c r="CM13" s="139"/>
+      <c r="CN13" s="139"/>
+      <c r="CO13" s="139"/>
+      <c r="CP13" s="139"/>
+      <c r="CQ13" s="139"/>
+      <c r="CR13" s="139"/>
+      <c r="CS13" s="139"/>
+      <c r="CT13" s="139"/>
+      <c r="CU13" s="139"/>
+      <c r="CV13" s="139"/>
+      <c r="CW13" s="140"/>
+    </row>
+    <row r="14" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A14" s="111"/>
+      <c r="B14" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="150">
+        <v>2011200</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="149">
+        <v>233</v>
+      </c>
+      <c r="F14" s="138"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="139"/>
+      <c r="I14" s="139"/>
+      <c r="J14" s="139"/>
+      <c r="K14" s="139"/>
+      <c r="L14" s="139"/>
+      <c r="M14" s="139"/>
+      <c r="N14" s="139"/>
+      <c r="O14" s="139"/>
+      <c r="P14" s="139"/>
+      <c r="Q14" s="139"/>
+      <c r="R14" s="139"/>
+      <c r="S14" s="139"/>
+      <c r="T14" s="139"/>
+      <c r="U14" s="139"/>
+      <c r="V14" s="139"/>
+      <c r="W14" s="139"/>
+      <c r="X14" s="139"/>
+      <c r="Y14" s="139"/>
+      <c r="Z14" s="139"/>
+      <c r="AA14" s="139"/>
+      <c r="AB14" s="139"/>
+      <c r="AC14" s="139"/>
+      <c r="AD14" s="139"/>
+      <c r="AE14" s="139"/>
+      <c r="AF14" s="139"/>
+      <c r="AG14" s="139"/>
+      <c r="AH14" s="139"/>
+      <c r="AI14" s="139"/>
+      <c r="AJ14" s="139"/>
+      <c r="AK14" s="139"/>
+      <c r="AL14" s="139"/>
+      <c r="AM14" s="139"/>
+      <c r="AN14" s="139"/>
+      <c r="AO14" s="139"/>
+      <c r="AP14" s="139"/>
+      <c r="AQ14" s="139"/>
+      <c r="AR14" s="139"/>
+      <c r="AS14" s="139"/>
+      <c r="AT14" s="139"/>
+      <c r="AU14" s="139"/>
+      <c r="AV14" s="139"/>
+      <c r="AW14" s="139"/>
+      <c r="AX14" s="139"/>
+      <c r="AY14" s="139"/>
+      <c r="AZ14" s="139"/>
+      <c r="BA14" s="139"/>
+      <c r="BB14" s="139"/>
+      <c r="BC14" s="139"/>
+      <c r="BD14" s="139"/>
+      <c r="BE14" s="139"/>
+      <c r="BF14" s="139"/>
+      <c r="BG14" s="139"/>
+      <c r="BH14" s="139"/>
+      <c r="BI14" s="139"/>
+      <c r="BJ14" s="139"/>
+      <c r="BK14" s="139"/>
+      <c r="BL14" s="139"/>
+      <c r="BM14" s="139"/>
+      <c r="BN14" s="139"/>
+      <c r="BO14" s="139"/>
+      <c r="BP14" s="139"/>
+      <c r="BQ14" s="139"/>
+      <c r="BR14" s="139"/>
+      <c r="BS14" s="139"/>
+      <c r="BT14" s="139"/>
+      <c r="BU14" s="139"/>
+      <c r="BV14" s="139"/>
+      <c r="BW14" s="139"/>
+      <c r="BX14" s="139"/>
+      <c r="BY14" s="139"/>
+      <c r="BZ14" s="139"/>
+      <c r="CA14" s="139"/>
+      <c r="CB14" s="139"/>
+      <c r="CC14" s="139"/>
+      <c r="CD14" s="139"/>
+      <c r="CE14" s="139"/>
+      <c r="CF14" s="139"/>
+      <c r="CG14" s="139"/>
+      <c r="CH14" s="139"/>
+      <c r="CI14" s="139"/>
+      <c r="CJ14" s="139"/>
+      <c r="CK14" s="139"/>
+      <c r="CL14" s="139"/>
+      <c r="CM14" s="139"/>
+      <c r="CN14" s="139"/>
+      <c r="CO14" s="139"/>
+      <c r="CP14" s="139"/>
+      <c r="CQ14" s="139"/>
+      <c r="CR14" s="139"/>
+      <c r="CS14" s="139"/>
+      <c r="CT14" s="139"/>
+      <c r="CU14" s="139"/>
+      <c r="CV14" s="139"/>
+      <c r="CW14" s="140"/>
+    </row>
+    <row r="15" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A15" s="111"/>
+      <c r="B15" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="90">
+        <v>2012311</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="151">
+        <v>334</v>
+      </c>
+      <c r="F15" s="138"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="139"/>
+      <c r="K15" s="139"/>
+      <c r="L15" s="139"/>
+      <c r="M15" s="139"/>
+      <c r="N15" s="139"/>
+      <c r="O15" s="139"/>
+      <c r="P15" s="139"/>
+      <c r="Q15" s="139"/>
+      <c r="R15" s="139"/>
+      <c r="S15" s="139"/>
+      <c r="T15" s="139"/>
+      <c r="U15" s="139"/>
+      <c r="V15" s="139"/>
+      <c r="W15" s="139"/>
+      <c r="X15" s="139"/>
+      <c r="Y15" s="139"/>
+      <c r="Z15" s="139"/>
+      <c r="AA15" s="139"/>
+      <c r="AB15" s="139"/>
+      <c r="AC15" s="139"/>
+      <c r="AD15" s="139"/>
+      <c r="AE15" s="139"/>
+      <c r="AF15" s="139"/>
+      <c r="AG15" s="139"/>
+      <c r="AH15" s="139"/>
+      <c r="AI15" s="139"/>
+      <c r="AJ15" s="139"/>
+      <c r="AK15" s="139"/>
+      <c r="AL15" s="139"/>
+      <c r="AM15" s="139"/>
+      <c r="AN15" s="139"/>
+      <c r="AO15" s="139"/>
+      <c r="AP15" s="139"/>
+      <c r="AQ15" s="139"/>
+      <c r="AR15" s="139"/>
+      <c r="AS15" s="139"/>
+      <c r="AT15" s="139"/>
+      <c r="AU15" s="139"/>
+      <c r="AV15" s="139"/>
+      <c r="AW15" s="139"/>
+      <c r="AX15" s="139"/>
+      <c r="AY15" s="139"/>
+      <c r="AZ15" s="139"/>
+      <c r="BA15" s="139"/>
+      <c r="BB15" s="139"/>
+      <c r="BC15" s="139"/>
+      <c r="BD15" s="139"/>
+      <c r="BE15" s="139"/>
+      <c r="BF15" s="139"/>
+      <c r="BG15" s="139"/>
+      <c r="BH15" s="139"/>
+      <c r="BI15" s="139"/>
+      <c r="BJ15" s="139"/>
+      <c r="BK15" s="139"/>
+      <c r="BL15" s="139"/>
+      <c r="BM15" s="139"/>
+      <c r="BN15" s="139"/>
+      <c r="BO15" s="139"/>
+      <c r="BP15" s="139"/>
+      <c r="BQ15" s="139"/>
+      <c r="BR15" s="139"/>
+      <c r="BS15" s="139"/>
+      <c r="BT15" s="139"/>
+      <c r="BU15" s="139"/>
+      <c r="BV15" s="139"/>
+      <c r="BW15" s="139"/>
+      <c r="BX15" s="139"/>
+      <c r="BY15" s="139"/>
+      <c r="BZ15" s="139"/>
+      <c r="CA15" s="139"/>
+      <c r="CB15" s="139"/>
+      <c r="CC15" s="139"/>
+      <c r="CD15" s="139"/>
+      <c r="CE15" s="139"/>
+      <c r="CF15" s="139"/>
+      <c r="CG15" s="139"/>
+      <c r="CH15" s="139"/>
+      <c r="CI15" s="139"/>
+      <c r="CJ15" s="139"/>
+      <c r="CK15" s="139"/>
+      <c r="CL15" s="139"/>
+      <c r="CM15" s="139"/>
+      <c r="CN15" s="139"/>
+      <c r="CO15" s="139"/>
+      <c r="CP15" s="139"/>
+      <c r="CQ15" s="139"/>
+      <c r="CR15" s="139"/>
+      <c r="CS15" s="139"/>
+      <c r="CT15" s="139"/>
+      <c r="CU15" s="139"/>
+      <c r="CV15" s="139"/>
+      <c r="CW15" s="140"/>
+    </row>
+    <row r="16" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A16" s="77"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="80"/>
+      <c r="Q16" s="80"/>
+      <c r="R16" s="80"/>
+      <c r="S16" s="80"/>
+      <c r="T16" s="80"/>
+      <c r="U16" s="80"/>
+      <c r="V16" s="80"/>
+      <c r="W16" s="80"/>
+      <c r="X16" s="80"/>
+      <c r="Y16" s="80"/>
+      <c r="Z16" s="80"/>
+      <c r="AA16" s="80"/>
+      <c r="AB16" s="80"/>
+      <c r="AC16" s="80"/>
+      <c r="AD16" s="80"/>
+      <c r="AE16" s="80"/>
+      <c r="AF16" s="80"/>
+      <c r="AG16" s="80"/>
+      <c r="AH16" s="80"/>
+      <c r="AI16" s="80"/>
+      <c r="AJ16" s="80"/>
+      <c r="AK16" s="80"/>
+      <c r="AL16" s="80"/>
+      <c r="AM16" s="29"/>
+      <c r="AN16" s="29"/>
+      <c r="AO16" s="29"/>
+      <c r="AP16" s="29"/>
+      <c r="AQ16" s="29"/>
+      <c r="AR16" s="29"/>
+      <c r="AS16" s="29"/>
+      <c r="AT16" s="29"/>
+      <c r="AU16" s="29"/>
+      <c r="AV16" s="29"/>
+      <c r="AW16" s="29"/>
+      <c r="AX16" s="29"/>
+      <c r="AY16" s="29"/>
+      <c r="AZ16" s="29"/>
+      <c r="BA16" s="29"/>
+    </row>
+    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A17" s="77"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="152"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="80"/>
+      <c r="Q17" s="80"/>
+      <c r="R17" s="80"/>
+      <c r="S17" s="80"/>
+      <c r="T17" s="80"/>
+      <c r="U17" s="80"/>
+      <c r="V17" s="80"/>
+      <c r="W17" s="80"/>
+      <c r="X17" s="80"/>
+      <c r="Y17" s="80"/>
+      <c r="Z17" s="80"/>
+      <c r="AA17" s="80"/>
+      <c r="AB17" s="80"/>
+      <c r="AC17" s="80"/>
+      <c r="AD17" s="80"/>
+      <c r="AE17" s="80"/>
+      <c r="AF17" s="80"/>
+      <c r="AG17" s="80"/>
+      <c r="AH17" s="80"/>
+      <c r="AI17" s="80"/>
+      <c r="AJ17" s="80"/>
+      <c r="AK17" s="80"/>
+      <c r="AL17" s="80"/>
+      <c r="AM17" s="29"/>
+      <c r="AN17" s="29"/>
+      <c r="AO17" s="29"/>
+      <c r="AP17" s="29"/>
+      <c r="AQ17" s="29"/>
+      <c r="AR17" s="29"/>
+      <c r="AS17" s="29"/>
+      <c r="AT17" s="29"/>
+      <c r="AU17" s="29"/>
+      <c r="AV17" s="29"/>
+      <c r="AW17" s="29"/>
+      <c r="AX17" s="29"/>
+      <c r="AY17" s="29"/>
+      <c r="AZ17" s="29"/>
+      <c r="BA17" s="29"/>
+    </row>
+    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A18" s="77"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="80"/>
+      <c r="Q18" s="80"/>
+      <c r="R18" s="80"/>
+      <c r="S18" s="80"/>
+      <c r="T18" s="80"/>
+      <c r="U18" s="80"/>
+      <c r="V18" s="80"/>
+      <c r="W18" s="80"/>
+      <c r="X18" s="80"/>
+      <c r="Y18" s="80"/>
+      <c r="Z18" s="80"/>
+      <c r="AA18" s="80"/>
+      <c r="AB18" s="80"/>
+      <c r="AC18" s="80"/>
+      <c r="AD18" s="80"/>
+      <c r="AE18" s="80"/>
+      <c r="AF18" s="80"/>
+      <c r="AG18" s="80"/>
+      <c r="AH18" s="80"/>
+      <c r="AI18" s="80"/>
+      <c r="AJ18" s="80"/>
+      <c r="AK18" s="80"/>
+      <c r="AL18" s="80"/>
+      <c r="AM18" s="29"/>
+      <c r="AN18" s="29"/>
+      <c r="AO18" s="29"/>
+      <c r="AP18" s="29"/>
+      <c r="AQ18" s="29"/>
+      <c r="AR18" s="29"/>
+      <c r="AS18" s="29"/>
+      <c r="AT18" s="29"/>
+      <c r="AU18" s="29"/>
+      <c r="AV18" s="29"/>
+      <c r="AW18" s="29"/>
+      <c r="AX18" s="29"/>
+      <c r="AY18" s="29"/>
+      <c r="AZ18" s="29"/>
+      <c r="BA18" s="29"/>
+    </row>
+    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A19" s="77"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="80"/>
+      <c r="P19" s="80"/>
+      <c r="Q19" s="80"/>
+      <c r="R19" s="80"/>
+      <c r="S19" s="80"/>
+      <c r="T19" s="80"/>
+      <c r="U19" s="80"/>
+      <c r="V19" s="80"/>
+      <c r="W19" s="80"/>
+      <c r="X19" s="80"/>
+      <c r="Y19" s="80"/>
+      <c r="Z19" s="80"/>
+      <c r="AA19" s="80"/>
+      <c r="AB19" s="80"/>
+      <c r="AC19" s="80"/>
+      <c r="AD19" s="80"/>
+      <c r="AE19" s="80"/>
+      <c r="AF19" s="80"/>
+      <c r="AG19" s="80"/>
+      <c r="AH19" s="80"/>
+      <c r="AI19" s="80"/>
+      <c r="AJ19" s="80"/>
+      <c r="AK19" s="80"/>
+      <c r="AL19" s="80"/>
+      <c r="AM19" s="29"/>
+      <c r="AN19" s="29"/>
+      <c r="AO19" s="29"/>
+      <c r="AP19" s="29"/>
+      <c r="AQ19" s="29"/>
+      <c r="AR19" s="29"/>
+      <c r="AS19" s="29"/>
+      <c r="AT19" s="29"/>
+      <c r="AU19" s="29"/>
+      <c r="AV19" s="29"/>
+      <c r="AW19" s="29"/>
+      <c r="AX19" s="29"/>
+      <c r="AY19" s="29"/>
+      <c r="AZ19" s="29"/>
+      <c r="BA19" s="29"/>
+    </row>
+    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A20" s="77"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
+      <c r="P20" s="80"/>
+      <c r="Q20" s="80"/>
+      <c r="R20" s="80"/>
+      <c r="S20" s="80"/>
+      <c r="T20" s="80"/>
+      <c r="U20" s="80"/>
+      <c r="V20" s="80"/>
+      <c r="W20" s="80"/>
+      <c r="X20" s="80"/>
+      <c r="Y20" s="80"/>
+      <c r="Z20" s="80"/>
+      <c r="AA20" s="80"/>
+      <c r="AB20" s="80"/>
+      <c r="AC20" s="80"/>
+      <c r="AD20" s="80"/>
+      <c r="AE20" s="80"/>
+      <c r="AF20" s="80"/>
+      <c r="AG20" s="80"/>
+      <c r="AH20" s="80"/>
+      <c r="AI20" s="80"/>
+      <c r="AJ20" s="80"/>
+      <c r="AK20" s="80"/>
+      <c r="AL20" s="80"/>
+      <c r="AM20" s="29"/>
+      <c r="AN20" s="29"/>
+      <c r="AO20" s="29"/>
+      <c r="AP20" s="29"/>
+      <c r="AQ20" s="29"/>
+      <c r="AR20" s="29"/>
+      <c r="AS20" s="29"/>
+      <c r="AT20" s="29"/>
+      <c r="AU20" s="29"/>
+      <c r="AV20" s="29"/>
+      <c r="AW20" s="29"/>
+      <c r="AX20" s="29"/>
+      <c r="AY20" s="29"/>
+      <c r="AZ20" s="29"/>
+      <c r="BA20" s="29"/>
+    </row>
+    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A21" s="77"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="80"/>
+      <c r="P21" s="80"/>
+      <c r="Q21" s="80"/>
+      <c r="R21" s="80"/>
+      <c r="S21" s="80"/>
+      <c r="T21" s="80"/>
+      <c r="U21" s="80"/>
+      <c r="V21" s="80"/>
+      <c r="W21" s="80"/>
+      <c r="X21" s="80"/>
+      <c r="Y21" s="80"/>
+      <c r="Z21" s="80"/>
+      <c r="AA21" s="80"/>
+      <c r="AB21" s="80"/>
+      <c r="AC21" s="80"/>
+      <c r="AD21" s="80"/>
+      <c r="AE21" s="80"/>
+      <c r="AF21" s="80"/>
+      <c r="AG21" s="80"/>
+      <c r="AH21" s="80"/>
+      <c r="AI21" s="80"/>
+      <c r="AJ21" s="80"/>
+      <c r="AK21" s="80"/>
+      <c r="AL21" s="80"/>
+      <c r="AM21" s="29"/>
+      <c r="AN21" s="29"/>
+      <c r="AO21" s="29"/>
+      <c r="AP21" s="29"/>
+      <c r="AQ21" s="29"/>
+      <c r="AR21" s="29"/>
+      <c r="AS21" s="29"/>
+      <c r="AT21" s="29"/>
+      <c r="AU21" s="29"/>
+      <c r="AV21" s="29"/>
+      <c r="AW21" s="29"/>
+      <c r="AX21" s="29"/>
+      <c r="AY21" s="29"/>
+      <c r="AZ21" s="29"/>
+      <c r="BA21" s="29"/>
+    </row>
+    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="M23" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="M25" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="M26" s="32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="CH3:CK3"/>
+    <mergeCell ref="CL3:CO3"/>
+    <mergeCell ref="CP3:CS3"/>
+    <mergeCell ref="CT3:CW3"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="BJ3:BM3"/>
+    <mergeCell ref="BN3:BQ3"/>
+    <mergeCell ref="BR3:BU3"/>
+    <mergeCell ref="BV3:BY3"/>
+    <mergeCell ref="BZ3:CC3"/>
+    <mergeCell ref="CD3:CG3"/>
+    <mergeCell ref="AL3:AO3"/>
+    <mergeCell ref="AP3:AS3"/>
+    <mergeCell ref="AT3:AW3"/>
+    <mergeCell ref="AX3:BA3"/>
+    <mergeCell ref="BB3:BE3"/>
+    <mergeCell ref="BF3:BI3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:BA2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AH3:AK3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>

--- a/sourse.xlsx
+++ b/sourse.xlsx
@@ -9,7 +9,8 @@
   <sheets>
     <sheet name="Комбайн" sheetId="1" r:id="rId1"/>
     <sheet name="01.10" sheetId="71" r:id="rId2"/>
-    <sheet name="19.11" sheetId="72" r:id="rId3"/>
+    <sheet name="17.11" sheetId="73" r:id="rId3"/>
+    <sheet name="19.11" sheetId="72" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525" refMode="R1C1"/>
 </workbook>
@@ -2987,8 +2988,201 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Диспетчер ЧИМК Васюк Евгений</author>
+  </authors>
+  <commentList>
+    <comment ref="C5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Диспетчер ЧИМК Васюк Евгений:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+237</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Диспетчер ЧИМК Васюк Евгений:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+238</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Диспетчер ЧИМК Васюк Евгений:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+239</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Диспетчер ЧИМК Васюк Евгений:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+240</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Диспетчер ЧИМК Васюк Евгений:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+241
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Диспетчер ЧИМК Васюк Евгений:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+242</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Диспетчер ЧИМК Васюк Евгений:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+446</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="90">
   <si>
     <t>Держ №</t>
   </si>
@@ -3250,12 +3444,21 @@
   <si>
     <t>-</t>
   </si>
+  <si>
+    <t>18.11</t>
+  </si>
+  <si>
+    <t>переїзд 32 км</t>
+  </si>
+  <si>
+    <t>блемний треккер</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3333,6 +3536,14 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -3935,7 +4146,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4111,82 +4322,13 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4234,6 +4376,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -4557,24 +4777,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="131" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7282,63 +7502,63 @@
       </c>
     </row>
     <row r="2" spans="1:53" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="104"/>
+      <c r="B2" s="139"/>
       <c r="C2" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="105" t="s">
+      <c r="F2" s="140" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="105"/>
-      <c r="Y2" s="105"/>
-      <c r="Z2" s="105"/>
-      <c r="AA2" s="105"/>
-      <c r="AB2" s="105"/>
-      <c r="AC2" s="105"/>
-      <c r="AD2" s="105"/>
-      <c r="AE2" s="105"/>
-      <c r="AF2" s="105"/>
-      <c r="AG2" s="105"/>
-      <c r="AH2" s="105"/>
-      <c r="AI2" s="105"/>
-      <c r="AJ2" s="105"/>
-      <c r="AK2" s="105"/>
-      <c r="AL2" s="105"/>
-      <c r="AM2" s="105"/>
-      <c r="AN2" s="105"/>
-      <c r="AO2" s="105"/>
-      <c r="AP2" s="105"/>
-      <c r="AQ2" s="105"/>
-      <c r="AR2" s="105"/>
-      <c r="AS2" s="105"/>
-      <c r="AT2" s="105"/>
-      <c r="AU2" s="105"/>
-      <c r="AV2" s="105"/>
-      <c r="AW2" s="105"/>
-      <c r="AX2" s="105"/>
-      <c r="AY2" s="105"/>
-      <c r="AZ2" s="105"/>
-      <c r="BA2" s="105"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="140"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="140"/>
+      <c r="W2" s="140"/>
+      <c r="X2" s="140"/>
+      <c r="Y2" s="140"/>
+      <c r="Z2" s="140"/>
+      <c r="AA2" s="140"/>
+      <c r="AB2" s="140"/>
+      <c r="AC2" s="140"/>
+      <c r="AD2" s="140"/>
+      <c r="AE2" s="140"/>
+      <c r="AF2" s="140"/>
+      <c r="AG2" s="140"/>
+      <c r="AH2" s="140"/>
+      <c r="AI2" s="140"/>
+      <c r="AJ2" s="140"/>
+      <c r="AK2" s="140"/>
+      <c r="AL2" s="140"/>
+      <c r="AM2" s="140"/>
+      <c r="AN2" s="140"/>
+      <c r="AO2" s="140"/>
+      <c r="AP2" s="140"/>
+      <c r="AQ2" s="140"/>
+      <c r="AR2" s="140"/>
+      <c r="AS2" s="140"/>
+      <c r="AT2" s="140"/>
+      <c r="AU2" s="140"/>
+      <c r="AV2" s="140"/>
+      <c r="AW2" s="140"/>
+      <c r="AX2" s="140"/>
+      <c r="AY2" s="140"/>
+      <c r="AZ2" s="140"/>
+      <c r="BA2" s="140"/>
     </row>
     <row r="3" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
@@ -7356,102 +7576,102 @@
       <c r="E3" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="106">
+      <c r="F3" s="136">
         <v>7</v>
       </c>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106">
+      <c r="G3" s="136"/>
+      <c r="H3" s="136">
         <v>8</v>
       </c>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106">
+      <c r="I3" s="136"/>
+      <c r="J3" s="136">
         <v>9</v>
       </c>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106">
+      <c r="K3" s="136"/>
+      <c r="L3" s="136">
         <v>10</v>
       </c>
-      <c r="M3" s="106"/>
-      <c r="N3" s="106">
+      <c r="M3" s="136"/>
+      <c r="N3" s="136">
         <v>11</v>
       </c>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106">
+      <c r="O3" s="136"/>
+      <c r="P3" s="136">
         <v>12</v>
       </c>
-      <c r="Q3" s="106"/>
-      <c r="R3" s="106">
+      <c r="Q3" s="136"/>
+      <c r="R3" s="136">
         <v>13</v>
       </c>
-      <c r="S3" s="106"/>
-      <c r="T3" s="106">
+      <c r="S3" s="136"/>
+      <c r="T3" s="136">
         <v>14</v>
       </c>
-      <c r="U3" s="106"/>
-      <c r="V3" s="106">
+      <c r="U3" s="136"/>
+      <c r="V3" s="136">
         <v>15</v>
       </c>
-      <c r="W3" s="106"/>
-      <c r="X3" s="106">
+      <c r="W3" s="136"/>
+      <c r="X3" s="136">
         <v>16</v>
       </c>
-      <c r="Y3" s="106"/>
-      <c r="Z3" s="113">
+      <c r="Y3" s="136"/>
+      <c r="Z3" s="138">
         <v>17</v>
       </c>
-      <c r="AA3" s="113"/>
-      <c r="AB3" s="113">
+      <c r="AA3" s="138"/>
+      <c r="AB3" s="138">
         <v>18</v>
       </c>
-      <c r="AC3" s="113"/>
-      <c r="AD3" s="106">
+      <c r="AC3" s="138"/>
+      <c r="AD3" s="136">
         <v>19</v>
       </c>
-      <c r="AE3" s="106"/>
-      <c r="AF3" s="106">
+      <c r="AE3" s="136"/>
+      <c r="AF3" s="136">
         <v>20</v>
       </c>
-      <c r="AG3" s="106"/>
-      <c r="AH3" s="106">
+      <c r="AG3" s="136"/>
+      <c r="AH3" s="136">
         <v>21</v>
       </c>
-      <c r="AI3" s="106"/>
-      <c r="AJ3" s="106">
+      <c r="AI3" s="136"/>
+      <c r="AJ3" s="136">
         <v>22</v>
       </c>
-      <c r="AK3" s="106"/>
-      <c r="AL3" s="106">
+      <c r="AK3" s="136"/>
+      <c r="AL3" s="136">
         <v>23</v>
       </c>
-      <c r="AM3" s="106"/>
-      <c r="AN3" s="106">
+      <c r="AM3" s="136"/>
+      <c r="AN3" s="136">
         <v>24</v>
       </c>
-      <c r="AO3" s="106"/>
-      <c r="AP3" s="106">
+      <c r="AO3" s="136"/>
+      <c r="AP3" s="136">
         <v>1</v>
       </c>
-      <c r="AQ3" s="106"/>
-      <c r="AR3" s="106">
+      <c r="AQ3" s="136"/>
+      <c r="AR3" s="136">
         <v>2</v>
       </c>
-      <c r="AS3" s="106"/>
-      <c r="AT3" s="106">
+      <c r="AS3" s="136"/>
+      <c r="AT3" s="136">
         <v>3</v>
       </c>
-      <c r="AU3" s="106"/>
-      <c r="AV3" s="106">
+      <c r="AU3" s="136"/>
+      <c r="AV3" s="136">
         <v>4</v>
       </c>
-      <c r="AW3" s="106"/>
-      <c r="AX3" s="106">
+      <c r="AW3" s="136"/>
+      <c r="AX3" s="136">
         <v>5</v>
       </c>
-      <c r="AY3" s="106"/>
-      <c r="AZ3" s="106">
+      <c r="AY3" s="136"/>
+      <c r="AZ3" s="136">
         <v>6</v>
       </c>
-      <c r="BA3" s="107"/>
+      <c r="BA3" s="141"/>
     </row>
     <row r="4" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="94" t="s">
@@ -7511,7 +7731,7 @@
       <c r="BA4" s="97"/>
     </row>
     <row r="5" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="132" t="s">
         <v>72</v>
       </c>
       <c r="B5" s="59" t="s">
@@ -7578,7 +7798,7 @@
       <c r="BA5" s="50"/>
     </row>
     <row r="6" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="111"/>
+      <c r="A6" s="135"/>
       <c r="B6" s="34" t="s">
         <v>62</v>
       </c>
@@ -7645,7 +7865,7 @@
       <c r="BA6" s="51"/>
     </row>
     <row r="7" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="109"/>
+      <c r="A7" s="133"/>
       <c r="B7" s="40" t="s">
         <v>62</v>
       </c>
@@ -7710,7 +7930,7 @@
       <c r="BA7" s="57"/>
     </row>
     <row r="8" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="134" t="s">
         <v>67</v>
       </c>
       <c r="B8" s="38" t="s">
@@ -7777,7 +7997,7 @@
       <c r="BA8" s="74"/>
     </row>
     <row r="9" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="112"/>
+      <c r="A9" s="137"/>
       <c r="B9" s="87" t="s">
         <v>32</v>
       </c>
@@ -7840,7 +8060,7 @@
       <c r="BA9" s="70"/>
     </row>
     <row r="10" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="132" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="59" t="s">
@@ -7905,7 +8125,7 @@
       <c r="BA10" s="50"/>
     </row>
     <row r="11" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="109"/>
+      <c r="A11" s="133"/>
       <c r="B11" s="40" t="s">
         <v>69</v>
       </c>
@@ -7964,7 +8184,7 @@
       <c r="BA11" s="57"/>
     </row>
     <row r="12" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="110" t="s">
+      <c r="A12" s="134" t="s">
         <v>70</v>
       </c>
       <c r="B12" s="58" t="s">
@@ -8033,7 +8253,7 @@
       <c r="BA12" s="71"/>
     </row>
     <row r="13" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="111"/>
+      <c r="A13" s="135"/>
       <c r="B13" s="34" t="s">
         <v>24</v>
       </c>
@@ -8100,7 +8320,7 @@
       <c r="BA13" s="51"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A14" s="111"/>
+      <c r="A14" s="135"/>
       <c r="B14" s="34" t="s">
         <v>24</v>
       </c>
@@ -8165,7 +8385,7 @@
       <c r="BA14" s="51"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A15" s="111"/>
+      <c r="A15" s="135"/>
       <c r="B15" s="34" t="s">
         <v>24</v>
       </c>
@@ -8228,7 +8448,7 @@
       <c r="BA15" s="51"/>
     </row>
     <row r="16" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="111"/>
+      <c r="A16" s="135"/>
       <c r="B16" s="34" t="s">
         <v>45</v>
       </c>
@@ -8289,7 +8509,7 @@
       <c r="BA16" s="51"/>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A17" s="111"/>
+      <c r="A17" s="135"/>
       <c r="B17" s="34" t="s">
         <v>24</v>
       </c>
@@ -8354,7 +8574,7 @@
       <c r="BA17" s="51"/>
     </row>
     <row r="18" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="109"/>
+      <c r="A18" s="133"/>
       <c r="B18" s="40" t="s">
         <v>24</v>
       </c>
@@ -8419,7 +8639,7 @@
       <c r="BA18" s="57"/>
     </row>
     <row r="19" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="110" t="s">
+      <c r="A19" s="134" t="s">
         <v>71</v>
       </c>
       <c r="B19" s="38" t="s">
@@ -8486,7 +8706,7 @@
       <c r="BA19" s="71"/>
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A20" s="111"/>
+      <c r="A20" s="135"/>
       <c r="B20" s="41" t="s">
         <v>32</v>
       </c>
@@ -8549,7 +8769,7 @@
       <c r="BA20" s="51"/>
     </row>
     <row r="21" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="109"/>
+      <c r="A21" s="133"/>
       <c r="B21" s="60" t="s">
         <v>32</v>
       </c>
@@ -9072,6 +9292,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:BA2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="AX3:AY3"/>
+    <mergeCell ref="AZ3:BA3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AR3:AS3"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="A19:A21"/>
@@ -9088,21 +9323,6 @@
     <mergeCell ref="AB3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:BA2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="AX3:AY3"/>
-    <mergeCell ref="AZ3:BA3"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="AR3:AS3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
@@ -9112,12 +9332,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:CW26"/>
+  <dimension ref="A2:BA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="X18" sqref="X18"/>
-      <selection pane="bottomLeft" activeCell="AT33" sqref="AT33"/>
+      <selection pane="bottomLeft" activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9127,450 +9347,308 @@
     <col min="3" max="3" width="11.42578125" style="32" customWidth="1"/>
     <col min="4" max="4" width="25.85546875" style="32" customWidth="1"/>
     <col min="5" max="5" width="22.140625" style="32" customWidth="1"/>
-    <col min="6" max="101" width="1.42578125" style="32" customWidth="1"/>
-    <col min="102" max="16384" width="9.140625" style="32"/>
+    <col min="6" max="53" width="3.28515625" style="32" customWidth="1"/>
+    <col min="54" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:101" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="104" t="s">
+    <row r="2" spans="1:53" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="104"/>
+      <c r="B2" s="139"/>
       <c r="C2" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="105" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="140" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="105"/>
-      <c r="Y2" s="105"/>
-      <c r="Z2" s="105"/>
-      <c r="AA2" s="105"/>
-      <c r="AB2" s="105"/>
-      <c r="AC2" s="105"/>
-      <c r="AD2" s="105"/>
-      <c r="AE2" s="105"/>
-      <c r="AF2" s="105"/>
-      <c r="AG2" s="105"/>
-      <c r="AH2" s="105"/>
-      <c r="AI2" s="105"/>
-      <c r="AJ2" s="105"/>
-      <c r="AK2" s="105"/>
-      <c r="AL2" s="105"/>
-      <c r="AM2" s="105"/>
-      <c r="AN2" s="105"/>
-      <c r="AO2" s="105"/>
-      <c r="AP2" s="105"/>
-      <c r="AQ2" s="105"/>
-      <c r="AR2" s="105"/>
-      <c r="AS2" s="105"/>
-      <c r="AT2" s="105"/>
-      <c r="AU2" s="105"/>
-      <c r="AV2" s="105"/>
-      <c r="AW2" s="105"/>
-      <c r="AX2" s="105"/>
-      <c r="AY2" s="105"/>
-      <c r="AZ2" s="105"/>
-      <c r="BA2" s="105"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="140"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="140"/>
+      <c r="W2" s="140"/>
+      <c r="X2" s="140"/>
+      <c r="Y2" s="140"/>
+      <c r="Z2" s="140"/>
+      <c r="AA2" s="140"/>
+      <c r="AB2" s="140"/>
+      <c r="AC2" s="140"/>
+      <c r="AD2" s="140"/>
+      <c r="AE2" s="140"/>
+      <c r="AF2" s="140"/>
+      <c r="AG2" s="140"/>
+      <c r="AH2" s="140"/>
+      <c r="AI2" s="140"/>
+      <c r="AJ2" s="140"/>
+      <c r="AK2" s="140"/>
+      <c r="AL2" s="140"/>
+      <c r="AM2" s="140"/>
+      <c r="AN2" s="140"/>
+      <c r="AO2" s="140"/>
+      <c r="AP2" s="140"/>
+      <c r="AQ2" s="140"/>
+      <c r="AR2" s="140"/>
+      <c r="AS2" s="140"/>
+      <c r="AT2" s="140"/>
+      <c r="AU2" s="140"/>
+      <c r="AV2" s="140"/>
+      <c r="AW2" s="140"/>
+      <c r="AX2" s="140"/>
+      <c r="AY2" s="140"/>
+      <c r="AZ2" s="140"/>
+      <c r="BA2" s="140"/>
     </row>
-    <row r="3" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+    <row r="3" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="C3" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="115" t="s">
+      <c r="D3" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="115" t="s">
+      <c r="E3" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="116">
+      <c r="F3" s="136">
         <v>7</v>
       </c>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="119">
+      <c r="G3" s="136"/>
+      <c r="H3" s="136">
         <v>8</v>
       </c>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="119">
+      <c r="I3" s="136"/>
+      <c r="J3" s="136">
         <v>9</v>
       </c>
-      <c r="O3" s="120"/>
-      <c r="P3" s="120"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="119">
+      <c r="K3" s="136"/>
+      <c r="L3" s="136">
         <v>10</v>
       </c>
-      <c r="S3" s="120"/>
-      <c r="T3" s="120"/>
-      <c r="U3" s="121"/>
-      <c r="V3" s="119">
+      <c r="M3" s="136"/>
+      <c r="N3" s="136">
         <v>11</v>
       </c>
-      <c r="W3" s="120"/>
-      <c r="X3" s="120"/>
-      <c r="Y3" s="121"/>
-      <c r="Z3" s="122">
+      <c r="O3" s="136"/>
+      <c r="P3" s="136">
         <v>12</v>
       </c>
-      <c r="AA3" s="123"/>
-      <c r="AB3" s="123"/>
-      <c r="AC3" s="124"/>
-      <c r="AD3" s="119">
+      <c r="Q3" s="136"/>
+      <c r="R3" s="136">
         <v>13</v>
       </c>
-      <c r="AE3" s="120"/>
-      <c r="AF3" s="120"/>
-      <c r="AG3" s="121"/>
-      <c r="AH3" s="119">
+      <c r="S3" s="136"/>
+      <c r="T3" s="136">
         <v>14</v>
       </c>
-      <c r="AI3" s="120"/>
-      <c r="AJ3" s="120"/>
-      <c r="AK3" s="121"/>
-      <c r="AL3" s="119">
+      <c r="U3" s="136"/>
+      <c r="V3" s="136">
         <v>15</v>
       </c>
-      <c r="AM3" s="120"/>
-      <c r="AN3" s="120"/>
-      <c r="AO3" s="121"/>
-      <c r="AP3" s="119">
+      <c r="W3" s="136"/>
+      <c r="X3" s="136">
         <v>16</v>
       </c>
-      <c r="AQ3" s="120"/>
-      <c r="AR3" s="120"/>
-      <c r="AS3" s="121"/>
-      <c r="AT3" s="119">
+      <c r="Y3" s="136"/>
+      <c r="Z3" s="138">
         <v>17</v>
       </c>
-      <c r="AU3" s="120"/>
-      <c r="AV3" s="120"/>
-      <c r="AW3" s="121"/>
-      <c r="AX3" s="119">
+      <c r="AA3" s="138"/>
+      <c r="AB3" s="138">
         <v>18</v>
       </c>
-      <c r="AY3" s="120"/>
-      <c r="AZ3" s="120"/>
-      <c r="BA3" s="125"/>
-      <c r="BB3" s="116">
+      <c r="AC3" s="138"/>
+      <c r="AD3" s="136">
         <v>19</v>
       </c>
-      <c r="BC3" s="117"/>
-      <c r="BD3" s="117"/>
-      <c r="BE3" s="118"/>
-      <c r="BF3" s="119">
+      <c r="AE3" s="136"/>
+      <c r="AF3" s="136">
         <v>20</v>
       </c>
-      <c r="BG3" s="120"/>
-      <c r="BH3" s="120"/>
-      <c r="BI3" s="121"/>
-      <c r="BJ3" s="119">
+      <c r="AG3" s="136"/>
+      <c r="AH3" s="136">
         <v>21</v>
       </c>
-      <c r="BK3" s="120"/>
-      <c r="BL3" s="120"/>
-      <c r="BM3" s="121"/>
-      <c r="BN3" s="119">
+      <c r="AI3" s="136"/>
+      <c r="AJ3" s="136">
         <v>22</v>
       </c>
-      <c r="BO3" s="120"/>
-      <c r="BP3" s="120"/>
-      <c r="BQ3" s="121"/>
-      <c r="BR3" s="119">
+      <c r="AK3" s="136"/>
+      <c r="AL3" s="136">
         <v>23</v>
       </c>
-      <c r="BS3" s="120"/>
-      <c r="BT3" s="120"/>
-      <c r="BU3" s="120"/>
-      <c r="BV3" s="126">
+      <c r="AM3" s="136"/>
+      <c r="AN3" s="136">
         <v>24</v>
       </c>
-      <c r="BW3" s="127"/>
-      <c r="BX3" s="127"/>
-      <c r="BY3" s="128"/>
-      <c r="BZ3" s="120">
+      <c r="AO3" s="136"/>
+      <c r="AP3" s="136">
         <v>1</v>
       </c>
-      <c r="CA3" s="120"/>
-      <c r="CB3" s="120"/>
-      <c r="CC3" s="121"/>
-      <c r="CD3" s="119">
+      <c r="AQ3" s="136"/>
+      <c r="AR3" s="136">
         <v>2</v>
       </c>
-      <c r="CE3" s="120"/>
-      <c r="CF3" s="120"/>
-      <c r="CG3" s="121"/>
-      <c r="CH3" s="119">
+      <c r="AS3" s="136"/>
+      <c r="AT3" s="136">
         <v>3</v>
       </c>
-      <c r="CI3" s="120"/>
-      <c r="CJ3" s="120"/>
-      <c r="CK3" s="121"/>
-      <c r="CL3" s="119">
+      <c r="AU3" s="136"/>
+      <c r="AV3" s="136">
         <v>4</v>
       </c>
-      <c r="CM3" s="120"/>
-      <c r="CN3" s="120"/>
-      <c r="CO3" s="121"/>
-      <c r="CP3" s="119">
+      <c r="AW3" s="136"/>
+      <c r="AX3" s="136">
         <v>5</v>
       </c>
-      <c r="CQ3" s="120"/>
-      <c r="CR3" s="120"/>
-      <c r="CS3" s="121"/>
-      <c r="CT3" s="119">
+      <c r="AY3" s="136"/>
+      <c r="AZ3" s="136">
         <v>6</v>
       </c>
-      <c r="CU3" s="120"/>
-      <c r="CV3" s="120"/>
-      <c r="CW3" s="125"/>
+      <c r="BA3" s="141"/>
     </row>
-    <row r="4" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="129" t="s">
+    <row r="4" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="130"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="131"/>
-      <c r="L4" s="131"/>
-      <c r="M4" s="131"/>
-      <c r="N4" s="131"/>
-      <c r="O4" s="131"/>
-      <c r="P4" s="131"/>
-      <c r="Q4" s="131"/>
-      <c r="R4" s="131"/>
-      <c r="S4" s="131"/>
-      <c r="T4" s="131"/>
-      <c r="U4" s="131"/>
-      <c r="V4" s="131"/>
-      <c r="W4" s="131"/>
-      <c r="X4" s="131"/>
-      <c r="Y4" s="131"/>
-      <c r="Z4" s="131"/>
-      <c r="AA4" s="131"/>
-      <c r="AB4" s="131"/>
-      <c r="AC4" s="131"/>
-      <c r="AD4" s="131"/>
-      <c r="AE4" s="131"/>
-      <c r="AF4" s="131"/>
-      <c r="AG4" s="131"/>
-      <c r="AH4" s="131"/>
-      <c r="AI4" s="131"/>
-      <c r="AJ4" s="131"/>
-      <c r="AK4" s="131"/>
-      <c r="AL4" s="131"/>
-      <c r="AM4" s="131"/>
-      <c r="AN4" s="131"/>
-      <c r="AO4" s="131"/>
-      <c r="AP4" s="131"/>
-      <c r="AQ4" s="131"/>
-      <c r="AR4" s="131"/>
-      <c r="AS4" s="131"/>
-      <c r="AT4" s="131"/>
-      <c r="AU4" s="131"/>
-      <c r="AV4" s="131"/>
-      <c r="AW4" s="131"/>
-      <c r="AX4" s="131"/>
-      <c r="AY4" s="132"/>
-      <c r="AZ4" s="132"/>
-      <c r="BA4" s="132"/>
-      <c r="BB4" s="132"/>
-      <c r="BC4" s="132"/>
-      <c r="BD4" s="133"/>
-      <c r="BE4" s="134"/>
-      <c r="BF4" s="134"/>
-      <c r="BG4" s="134"/>
-      <c r="BH4" s="134"/>
-      <c r="BI4" s="134"/>
-      <c r="BJ4" s="134"/>
-      <c r="BK4" s="134"/>
-      <c r="BL4" s="134"/>
-      <c r="BM4" s="134"/>
-      <c r="BN4" s="134"/>
-      <c r="BO4" s="134"/>
-      <c r="BP4" s="134"/>
-      <c r="BQ4" s="134"/>
-      <c r="BR4" s="134"/>
-      <c r="BS4" s="134"/>
-      <c r="BT4" s="134"/>
-      <c r="BU4" s="134"/>
-      <c r="BV4" s="134"/>
-      <c r="BW4" s="134"/>
-      <c r="BX4" s="134"/>
-      <c r="BY4" s="134"/>
-      <c r="BZ4" s="134"/>
-      <c r="CA4" s="134"/>
-      <c r="CB4" s="134"/>
-      <c r="CC4" s="134"/>
-      <c r="CD4" s="134"/>
-      <c r="CE4" s="134"/>
-      <c r="CF4" s="134"/>
-      <c r="CG4" s="134"/>
-      <c r="CH4" s="134"/>
-      <c r="CI4" s="134"/>
-      <c r="CJ4" s="134"/>
-      <c r="CK4" s="134"/>
-      <c r="CL4" s="134"/>
-      <c r="CM4" s="134"/>
-      <c r="CN4" s="134"/>
-      <c r="CO4" s="134"/>
-      <c r="CP4" s="134"/>
-      <c r="CQ4" s="134"/>
-      <c r="CR4" s="134"/>
-      <c r="CS4" s="134"/>
-      <c r="CT4" s="134"/>
-      <c r="CU4" s="134"/>
-      <c r="CV4" s="134"/>
-      <c r="CW4" s="135"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="95"/>
+      <c r="X4" s="95"/>
+      <c r="Y4" s="95"/>
+      <c r="Z4" s="95"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="95"/>
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="95"/>
+      <c r="AG4" s="95"/>
+      <c r="AH4" s="95"/>
+      <c r="AI4" s="95"/>
+      <c r="AJ4" s="96"/>
+      <c r="AK4" s="96"/>
+      <c r="AL4" s="96"/>
+      <c r="AM4" s="96"/>
+      <c r="AN4" s="96"/>
+      <c r="AO4" s="96"/>
+      <c r="AP4" s="96"/>
+      <c r="AQ4" s="96"/>
+      <c r="AR4" s="96"/>
+      <c r="AS4" s="96"/>
+      <c r="AT4" s="96"/>
+      <c r="AU4" s="96"/>
+      <c r="AV4" s="96"/>
+      <c r="AW4" s="96"/>
+      <c r="AX4" s="96"/>
+      <c r="AY4" s="96"/>
+      <c r="AZ4" s="96"/>
+      <c r="BA4" s="97"/>
     </row>
-    <row r="5" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="108" t="s">
+    <row r="5" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="132" t="s">
         <v>82</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="136" t="s">
+      <c r="C5" s="113" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="137" t="s">
+      <c r="E5" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="138"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="139"/>
-      <c r="K5" s="139"/>
-      <c r="L5" s="139"/>
-      <c r="M5" s="139"/>
-      <c r="N5" s="139"/>
-      <c r="O5" s="139"/>
-      <c r="P5" s="139"/>
-      <c r="Q5" s="139"/>
-      <c r="R5" s="139"/>
-      <c r="S5" s="139"/>
-      <c r="T5" s="139"/>
-      <c r="U5" s="139"/>
-      <c r="V5" s="139"/>
-      <c r="W5" s="139"/>
-      <c r="X5" s="139"/>
-      <c r="Y5" s="139"/>
-      <c r="Z5" s="139"/>
-      <c r="AA5" s="139"/>
-      <c r="AB5" s="139"/>
-      <c r="AC5" s="139"/>
-      <c r="AD5" s="139"/>
-      <c r="AE5" s="139"/>
-      <c r="AF5" s="139"/>
-      <c r="AG5" s="139"/>
-      <c r="AH5" s="139"/>
-      <c r="AI5" s="139"/>
-      <c r="AJ5" s="139"/>
-      <c r="AK5" s="139"/>
-      <c r="AL5" s="139"/>
-      <c r="AM5" s="139"/>
-      <c r="AN5" s="139"/>
-      <c r="AO5" s="139"/>
-      <c r="AP5" s="139"/>
-      <c r="AQ5" s="139"/>
-      <c r="AR5" s="139"/>
-      <c r="AS5" s="139"/>
-      <c r="AT5" s="139"/>
-      <c r="AU5" s="139"/>
-      <c r="AV5" s="139"/>
-      <c r="AW5" s="139"/>
-      <c r="AX5" s="139"/>
-      <c r="AY5" s="139"/>
-      <c r="AZ5" s="139"/>
-      <c r="BA5" s="139"/>
-      <c r="BB5" s="139"/>
-      <c r="BC5" s="139"/>
-      <c r="BD5" s="139"/>
-      <c r="BE5" s="139"/>
-      <c r="BF5" s="139"/>
-      <c r="BG5" s="139"/>
-      <c r="BH5" s="139"/>
-      <c r="BI5" s="139"/>
-      <c r="BJ5" s="139"/>
-      <c r="BK5" s="139"/>
-      <c r="BL5" s="139"/>
-      <c r="BM5" s="139"/>
-      <c r="BN5" s="139"/>
-      <c r="BO5" s="139"/>
-      <c r="BP5" s="139"/>
-      <c r="BQ5" s="139"/>
-      <c r="BR5" s="139"/>
-      <c r="BS5" s="139"/>
-      <c r="BT5" s="139"/>
-      <c r="BU5" s="139"/>
-      <c r="BV5" s="139"/>
-      <c r="BW5" s="139"/>
-      <c r="BX5" s="139"/>
-      <c r="BY5" s="139"/>
-      <c r="BZ5" s="139"/>
-      <c r="CA5" s="139"/>
-      <c r="CB5" s="139"/>
-      <c r="CC5" s="139"/>
-      <c r="CD5" s="139"/>
-      <c r="CE5" s="139"/>
-      <c r="CF5" s="139"/>
-      <c r="CG5" s="139"/>
-      <c r="CH5" s="139"/>
-      <c r="CI5" s="139"/>
-      <c r="CJ5" s="139"/>
-      <c r="CK5" s="139"/>
-      <c r="CL5" s="139"/>
-      <c r="CM5" s="139"/>
-      <c r="CN5" s="139"/>
-      <c r="CO5" s="139"/>
-      <c r="CP5" s="139"/>
-      <c r="CQ5" s="139"/>
-      <c r="CR5" s="139"/>
-      <c r="CS5" s="139"/>
-      <c r="CT5" s="139"/>
-      <c r="CU5" s="139"/>
-      <c r="CV5" s="139"/>
-      <c r="CW5" s="140"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="155"/>
+      <c r="L5" s="155"/>
+      <c r="M5" s="155"/>
+      <c r="N5" s="155"/>
+      <c r="O5" s="155"/>
+      <c r="P5" s="155"/>
+      <c r="Q5" s="155"/>
+      <c r="R5" s="156" t="s">
+        <v>46</v>
+      </c>
+      <c r="S5" s="155"/>
+      <c r="T5" s="155"/>
+      <c r="U5" s="155"/>
+      <c r="V5" s="155"/>
+      <c r="W5" s="155"/>
+      <c r="X5" s="155"/>
+      <c r="Y5" s="155"/>
+      <c r="Z5" s="155"/>
+      <c r="AA5" s="155"/>
+      <c r="AB5" s="155"/>
+      <c r="AC5" s="155"/>
+      <c r="AD5" s="155"/>
+      <c r="AE5" s="155"/>
+      <c r="AF5" s="155"/>
+      <c r="AG5" s="155"/>
+      <c r="AH5" s="49"/>
+      <c r="AI5" s="49"/>
+      <c r="AJ5" s="49"/>
+      <c r="AK5" s="49"/>
+      <c r="AL5" s="49"/>
+      <c r="AM5" s="49"/>
+      <c r="AN5" s="49"/>
+      <c r="AO5" s="49"/>
+      <c r="AP5" s="49"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="49"/>
+      <c r="AS5" s="49"/>
+      <c r="AT5" s="49"/>
+      <c r="AU5" s="49"/>
+      <c r="AV5" s="49"/>
+      <c r="AW5" s="49"/>
+      <c r="AX5" s="49"/>
+      <c r="AY5" s="49"/>
+      <c r="AZ5" s="49"/>
+      <c r="BA5" s="50"/>
     </row>
-    <row r="6" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="111"/>
+    <row r="6" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="135"/>
       <c r="B6" s="34" t="s">
         <v>24</v>
       </c>
@@ -9580,108 +9658,62 @@
       <c r="D6" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="141" t="s">
+      <c r="E6" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="138"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
-      <c r="O6" s="139"/>
-      <c r="P6" s="139"/>
-      <c r="Q6" s="139"/>
-      <c r="R6" s="139"/>
-      <c r="S6" s="139"/>
-      <c r="T6" s="139"/>
-      <c r="U6" s="139"/>
-      <c r="V6" s="139"/>
-      <c r="W6" s="139"/>
-      <c r="X6" s="139"/>
-      <c r="Y6" s="139"/>
-      <c r="Z6" s="139"/>
-      <c r="AA6" s="139"/>
-      <c r="AB6" s="139"/>
-      <c r="AC6" s="139"/>
-      <c r="AD6" s="139"/>
-      <c r="AE6" s="139"/>
-      <c r="AF6" s="139"/>
-      <c r="AG6" s="139"/>
-      <c r="AH6" s="139"/>
-      <c r="AI6" s="139"/>
-      <c r="AJ6" s="139"/>
-      <c r="AK6" s="139"/>
-      <c r="AL6" s="139"/>
-      <c r="AM6" s="139"/>
-      <c r="AN6" s="139"/>
-      <c r="AO6" s="139"/>
-      <c r="AP6" s="139"/>
-      <c r="AQ6" s="139"/>
-      <c r="AR6" s="139"/>
-      <c r="AS6" s="139"/>
-      <c r="AT6" s="139"/>
-      <c r="AU6" s="139"/>
-      <c r="AV6" s="139"/>
-      <c r="AW6" s="139"/>
-      <c r="AX6" s="139"/>
-      <c r="AY6" s="139"/>
-      <c r="AZ6" s="139"/>
-      <c r="BA6" s="139"/>
-      <c r="BB6" s="139"/>
-      <c r="BC6" s="139"/>
-      <c r="BD6" s="139"/>
-      <c r="BE6" s="139"/>
-      <c r="BF6" s="139"/>
-      <c r="BG6" s="139"/>
-      <c r="BH6" s="139"/>
-      <c r="BI6" s="139"/>
-      <c r="BJ6" s="139"/>
-      <c r="BK6" s="139"/>
-      <c r="BL6" s="139"/>
-      <c r="BM6" s="139"/>
-      <c r="BN6" s="139"/>
-      <c r="BO6" s="139"/>
-      <c r="BP6" s="139"/>
-      <c r="BQ6" s="139"/>
-      <c r="BR6" s="139"/>
-      <c r="BS6" s="139"/>
-      <c r="BT6" s="139"/>
-      <c r="BU6" s="139"/>
-      <c r="BV6" s="139"/>
-      <c r="BW6" s="139"/>
-      <c r="BX6" s="139"/>
-      <c r="BY6" s="139"/>
-      <c r="BZ6" s="139"/>
-      <c r="CA6" s="139"/>
-      <c r="CB6" s="139"/>
-      <c r="CC6" s="139"/>
-      <c r="CD6" s="139"/>
-      <c r="CE6" s="139"/>
-      <c r="CF6" s="139"/>
-      <c r="CG6" s="139"/>
-      <c r="CH6" s="139"/>
-      <c r="CI6" s="139"/>
-      <c r="CJ6" s="139"/>
-      <c r="CK6" s="139"/>
-      <c r="CL6" s="139"/>
-      <c r="CM6" s="139"/>
-      <c r="CN6" s="139"/>
-      <c r="CO6" s="139"/>
-      <c r="CP6" s="139"/>
-      <c r="CQ6" s="139"/>
-      <c r="CR6" s="139"/>
-      <c r="CS6" s="139"/>
-      <c r="CT6" s="139"/>
-      <c r="CU6" s="139"/>
-      <c r="CV6" s="139"/>
-      <c r="CW6" s="140"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="156" t="s">
+        <v>46</v>
+      </c>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="36"/>
+      <c r="AF6" s="36"/>
+      <c r="AG6" s="36"/>
+      <c r="AH6" s="34"/>
+      <c r="AI6" s="34"/>
+      <c r="AJ6" s="34"/>
+      <c r="AK6" s="34"/>
+      <c r="AL6" s="34"/>
+      <c r="AM6" s="34"/>
+      <c r="AN6" s="34"/>
+      <c r="AO6" s="34"/>
+      <c r="AP6" s="34"/>
+      <c r="AQ6" s="34"/>
+      <c r="AR6" s="34"/>
+      <c r="AS6" s="34"/>
+      <c r="AT6" s="34"/>
+      <c r="AU6" s="34"/>
+      <c r="AV6" s="34"/>
+      <c r="AW6" s="34"/>
+      <c r="AX6" s="34"/>
+      <c r="AY6" s="34"/>
+      <c r="AZ6" s="34"/>
+      <c r="BA6" s="51"/>
     </row>
-    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A7" s="111"/>
+    <row r="7" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="135"/>
       <c r="B7" s="34" t="s">
         <v>24</v>
       </c>
@@ -9691,108 +9723,62 @@
       <c r="D7" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="142" t="s">
+      <c r="E7" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="138"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="139"/>
-      <c r="L7" s="139"/>
-      <c r="M7" s="139"/>
-      <c r="N7" s="139"/>
-      <c r="O7" s="139"/>
-      <c r="P7" s="139"/>
-      <c r="Q7" s="139"/>
-      <c r="R7" s="139"/>
-      <c r="S7" s="139"/>
-      <c r="T7" s="139"/>
-      <c r="U7" s="139"/>
-      <c r="V7" s="139"/>
-      <c r="W7" s="139"/>
-      <c r="X7" s="139"/>
-      <c r="Y7" s="139"/>
-      <c r="Z7" s="139"/>
-      <c r="AA7" s="139"/>
-      <c r="AB7" s="139"/>
-      <c r="AC7" s="139"/>
-      <c r="AD7" s="139"/>
-      <c r="AE7" s="139"/>
-      <c r="AF7" s="139"/>
-      <c r="AG7" s="139"/>
-      <c r="AH7" s="139"/>
-      <c r="AI7" s="139"/>
-      <c r="AJ7" s="139"/>
-      <c r="AK7" s="139"/>
-      <c r="AL7" s="139"/>
-      <c r="AM7" s="139"/>
-      <c r="AN7" s="139"/>
-      <c r="AO7" s="139"/>
-      <c r="AP7" s="139"/>
-      <c r="AQ7" s="139"/>
-      <c r="AR7" s="139"/>
-      <c r="AS7" s="139"/>
-      <c r="AT7" s="139"/>
-      <c r="AU7" s="139"/>
-      <c r="AV7" s="139"/>
-      <c r="AW7" s="139"/>
-      <c r="AX7" s="139"/>
-      <c r="AY7" s="139"/>
-      <c r="AZ7" s="139"/>
-      <c r="BA7" s="139"/>
-      <c r="BB7" s="139"/>
-      <c r="BC7" s="139"/>
-      <c r="BD7" s="139"/>
-      <c r="BE7" s="139"/>
-      <c r="BF7" s="139"/>
-      <c r="BG7" s="139"/>
-      <c r="BH7" s="139"/>
-      <c r="BI7" s="139"/>
-      <c r="BJ7" s="139"/>
-      <c r="BK7" s="139"/>
-      <c r="BL7" s="139"/>
-      <c r="BM7" s="139"/>
-      <c r="BN7" s="139"/>
-      <c r="BO7" s="139"/>
-      <c r="BP7" s="139"/>
-      <c r="BQ7" s="139"/>
-      <c r="BR7" s="139"/>
-      <c r="BS7" s="139"/>
-      <c r="BT7" s="139"/>
-      <c r="BU7" s="139"/>
-      <c r="BV7" s="139"/>
-      <c r="BW7" s="139"/>
-      <c r="BX7" s="139"/>
-      <c r="BY7" s="139"/>
-      <c r="BZ7" s="139"/>
-      <c r="CA7" s="139"/>
-      <c r="CB7" s="139"/>
-      <c r="CC7" s="139"/>
-      <c r="CD7" s="139"/>
-      <c r="CE7" s="139"/>
-      <c r="CF7" s="139"/>
-      <c r="CG7" s="139"/>
-      <c r="CH7" s="139"/>
-      <c r="CI7" s="139"/>
-      <c r="CJ7" s="139"/>
-      <c r="CK7" s="139"/>
-      <c r="CL7" s="139"/>
-      <c r="CM7" s="139"/>
-      <c r="CN7" s="139"/>
-      <c r="CO7" s="139"/>
-      <c r="CP7" s="139"/>
-      <c r="CQ7" s="139"/>
-      <c r="CR7" s="139"/>
-      <c r="CS7" s="139"/>
-      <c r="CT7" s="139"/>
-      <c r="CU7" s="139"/>
-      <c r="CV7" s="139"/>
-      <c r="CW7" s="140"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="157" t="s">
+        <v>88</v>
+      </c>
+      <c r="S7" s="158"/>
+      <c r="T7" s="158"/>
+      <c r="U7" s="158"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="33"/>
+      <c r="AC7" s="33"/>
+      <c r="AD7" s="33"/>
+      <c r="AE7" s="33"/>
+      <c r="AF7" s="33"/>
+      <c r="AG7" s="33"/>
+      <c r="AH7" s="33"/>
+      <c r="AI7" s="33"/>
+      <c r="AJ7" s="33"/>
+      <c r="AK7" s="33"/>
+      <c r="AL7" s="33"/>
+      <c r="AM7" s="33"/>
+      <c r="AN7" s="33"/>
+      <c r="AO7" s="33"/>
+      <c r="AP7" s="33"/>
+      <c r="AQ7" s="33"/>
+      <c r="AR7" s="33"/>
+      <c r="AS7" s="33"/>
+      <c r="AT7" s="33"/>
+      <c r="AU7" s="33"/>
+      <c r="AV7" s="33"/>
+      <c r="AW7" s="33"/>
+      <c r="AX7" s="33"/>
+      <c r="AY7" s="33"/>
+      <c r="AZ7" s="33"/>
+      <c r="BA7" s="51"/>
     </row>
-    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A8" s="111"/>
+    <row r="8" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="135"/>
       <c r="B8" s="34" t="s">
         <v>24</v>
       </c>
@@ -9802,108 +9788,62 @@
       <c r="D8" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="142" t="s">
+      <c r="E8" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="138"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="139"/>
-      <c r="I8" s="139"/>
-      <c r="J8" s="139"/>
-      <c r="K8" s="139"/>
-      <c r="L8" s="139"/>
-      <c r="M8" s="139"/>
-      <c r="N8" s="139"/>
-      <c r="O8" s="139"/>
-      <c r="P8" s="139"/>
-      <c r="Q8" s="139"/>
-      <c r="R8" s="139"/>
-      <c r="S8" s="139"/>
-      <c r="T8" s="139"/>
-      <c r="U8" s="139"/>
-      <c r="V8" s="139"/>
-      <c r="W8" s="139"/>
-      <c r="X8" s="139"/>
-      <c r="Y8" s="139"/>
-      <c r="Z8" s="139"/>
-      <c r="AA8" s="139"/>
-      <c r="AB8" s="139"/>
-      <c r="AC8" s="139"/>
-      <c r="AD8" s="139"/>
-      <c r="AE8" s="139"/>
-      <c r="AF8" s="139"/>
-      <c r="AG8" s="139"/>
-      <c r="AH8" s="139"/>
-      <c r="AI8" s="139"/>
-      <c r="AJ8" s="139"/>
-      <c r="AK8" s="139"/>
-      <c r="AL8" s="139"/>
-      <c r="AM8" s="139"/>
-      <c r="AN8" s="139"/>
-      <c r="AO8" s="139"/>
-      <c r="AP8" s="139"/>
-      <c r="AQ8" s="139"/>
-      <c r="AR8" s="139"/>
-      <c r="AS8" s="139"/>
-      <c r="AT8" s="139"/>
-      <c r="AU8" s="139"/>
-      <c r="AV8" s="139"/>
-      <c r="AW8" s="139"/>
-      <c r="AX8" s="139"/>
-      <c r="AY8" s="139"/>
-      <c r="AZ8" s="139"/>
-      <c r="BA8" s="139"/>
-      <c r="BB8" s="139"/>
-      <c r="BC8" s="139"/>
-      <c r="BD8" s="139"/>
-      <c r="BE8" s="139"/>
-      <c r="BF8" s="139"/>
-      <c r="BG8" s="139"/>
-      <c r="BH8" s="139"/>
-      <c r="BI8" s="139"/>
-      <c r="BJ8" s="139"/>
-      <c r="BK8" s="139"/>
-      <c r="BL8" s="139"/>
-      <c r="BM8" s="139"/>
-      <c r="BN8" s="139"/>
-      <c r="BO8" s="139"/>
-      <c r="BP8" s="139"/>
-      <c r="BQ8" s="139"/>
-      <c r="BR8" s="139"/>
-      <c r="BS8" s="139"/>
-      <c r="BT8" s="139"/>
-      <c r="BU8" s="139"/>
-      <c r="BV8" s="139"/>
-      <c r="BW8" s="139"/>
-      <c r="BX8" s="139"/>
-      <c r="BY8" s="139"/>
-      <c r="BZ8" s="139"/>
-      <c r="CA8" s="139"/>
-      <c r="CB8" s="139"/>
-      <c r="CC8" s="139"/>
-      <c r="CD8" s="139"/>
-      <c r="CE8" s="139"/>
-      <c r="CF8" s="139"/>
-      <c r="CG8" s="139"/>
-      <c r="CH8" s="139"/>
-      <c r="CI8" s="139"/>
-      <c r="CJ8" s="139"/>
-      <c r="CK8" s="139"/>
-      <c r="CL8" s="139"/>
-      <c r="CM8" s="139"/>
-      <c r="CN8" s="139"/>
-      <c r="CO8" s="139"/>
-      <c r="CP8" s="139"/>
-      <c r="CQ8" s="139"/>
-      <c r="CR8" s="139"/>
-      <c r="CS8" s="139"/>
-      <c r="CT8" s="139"/>
-      <c r="CU8" s="139"/>
-      <c r="CV8" s="139"/>
-      <c r="CW8" s="140"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="156" t="s">
+        <v>46</v>
+      </c>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="36"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="36"/>
+      <c r="AG8" s="33"/>
+      <c r="AH8" s="33"/>
+      <c r="AI8" s="33"/>
+      <c r="AJ8" s="33"/>
+      <c r="AK8" s="33"/>
+      <c r="AL8" s="33"/>
+      <c r="AM8" s="33"/>
+      <c r="AN8" s="33"/>
+      <c r="AO8" s="33"/>
+      <c r="AP8" s="33"/>
+      <c r="AQ8" s="33"/>
+      <c r="AR8" s="33"/>
+      <c r="AS8" s="33"/>
+      <c r="AT8" s="33"/>
+      <c r="AU8" s="33"/>
+      <c r="AV8" s="33"/>
+      <c r="AW8" s="33"/>
+      <c r="AX8" s="33"/>
+      <c r="AY8" s="33"/>
+      <c r="AZ8" s="33"/>
+      <c r="BA8" s="51"/>
     </row>
-    <row r="9" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="111"/>
+    <row r="9" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="135"/>
       <c r="B9" s="34" t="s">
         <v>24</v>
       </c>
@@ -9913,108 +9853,62 @@
       <c r="D9" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="142" t="s">
+      <c r="E9" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="138"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="139"/>
-      <c r="I9" s="139"/>
-      <c r="J9" s="139"/>
-      <c r="K9" s="139"/>
-      <c r="L9" s="139"/>
-      <c r="M9" s="139"/>
-      <c r="N9" s="139"/>
-      <c r="O9" s="139"/>
-      <c r="P9" s="139"/>
-      <c r="Q9" s="139"/>
-      <c r="R9" s="139"/>
-      <c r="S9" s="139"/>
-      <c r="T9" s="139"/>
-      <c r="U9" s="139"/>
-      <c r="V9" s="139"/>
-      <c r="W9" s="139"/>
-      <c r="X9" s="139"/>
-      <c r="Y9" s="139"/>
-      <c r="Z9" s="139"/>
-      <c r="AA9" s="139"/>
-      <c r="AB9" s="139"/>
-      <c r="AC9" s="139"/>
-      <c r="AD9" s="139"/>
-      <c r="AE9" s="139"/>
-      <c r="AF9" s="139"/>
-      <c r="AG9" s="139"/>
-      <c r="AH9" s="139"/>
-      <c r="AI9" s="139"/>
-      <c r="AJ9" s="139"/>
-      <c r="AK9" s="139"/>
-      <c r="AL9" s="139"/>
-      <c r="AM9" s="139"/>
-      <c r="AN9" s="139"/>
-      <c r="AO9" s="139"/>
-      <c r="AP9" s="139"/>
-      <c r="AQ9" s="139"/>
-      <c r="AR9" s="139"/>
-      <c r="AS9" s="139"/>
-      <c r="AT9" s="139"/>
-      <c r="AU9" s="139"/>
-      <c r="AV9" s="139"/>
-      <c r="AW9" s="139"/>
-      <c r="AX9" s="139"/>
-      <c r="AY9" s="139"/>
-      <c r="AZ9" s="139"/>
-      <c r="BA9" s="139"/>
-      <c r="BB9" s="139"/>
-      <c r="BC9" s="139"/>
-      <c r="BD9" s="139"/>
-      <c r="BE9" s="139"/>
-      <c r="BF9" s="139"/>
-      <c r="BG9" s="139"/>
-      <c r="BH9" s="139"/>
-      <c r="BI9" s="139"/>
-      <c r="BJ9" s="139"/>
-      <c r="BK9" s="139"/>
-      <c r="BL9" s="139"/>
-      <c r="BM9" s="139"/>
-      <c r="BN9" s="139"/>
-      <c r="BO9" s="139"/>
-      <c r="BP9" s="139"/>
-      <c r="BQ9" s="139"/>
-      <c r="BR9" s="139"/>
-      <c r="BS9" s="139"/>
-      <c r="BT9" s="139"/>
-      <c r="BU9" s="139"/>
-      <c r="BV9" s="139"/>
-      <c r="BW9" s="139"/>
-      <c r="BX9" s="139"/>
-      <c r="BY9" s="139"/>
-      <c r="BZ9" s="139"/>
-      <c r="CA9" s="139"/>
-      <c r="CB9" s="139"/>
-      <c r="CC9" s="139"/>
-      <c r="CD9" s="139"/>
-      <c r="CE9" s="139"/>
-      <c r="CF9" s="139"/>
-      <c r="CG9" s="139"/>
-      <c r="CH9" s="139"/>
-      <c r="CI9" s="139"/>
-      <c r="CJ9" s="139"/>
-      <c r="CK9" s="139"/>
-      <c r="CL9" s="139"/>
-      <c r="CM9" s="139"/>
-      <c r="CN9" s="139"/>
-      <c r="CO9" s="139"/>
-      <c r="CP9" s="139"/>
-      <c r="CQ9" s="139"/>
-      <c r="CR9" s="139"/>
-      <c r="CS9" s="139"/>
-      <c r="CT9" s="139"/>
-      <c r="CU9" s="139"/>
-      <c r="CV9" s="139"/>
-      <c r="CW9" s="140"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="156" t="s">
+        <v>46</v>
+      </c>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="36"/>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="36"/>
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="33"/>
+      <c r="AI9" s="33"/>
+      <c r="AJ9" s="33"/>
+      <c r="AK9" s="33"/>
+      <c r="AL9" s="33"/>
+      <c r="AM9" s="33"/>
+      <c r="AN9" s="33"/>
+      <c r="AO9" s="33"/>
+      <c r="AP9" s="33"/>
+      <c r="AQ9" s="33"/>
+      <c r="AR9" s="33"/>
+      <c r="AS9" s="33"/>
+      <c r="AT9" s="33"/>
+      <c r="AU9" s="33"/>
+      <c r="AV9" s="33"/>
+      <c r="AW9" s="33"/>
+      <c r="AX9" s="33"/>
+      <c r="AY9" s="33"/>
+      <c r="AZ9" s="33"/>
+      <c r="BA9" s="51"/>
     </row>
-    <row r="10" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="111"/>
+    <row r="10" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="135"/>
       <c r="B10" s="34" t="s">
         <v>24</v>
       </c>
@@ -10024,330 +9918,192 @@
       <c r="D10" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="142" t="s">
+      <c r="E10" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="138"/>
-      <c r="G10" s="139"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="139"/>
-      <c r="J10" s="139"/>
-      <c r="K10" s="139"/>
-      <c r="L10" s="139"/>
-      <c r="M10" s="139"/>
-      <c r="N10" s="139"/>
-      <c r="O10" s="139"/>
-      <c r="P10" s="139"/>
-      <c r="Q10" s="139"/>
-      <c r="R10" s="139"/>
-      <c r="S10" s="139"/>
-      <c r="T10" s="139"/>
-      <c r="U10" s="139"/>
-      <c r="V10" s="139"/>
-      <c r="W10" s="139"/>
-      <c r="X10" s="139"/>
-      <c r="Y10" s="139"/>
-      <c r="Z10" s="139"/>
-      <c r="AA10" s="139"/>
-      <c r="AB10" s="139"/>
-      <c r="AC10" s="139"/>
-      <c r="AD10" s="139"/>
-      <c r="AE10" s="139"/>
-      <c r="AF10" s="139"/>
-      <c r="AG10" s="139"/>
-      <c r="AH10" s="139"/>
-      <c r="AI10" s="139"/>
-      <c r="AJ10" s="139"/>
-      <c r="AK10" s="139"/>
-      <c r="AL10" s="139"/>
-      <c r="AM10" s="139"/>
-      <c r="AN10" s="139"/>
-      <c r="AO10" s="139"/>
-      <c r="AP10" s="139"/>
-      <c r="AQ10" s="139"/>
-      <c r="AR10" s="139"/>
-      <c r="AS10" s="139"/>
-      <c r="AT10" s="139"/>
-      <c r="AU10" s="139"/>
-      <c r="AV10" s="139"/>
-      <c r="AW10" s="139"/>
-      <c r="AX10" s="139"/>
-      <c r="AY10" s="139"/>
-      <c r="AZ10" s="139"/>
-      <c r="BA10" s="139"/>
-      <c r="BB10" s="139"/>
-      <c r="BC10" s="139"/>
-      <c r="BD10" s="139"/>
-      <c r="BE10" s="139"/>
-      <c r="BF10" s="139"/>
-      <c r="BG10" s="139"/>
-      <c r="BH10" s="139"/>
-      <c r="BI10" s="139"/>
-      <c r="BJ10" s="139"/>
-      <c r="BK10" s="139"/>
-      <c r="BL10" s="139"/>
-      <c r="BM10" s="139"/>
-      <c r="BN10" s="139"/>
-      <c r="BO10" s="139"/>
-      <c r="BP10" s="139"/>
-      <c r="BQ10" s="139"/>
-      <c r="BR10" s="139"/>
-      <c r="BS10" s="139"/>
-      <c r="BT10" s="139"/>
-      <c r="BU10" s="139"/>
-      <c r="BV10" s="139"/>
-      <c r="BW10" s="139"/>
-      <c r="BX10" s="139"/>
-      <c r="BY10" s="139"/>
-      <c r="BZ10" s="139"/>
-      <c r="CA10" s="139"/>
-      <c r="CB10" s="139"/>
-      <c r="CC10" s="139"/>
-      <c r="CD10" s="139"/>
-      <c r="CE10" s="139"/>
-      <c r="CF10" s="139"/>
-      <c r="CG10" s="139"/>
-      <c r="CH10" s="139"/>
-      <c r="CI10" s="139"/>
-      <c r="CJ10" s="139"/>
-      <c r="CK10" s="139"/>
-      <c r="CL10" s="139"/>
-      <c r="CM10" s="139"/>
-      <c r="CN10" s="139"/>
-      <c r="CO10" s="139"/>
-      <c r="CP10" s="139"/>
-      <c r="CQ10" s="139"/>
-      <c r="CR10" s="139"/>
-      <c r="CS10" s="139"/>
-      <c r="CT10" s="139"/>
-      <c r="CU10" s="139"/>
-      <c r="CV10" s="139"/>
-      <c r="CW10" s="140"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="U10" s="35"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="36"/>
+      <c r="AB10" s="36"/>
+      <c r="AC10" s="36"/>
+      <c r="AD10" s="36"/>
+      <c r="AE10" s="36"/>
+      <c r="AF10" s="36"/>
+      <c r="AG10" s="36"/>
+      <c r="AH10" s="34"/>
+      <c r="AI10" s="34"/>
+      <c r="AJ10" s="34"/>
+      <c r="AK10" s="34"/>
+      <c r="AL10" s="34"/>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="34"/>
+      <c r="AO10" s="34"/>
+      <c r="AP10" s="34"/>
+      <c r="AQ10" s="34"/>
+      <c r="AR10" s="34"/>
+      <c r="AS10" s="34"/>
+      <c r="AT10" s="34"/>
+      <c r="AU10" s="34"/>
+      <c r="AV10" s="34"/>
+      <c r="AW10" s="34"/>
+      <c r="AX10" s="34"/>
+      <c r="AY10" s="34"/>
+      <c r="AZ10" s="34"/>
+      <c r="BA10" s="51"/>
     </row>
-    <row r="11" spans="1:101" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="112"/>
-      <c r="B11" s="143" t="s">
+    <row r="11" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="137"/>
+      <c r="B11" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="144"/>
-      <c r="D11" s="145" t="s">
+      <c r="C11" s="121"/>
+      <c r="D11" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="146" t="s">
+      <c r="E11" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="138"/>
-      <c r="G11" s="139"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="139"/>
-      <c r="J11" s="139"/>
-      <c r="K11" s="139"/>
-      <c r="L11" s="139"/>
-      <c r="M11" s="139"/>
-      <c r="N11" s="139"/>
-      <c r="O11" s="139"/>
-      <c r="P11" s="139"/>
-      <c r="Q11" s="139"/>
-      <c r="R11" s="139"/>
-      <c r="S11" s="139"/>
-      <c r="T11" s="139"/>
-      <c r="U11" s="139"/>
-      <c r="V11" s="139"/>
-      <c r="W11" s="139"/>
-      <c r="X11" s="139"/>
-      <c r="Y11" s="139"/>
-      <c r="Z11" s="139"/>
-      <c r="AA11" s="139"/>
-      <c r="AB11" s="139"/>
-      <c r="AC11" s="139"/>
-      <c r="AD11" s="139"/>
-      <c r="AE11" s="139"/>
-      <c r="AF11" s="139"/>
-      <c r="AG11" s="139"/>
-      <c r="AH11" s="139"/>
-      <c r="AI11" s="139"/>
-      <c r="AJ11" s="139"/>
-      <c r="AK11" s="139"/>
-      <c r="AL11" s="139"/>
-      <c r="AM11" s="139"/>
-      <c r="AN11" s="139"/>
-      <c r="AO11" s="139"/>
-      <c r="AP11" s="139"/>
-      <c r="AQ11" s="139"/>
-      <c r="AR11" s="139"/>
-      <c r="AS11" s="139"/>
-      <c r="AT11" s="139"/>
-      <c r="AU11" s="139"/>
-      <c r="AV11" s="139"/>
-      <c r="AW11" s="139"/>
-      <c r="AX11" s="139"/>
-      <c r="AY11" s="139"/>
-      <c r="AZ11" s="139"/>
-      <c r="BA11" s="139"/>
-      <c r="BB11" s="139"/>
-      <c r="BC11" s="139"/>
-      <c r="BD11" s="139"/>
-      <c r="BE11" s="139"/>
-      <c r="BF11" s="139"/>
-      <c r="BG11" s="139"/>
-      <c r="BH11" s="139"/>
-      <c r="BI11" s="139"/>
-      <c r="BJ11" s="139"/>
-      <c r="BK11" s="139"/>
-      <c r="BL11" s="139"/>
-      <c r="BM11" s="139"/>
-      <c r="BN11" s="139"/>
-      <c r="BO11" s="139"/>
-      <c r="BP11" s="139"/>
-      <c r="BQ11" s="139"/>
-      <c r="BR11" s="139"/>
-      <c r="BS11" s="139"/>
-      <c r="BT11" s="139"/>
-      <c r="BU11" s="139"/>
-      <c r="BV11" s="139"/>
-      <c r="BW11" s="139"/>
-      <c r="BX11" s="139"/>
-      <c r="BY11" s="139"/>
-      <c r="BZ11" s="139"/>
-      <c r="CA11" s="139"/>
-      <c r="CB11" s="139"/>
-      <c r="CC11" s="139"/>
-      <c r="CD11" s="139"/>
-      <c r="CE11" s="139"/>
-      <c r="CF11" s="139"/>
-      <c r="CG11" s="139"/>
-      <c r="CH11" s="139"/>
-      <c r="CI11" s="139"/>
-      <c r="CJ11" s="139"/>
-      <c r="CK11" s="139"/>
-      <c r="CL11" s="139"/>
-      <c r="CM11" s="139"/>
-      <c r="CN11" s="139"/>
-      <c r="CO11" s="139"/>
-      <c r="CP11" s="139"/>
-      <c r="CQ11" s="139"/>
-      <c r="CR11" s="139"/>
-      <c r="CS11" s="139"/>
-      <c r="CT11" s="139"/>
-      <c r="CU11" s="139"/>
-      <c r="CV11" s="139"/>
-      <c r="CW11" s="140"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="75"/>
+      <c r="P11" s="75"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="S11" s="75"/>
+      <c r="T11" s="75"/>
+      <c r="U11" s="75"/>
+      <c r="V11" s="75"/>
+      <c r="W11" s="75"/>
+      <c r="X11" s="75"/>
+      <c r="Y11" s="75"/>
+      <c r="Z11" s="75"/>
+      <c r="AA11" s="75"/>
+      <c r="AB11" s="75"/>
+      <c r="AC11" s="75"/>
+      <c r="AD11" s="75"/>
+      <c r="AE11" s="75"/>
+      <c r="AF11" s="75"/>
+      <c r="AG11" s="75"/>
+      <c r="AH11" s="68"/>
+      <c r="AI11" s="68"/>
+      <c r="AJ11" s="68"/>
+      <c r="AK11" s="68"/>
+      <c r="AL11" s="68"/>
+      <c r="AM11" s="68"/>
+      <c r="AN11" s="68"/>
+      <c r="AO11" s="68"/>
+      <c r="AP11" s="68"/>
+      <c r="AQ11" s="68"/>
+      <c r="AR11" s="68"/>
+      <c r="AS11" s="68"/>
+      <c r="AT11" s="68"/>
+      <c r="AU11" s="68"/>
+      <c r="AV11" s="68"/>
+      <c r="AW11" s="68"/>
+      <c r="AX11" s="68"/>
+      <c r="AY11" s="68"/>
+      <c r="AZ11" s="68"/>
+      <c r="BA11" s="70"/>
     </row>
-    <row r="12" spans="1:101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="108" t="s">
+    <row r="12" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="132" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="147" t="s">
+      <c r="B12" s="124" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="148" t="s">
+      <c r="C12" s="125" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="137">
+      <c r="E12" s="18">
         <v>187</v>
       </c>
-      <c r="F12" s="138"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="139"/>
-      <c r="J12" s="139"/>
-      <c r="K12" s="139"/>
-      <c r="L12" s="139"/>
-      <c r="M12" s="139"/>
-      <c r="N12" s="139"/>
-      <c r="O12" s="139"/>
-      <c r="P12" s="139"/>
-      <c r="Q12" s="139"/>
-      <c r="R12" s="139"/>
-      <c r="S12" s="139"/>
-      <c r="T12" s="139"/>
-      <c r="U12" s="139"/>
-      <c r="V12" s="139"/>
-      <c r="W12" s="139"/>
-      <c r="X12" s="139"/>
-      <c r="Y12" s="139"/>
-      <c r="Z12" s="139"/>
-      <c r="AA12" s="139"/>
-      <c r="AB12" s="139"/>
-      <c r="AC12" s="139"/>
-      <c r="AD12" s="139"/>
-      <c r="AE12" s="139"/>
-      <c r="AF12" s="139"/>
-      <c r="AG12" s="139"/>
-      <c r="AH12" s="139"/>
-      <c r="AI12" s="139"/>
-      <c r="AJ12" s="139"/>
-      <c r="AK12" s="139"/>
-      <c r="AL12" s="139"/>
-      <c r="AM12" s="139"/>
-      <c r="AN12" s="139"/>
-      <c r="AO12" s="139"/>
-      <c r="AP12" s="139"/>
-      <c r="AQ12" s="139"/>
-      <c r="AR12" s="139"/>
-      <c r="AS12" s="139"/>
-      <c r="AT12" s="139"/>
-      <c r="AU12" s="139"/>
-      <c r="AV12" s="139"/>
-      <c r="AW12" s="139"/>
-      <c r="AX12" s="139"/>
-      <c r="AY12" s="139"/>
-      <c r="AZ12" s="139"/>
-      <c r="BA12" s="139"/>
-      <c r="BB12" s="139"/>
-      <c r="BC12" s="139"/>
-      <c r="BD12" s="139"/>
-      <c r="BE12" s="139"/>
-      <c r="BF12" s="139"/>
-      <c r="BG12" s="139"/>
-      <c r="BH12" s="139"/>
-      <c r="BI12" s="139"/>
-      <c r="BJ12" s="139"/>
-      <c r="BK12" s="139"/>
-      <c r="BL12" s="139"/>
-      <c r="BM12" s="139"/>
-      <c r="BN12" s="139"/>
-      <c r="BO12" s="139"/>
-      <c r="BP12" s="139"/>
-      <c r="BQ12" s="139"/>
-      <c r="BR12" s="139"/>
-      <c r="BS12" s="139"/>
-      <c r="BT12" s="139"/>
-      <c r="BU12" s="139"/>
-      <c r="BV12" s="139"/>
-      <c r="BW12" s="139"/>
-      <c r="BX12" s="139"/>
-      <c r="BY12" s="139"/>
-      <c r="BZ12" s="139"/>
-      <c r="CA12" s="139"/>
-      <c r="CB12" s="139"/>
-      <c r="CC12" s="139"/>
-      <c r="CD12" s="139"/>
-      <c r="CE12" s="139"/>
-      <c r="CF12" s="139"/>
-      <c r="CG12" s="139"/>
-      <c r="CH12" s="139"/>
-      <c r="CI12" s="139"/>
-      <c r="CJ12" s="139"/>
-      <c r="CK12" s="139"/>
-      <c r="CL12" s="139"/>
-      <c r="CM12" s="139"/>
-      <c r="CN12" s="139"/>
-      <c r="CO12" s="139"/>
-      <c r="CP12" s="139"/>
-      <c r="CQ12" s="139"/>
-      <c r="CR12" s="139"/>
-      <c r="CS12" s="139"/>
-      <c r="CT12" s="139"/>
-      <c r="CU12" s="139"/>
-      <c r="CV12" s="139"/>
-      <c r="CW12" s="140"/>
+      <c r="F12" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="59"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="59"/>
+      <c r="AD12" s="59"/>
+      <c r="AE12" s="59"/>
+      <c r="AF12" s="59"/>
+      <c r="AG12" s="59"/>
+      <c r="AH12" s="59"/>
+      <c r="AI12" s="59"/>
+      <c r="AJ12" s="59"/>
+      <c r="AK12" s="59"/>
+      <c r="AL12" s="59"/>
+      <c r="AM12" s="59"/>
+      <c r="AN12" s="59"/>
+      <c r="AO12" s="59"/>
+      <c r="AP12" s="59"/>
+      <c r="AQ12" s="59"/>
+      <c r="AR12" s="59"/>
+      <c r="AS12" s="59"/>
+      <c r="AT12" s="59"/>
+      <c r="AU12" s="59"/>
+      <c r="AV12" s="59"/>
+      <c r="AW12" s="59"/>
+      <c r="AX12" s="59"/>
+      <c r="AY12" s="59"/>
+      <c r="AZ12" s="59"/>
+      <c r="BA12" s="50"/>
     </row>
-    <row r="13" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A13" s="111"/>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A13" s="135"/>
       <c r="B13" s="41" t="s">
         <v>32</v>
       </c>
@@ -10357,219 +10113,131 @@
       <c r="D13" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="149">
+      <c r="E13" s="64">
         <v>162</v>
       </c>
-      <c r="F13" s="138"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="139"/>
-      <c r="K13" s="139"/>
-      <c r="L13" s="139"/>
-      <c r="M13" s="139"/>
-      <c r="N13" s="139"/>
-      <c r="O13" s="139"/>
-      <c r="P13" s="139"/>
-      <c r="Q13" s="139"/>
-      <c r="R13" s="139"/>
-      <c r="S13" s="139"/>
-      <c r="T13" s="139"/>
-      <c r="U13" s="139"/>
-      <c r="V13" s="139"/>
-      <c r="W13" s="139"/>
-      <c r="X13" s="139"/>
-      <c r="Y13" s="139"/>
-      <c r="Z13" s="139"/>
-      <c r="AA13" s="139"/>
-      <c r="AB13" s="139"/>
-      <c r="AC13" s="139"/>
-      <c r="AD13" s="139"/>
-      <c r="AE13" s="139"/>
-      <c r="AF13" s="139"/>
-      <c r="AG13" s="139"/>
-      <c r="AH13" s="139"/>
-      <c r="AI13" s="139"/>
-      <c r="AJ13" s="139"/>
-      <c r="AK13" s="139"/>
-      <c r="AL13" s="139"/>
-      <c r="AM13" s="139"/>
-      <c r="AN13" s="139"/>
-      <c r="AO13" s="139"/>
-      <c r="AP13" s="139"/>
-      <c r="AQ13" s="139"/>
-      <c r="AR13" s="139"/>
-      <c r="AS13" s="139"/>
-      <c r="AT13" s="139"/>
-      <c r="AU13" s="139"/>
-      <c r="AV13" s="139"/>
-      <c r="AW13" s="139"/>
-      <c r="AX13" s="139"/>
-      <c r="AY13" s="139"/>
-      <c r="AZ13" s="139"/>
-      <c r="BA13" s="139"/>
-      <c r="BB13" s="139"/>
-      <c r="BC13" s="139"/>
-      <c r="BD13" s="139"/>
-      <c r="BE13" s="139"/>
-      <c r="BF13" s="139"/>
-      <c r="BG13" s="139"/>
-      <c r="BH13" s="139"/>
-      <c r="BI13" s="139"/>
-      <c r="BJ13" s="139"/>
-      <c r="BK13" s="139"/>
-      <c r="BL13" s="139"/>
-      <c r="BM13" s="139"/>
-      <c r="BN13" s="139"/>
-      <c r="BO13" s="139"/>
-      <c r="BP13" s="139"/>
-      <c r="BQ13" s="139"/>
-      <c r="BR13" s="139"/>
-      <c r="BS13" s="139"/>
-      <c r="BT13" s="139"/>
-      <c r="BU13" s="139"/>
-      <c r="BV13" s="139"/>
-      <c r="BW13" s="139"/>
-      <c r="BX13" s="139"/>
-      <c r="BY13" s="139"/>
-      <c r="BZ13" s="139"/>
-      <c r="CA13" s="139"/>
-      <c r="CB13" s="139"/>
-      <c r="CC13" s="139"/>
-      <c r="CD13" s="139"/>
-      <c r="CE13" s="139"/>
-      <c r="CF13" s="139"/>
-      <c r="CG13" s="139"/>
-      <c r="CH13" s="139"/>
-      <c r="CI13" s="139"/>
-      <c r="CJ13" s="139"/>
-      <c r="CK13" s="139"/>
-      <c r="CL13" s="139"/>
-      <c r="CM13" s="139"/>
-      <c r="CN13" s="139"/>
-      <c r="CO13" s="139"/>
-      <c r="CP13" s="139"/>
-      <c r="CQ13" s="139"/>
-      <c r="CR13" s="139"/>
-      <c r="CS13" s="139"/>
-      <c r="CT13" s="139"/>
-      <c r="CU13" s="139"/>
-      <c r="CV13" s="139"/>
-      <c r="CW13" s="140"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB13" s="36"/>
+      <c r="AC13" s="36"/>
+      <c r="AD13" s="36"/>
+      <c r="AE13" s="36"/>
+      <c r="AF13" s="36"/>
+      <c r="AG13" s="34"/>
+      <c r="AH13" s="34"/>
+      <c r="AI13" s="34"/>
+      <c r="AJ13" s="34"/>
+      <c r="AK13" s="34"/>
+      <c r="AL13" s="34"/>
+      <c r="AM13" s="34"/>
+      <c r="AN13" s="34"/>
+      <c r="AO13" s="34"/>
+      <c r="AP13" s="34"/>
+      <c r="AQ13" s="34"/>
+      <c r="AR13" s="34"/>
+      <c r="AS13" s="34"/>
+      <c r="AT13" s="34"/>
+      <c r="AU13" s="34"/>
+      <c r="AV13" s="34"/>
+      <c r="AW13" s="34"/>
+      <c r="AX13" s="34"/>
+      <c r="AY13" s="34"/>
+      <c r="AZ13" s="34"/>
+      <c r="BA13" s="51"/>
     </row>
-    <row r="14" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A14" s="111"/>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A14" s="135"/>
       <c r="B14" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="150">
+      <c r="C14" s="127">
         <v>2011200</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="149">
+      <c r="E14" s="64">
         <v>233</v>
       </c>
-      <c r="F14" s="138"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="139"/>
-      <c r="J14" s="139"/>
-      <c r="K14" s="139"/>
-      <c r="L14" s="139"/>
-      <c r="M14" s="139"/>
-      <c r="N14" s="139"/>
-      <c r="O14" s="139"/>
-      <c r="P14" s="139"/>
-      <c r="Q14" s="139"/>
-      <c r="R14" s="139"/>
-      <c r="S14" s="139"/>
-      <c r="T14" s="139"/>
-      <c r="U14" s="139"/>
-      <c r="V14" s="139"/>
-      <c r="W14" s="139"/>
-      <c r="X14" s="139"/>
-      <c r="Y14" s="139"/>
-      <c r="Z14" s="139"/>
-      <c r="AA14" s="139"/>
-      <c r="AB14" s="139"/>
-      <c r="AC14" s="139"/>
-      <c r="AD14" s="139"/>
-      <c r="AE14" s="139"/>
-      <c r="AF14" s="139"/>
-      <c r="AG14" s="139"/>
-      <c r="AH14" s="139"/>
-      <c r="AI14" s="139"/>
-      <c r="AJ14" s="139"/>
-      <c r="AK14" s="139"/>
-      <c r="AL14" s="139"/>
-      <c r="AM14" s="139"/>
-      <c r="AN14" s="139"/>
-      <c r="AO14" s="139"/>
-      <c r="AP14" s="139"/>
-      <c r="AQ14" s="139"/>
-      <c r="AR14" s="139"/>
-      <c r="AS14" s="139"/>
-      <c r="AT14" s="139"/>
-      <c r="AU14" s="139"/>
-      <c r="AV14" s="139"/>
-      <c r="AW14" s="139"/>
-      <c r="AX14" s="139"/>
-      <c r="AY14" s="139"/>
-      <c r="AZ14" s="139"/>
-      <c r="BA14" s="139"/>
-      <c r="BB14" s="139"/>
-      <c r="BC14" s="139"/>
-      <c r="BD14" s="139"/>
-      <c r="BE14" s="139"/>
-      <c r="BF14" s="139"/>
-      <c r="BG14" s="139"/>
-      <c r="BH14" s="139"/>
-      <c r="BI14" s="139"/>
-      <c r="BJ14" s="139"/>
-      <c r="BK14" s="139"/>
-      <c r="BL14" s="139"/>
-      <c r="BM14" s="139"/>
-      <c r="BN14" s="139"/>
-      <c r="BO14" s="139"/>
-      <c r="BP14" s="139"/>
-      <c r="BQ14" s="139"/>
-      <c r="BR14" s="139"/>
-      <c r="BS14" s="139"/>
-      <c r="BT14" s="139"/>
-      <c r="BU14" s="139"/>
-      <c r="BV14" s="139"/>
-      <c r="BW14" s="139"/>
-      <c r="BX14" s="139"/>
-      <c r="BY14" s="139"/>
-      <c r="BZ14" s="139"/>
-      <c r="CA14" s="139"/>
-      <c r="CB14" s="139"/>
-      <c r="CC14" s="139"/>
-      <c r="CD14" s="139"/>
-      <c r="CE14" s="139"/>
-      <c r="CF14" s="139"/>
-      <c r="CG14" s="139"/>
-      <c r="CH14" s="139"/>
-      <c r="CI14" s="139"/>
-      <c r="CJ14" s="139"/>
-      <c r="CK14" s="139"/>
-      <c r="CL14" s="139"/>
-      <c r="CM14" s="139"/>
-      <c r="CN14" s="139"/>
-      <c r="CO14" s="139"/>
-      <c r="CP14" s="139"/>
-      <c r="CQ14" s="139"/>
-      <c r="CR14" s="139"/>
-      <c r="CS14" s="139"/>
-      <c r="CT14" s="139"/>
-      <c r="CU14" s="139"/>
-      <c r="CV14" s="139"/>
-      <c r="CW14" s="140"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB14" s="36"/>
+      <c r="AC14" s="36"/>
+      <c r="AD14" s="36"/>
+      <c r="AE14" s="36"/>
+      <c r="AF14" s="36"/>
+      <c r="AG14" s="34"/>
+      <c r="AH14" s="34"/>
+      <c r="AI14" s="34"/>
+      <c r="AJ14" s="34"/>
+      <c r="AK14" s="34"/>
+      <c r="AL14" s="34"/>
+      <c r="AM14" s="34"/>
+      <c r="AN14" s="34"/>
+      <c r="AO14" s="34"/>
+      <c r="AP14" s="34"/>
+      <c r="AQ14" s="34"/>
+      <c r="AR14" s="34"/>
+      <c r="AS14" s="34"/>
+      <c r="AT14" s="34"/>
+      <c r="AU14" s="34"/>
+      <c r="AV14" s="34"/>
+      <c r="AW14" s="34"/>
+      <c r="AX14" s="34"/>
+      <c r="AY14" s="34"/>
+      <c r="AZ14" s="34"/>
+      <c r="BA14" s="51"/>
     </row>
-    <row r="15" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A15" s="111"/>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A15" s="135"/>
       <c r="B15" s="41" t="s">
         <v>32</v>
       </c>
@@ -10579,107 +10247,61 @@
       <c r="D15" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="151">
+      <c r="E15" s="160">
         <v>334</v>
       </c>
-      <c r="F15" s="138"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="139"/>
-      <c r="K15" s="139"/>
-      <c r="L15" s="139"/>
-      <c r="M15" s="139"/>
-      <c r="N15" s="139"/>
-      <c r="O15" s="139"/>
-      <c r="P15" s="139"/>
-      <c r="Q15" s="139"/>
-      <c r="R15" s="139"/>
-      <c r="S15" s="139"/>
-      <c r="T15" s="139"/>
-      <c r="U15" s="139"/>
-      <c r="V15" s="139"/>
-      <c r="W15" s="139"/>
-      <c r="X15" s="139"/>
-      <c r="Y15" s="139"/>
-      <c r="Z15" s="139"/>
-      <c r="AA15" s="139"/>
-      <c r="AB15" s="139"/>
-      <c r="AC15" s="139"/>
-      <c r="AD15" s="139"/>
-      <c r="AE15" s="139"/>
-      <c r="AF15" s="139"/>
-      <c r="AG15" s="139"/>
-      <c r="AH15" s="139"/>
-      <c r="AI15" s="139"/>
-      <c r="AJ15" s="139"/>
-      <c r="AK15" s="139"/>
-      <c r="AL15" s="139"/>
-      <c r="AM15" s="139"/>
-      <c r="AN15" s="139"/>
-      <c r="AO15" s="139"/>
-      <c r="AP15" s="139"/>
-      <c r="AQ15" s="139"/>
-      <c r="AR15" s="139"/>
-      <c r="AS15" s="139"/>
-      <c r="AT15" s="139"/>
-      <c r="AU15" s="139"/>
-      <c r="AV15" s="139"/>
-      <c r="AW15" s="139"/>
-      <c r="AX15" s="139"/>
-      <c r="AY15" s="139"/>
-      <c r="AZ15" s="139"/>
-      <c r="BA15" s="139"/>
-      <c r="BB15" s="139"/>
-      <c r="BC15" s="139"/>
-      <c r="BD15" s="139"/>
-      <c r="BE15" s="139"/>
-      <c r="BF15" s="139"/>
-      <c r="BG15" s="139"/>
-      <c r="BH15" s="139"/>
-      <c r="BI15" s="139"/>
-      <c r="BJ15" s="139"/>
-      <c r="BK15" s="139"/>
-      <c r="BL15" s="139"/>
-      <c r="BM15" s="139"/>
-      <c r="BN15" s="139"/>
-      <c r="BO15" s="139"/>
-      <c r="BP15" s="139"/>
-      <c r="BQ15" s="139"/>
-      <c r="BR15" s="139"/>
-      <c r="BS15" s="139"/>
-      <c r="BT15" s="139"/>
-      <c r="BU15" s="139"/>
-      <c r="BV15" s="139"/>
-      <c r="BW15" s="139"/>
-      <c r="BX15" s="139"/>
-      <c r="BY15" s="139"/>
-      <c r="BZ15" s="139"/>
-      <c r="CA15" s="139"/>
-      <c r="CB15" s="139"/>
-      <c r="CC15" s="139"/>
-      <c r="CD15" s="139"/>
-      <c r="CE15" s="139"/>
-      <c r="CF15" s="139"/>
-      <c r="CG15" s="139"/>
-      <c r="CH15" s="139"/>
-      <c r="CI15" s="139"/>
-      <c r="CJ15" s="139"/>
-      <c r="CK15" s="139"/>
-      <c r="CL15" s="139"/>
-      <c r="CM15" s="139"/>
-      <c r="CN15" s="139"/>
-      <c r="CO15" s="139"/>
-      <c r="CP15" s="139"/>
-      <c r="CQ15" s="139"/>
-      <c r="CR15" s="139"/>
-      <c r="CS15" s="139"/>
-      <c r="CT15" s="139"/>
-      <c r="CU15" s="139"/>
-      <c r="CV15" s="139"/>
-      <c r="CW15" s="140"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="36"/>
+      <c r="AB15" s="36"/>
+      <c r="AC15" s="36"/>
+      <c r="AD15" s="36"/>
+      <c r="AE15" s="36"/>
+      <c r="AF15" s="36"/>
+      <c r="AG15" s="34"/>
+      <c r="AH15" s="34"/>
+      <c r="AI15" s="34"/>
+      <c r="AJ15" s="34"/>
+      <c r="AK15" s="34"/>
+      <c r="AL15" s="34"/>
+      <c r="AM15" s="34"/>
+      <c r="AN15" s="34"/>
+      <c r="AO15" s="34"/>
+      <c r="AP15" s="34"/>
+      <c r="AQ15" s="34"/>
+      <c r="AR15" s="34"/>
+      <c r="AS15" s="34"/>
+      <c r="AT15" s="34"/>
+      <c r="AU15" s="34"/>
+      <c r="AV15" s="34"/>
+      <c r="AW15" s="34"/>
+      <c r="AX15" s="34"/>
+      <c r="AY15" s="34"/>
+      <c r="AZ15" s="34"/>
+      <c r="BA15" s="51"/>
     </row>
-    <row r="16" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" s="77"/>
       <c r="B16" s="78"/>
       <c r="C16" s="79"/>
@@ -10746,7 +10368,7 @@
       <c r="I17" s="80"/>
       <c r="J17" s="80"/>
       <c r="K17" s="80"/>
-      <c r="L17" s="152"/>
+      <c r="L17" s="80"/>
       <c r="M17" s="80"/>
       <c r="N17" s="80"/>
       <c r="O17" s="80"/>
@@ -10794,7 +10416,7 @@
       <c r="B18" s="78"/>
       <c r="C18" s="79"/>
       <c r="D18" s="80"/>
-      <c r="E18" s="153"/>
+      <c r="E18" s="81"/>
       <c r="F18" s="80"/>
       <c r="G18" s="80"/>
       <c r="H18" s="80"/>
@@ -11044,24 +10666,1975 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="CH3:CK3"/>
-    <mergeCell ref="CL3:CO3"/>
-    <mergeCell ref="CP3:CS3"/>
-    <mergeCell ref="CT3:CW3"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="AV3:AW3"/>
+    <mergeCell ref="AX3:AY3"/>
+    <mergeCell ref="AZ3:BA3"/>
     <mergeCell ref="A5:A11"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="BJ3:BM3"/>
-    <mergeCell ref="BN3:BQ3"/>
-    <mergeCell ref="BR3:BU3"/>
-    <mergeCell ref="BV3:BY3"/>
-    <mergeCell ref="BZ3:CC3"/>
-    <mergeCell ref="CD3:CG3"/>
-    <mergeCell ref="AL3:AO3"/>
-    <mergeCell ref="AP3:AS3"/>
-    <mergeCell ref="AT3:AW3"/>
-    <mergeCell ref="AX3:BA3"/>
-    <mergeCell ref="BB3:BE3"/>
-    <mergeCell ref="BF3:BI3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:BA2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:CW26"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="X18" sqref="X18"/>
+      <selection pane="bottomLeft" activeCell="AT33" sqref="AT33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" style="32" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="32" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" style="32" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="32" customWidth="1"/>
+    <col min="6" max="101" width="1.42578125" style="32" customWidth="1"/>
+    <col min="102" max="16384" width="9.140625" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:101" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="139" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="139"/>
+      <c r="C2" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="140" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="140"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="140"/>
+      <c r="W2" s="140"/>
+      <c r="X2" s="140"/>
+      <c r="Y2" s="140"/>
+      <c r="Z2" s="140"/>
+      <c r="AA2" s="140"/>
+      <c r="AB2" s="140"/>
+      <c r="AC2" s="140"/>
+      <c r="AD2" s="140"/>
+      <c r="AE2" s="140"/>
+      <c r="AF2" s="140"/>
+      <c r="AG2" s="140"/>
+      <c r="AH2" s="140"/>
+      <c r="AI2" s="140"/>
+      <c r="AJ2" s="140"/>
+      <c r="AK2" s="140"/>
+      <c r="AL2" s="140"/>
+      <c r="AM2" s="140"/>
+      <c r="AN2" s="140"/>
+      <c r="AO2" s="140"/>
+      <c r="AP2" s="140"/>
+      <c r="AQ2" s="140"/>
+      <c r="AR2" s="140"/>
+      <c r="AS2" s="140"/>
+      <c r="AT2" s="140"/>
+      <c r="AU2" s="140"/>
+      <c r="AV2" s="140"/>
+      <c r="AW2" s="140"/>
+      <c r="AX2" s="140"/>
+      <c r="AY2" s="140"/>
+      <c r="AZ2" s="140"/>
+      <c r="BA2" s="140"/>
+    </row>
+    <row r="3" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="104" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="105" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="105" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="149">
+        <v>7</v>
+      </c>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="142">
+        <v>8</v>
+      </c>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="144"/>
+      <c r="N3" s="142">
+        <v>9</v>
+      </c>
+      <c r="O3" s="143"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="144"/>
+      <c r="R3" s="142">
+        <v>10</v>
+      </c>
+      <c r="S3" s="143"/>
+      <c r="T3" s="143"/>
+      <c r="U3" s="144"/>
+      <c r="V3" s="142">
+        <v>11</v>
+      </c>
+      <c r="W3" s="143"/>
+      <c r="X3" s="143"/>
+      <c r="Y3" s="144"/>
+      <c r="Z3" s="152">
+        <v>12</v>
+      </c>
+      <c r="AA3" s="153"/>
+      <c r="AB3" s="153"/>
+      <c r="AC3" s="154"/>
+      <c r="AD3" s="142">
+        <v>13</v>
+      </c>
+      <c r="AE3" s="143"/>
+      <c r="AF3" s="143"/>
+      <c r="AG3" s="144"/>
+      <c r="AH3" s="142">
+        <v>14</v>
+      </c>
+      <c r="AI3" s="143"/>
+      <c r="AJ3" s="143"/>
+      <c r="AK3" s="144"/>
+      <c r="AL3" s="142">
+        <v>15</v>
+      </c>
+      <c r="AM3" s="143"/>
+      <c r="AN3" s="143"/>
+      <c r="AO3" s="144"/>
+      <c r="AP3" s="142">
+        <v>16</v>
+      </c>
+      <c r="AQ3" s="143"/>
+      <c r="AR3" s="143"/>
+      <c r="AS3" s="144"/>
+      <c r="AT3" s="142">
+        <v>17</v>
+      </c>
+      <c r="AU3" s="143"/>
+      <c r="AV3" s="143"/>
+      <c r="AW3" s="144"/>
+      <c r="AX3" s="142">
+        <v>18</v>
+      </c>
+      <c r="AY3" s="143"/>
+      <c r="AZ3" s="143"/>
+      <c r="BA3" s="145"/>
+      <c r="BB3" s="149">
+        <v>19</v>
+      </c>
+      <c r="BC3" s="150"/>
+      <c r="BD3" s="150"/>
+      <c r="BE3" s="151"/>
+      <c r="BF3" s="142">
+        <v>20</v>
+      </c>
+      <c r="BG3" s="143"/>
+      <c r="BH3" s="143"/>
+      <c r="BI3" s="144"/>
+      <c r="BJ3" s="142">
+        <v>21</v>
+      </c>
+      <c r="BK3" s="143"/>
+      <c r="BL3" s="143"/>
+      <c r="BM3" s="144"/>
+      <c r="BN3" s="142">
+        <v>22</v>
+      </c>
+      <c r="BO3" s="143"/>
+      <c r="BP3" s="143"/>
+      <c r="BQ3" s="144"/>
+      <c r="BR3" s="142">
+        <v>23</v>
+      </c>
+      <c r="BS3" s="143"/>
+      <c r="BT3" s="143"/>
+      <c r="BU3" s="143"/>
+      <c r="BV3" s="146">
+        <v>24</v>
+      </c>
+      <c r="BW3" s="147"/>
+      <c r="BX3" s="147"/>
+      <c r="BY3" s="148"/>
+      <c r="BZ3" s="143">
+        <v>1</v>
+      </c>
+      <c r="CA3" s="143"/>
+      <c r="CB3" s="143"/>
+      <c r="CC3" s="144"/>
+      <c r="CD3" s="142">
+        <v>2</v>
+      </c>
+      <c r="CE3" s="143"/>
+      <c r="CF3" s="143"/>
+      <c r="CG3" s="144"/>
+      <c r="CH3" s="142">
+        <v>3</v>
+      </c>
+      <c r="CI3" s="143"/>
+      <c r="CJ3" s="143"/>
+      <c r="CK3" s="144"/>
+      <c r="CL3" s="142">
+        <v>4</v>
+      </c>
+      <c r="CM3" s="143"/>
+      <c r="CN3" s="143"/>
+      <c r="CO3" s="144"/>
+      <c r="CP3" s="142">
+        <v>5</v>
+      </c>
+      <c r="CQ3" s="143"/>
+      <c r="CR3" s="143"/>
+      <c r="CS3" s="144"/>
+      <c r="CT3" s="142">
+        <v>6</v>
+      </c>
+      <c r="CU3" s="143"/>
+      <c r="CV3" s="143"/>
+      <c r="CW3" s="145"/>
+    </row>
+    <row r="4" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="108"/>
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="108"/>
+      <c r="U4" s="108"/>
+      <c r="V4" s="108"/>
+      <c r="W4" s="108"/>
+      <c r="X4" s="108"/>
+      <c r="Y4" s="108"/>
+      <c r="Z4" s="108"/>
+      <c r="AA4" s="108"/>
+      <c r="AB4" s="108"/>
+      <c r="AC4" s="108"/>
+      <c r="AD4" s="108"/>
+      <c r="AE4" s="108"/>
+      <c r="AF4" s="108"/>
+      <c r="AG4" s="108"/>
+      <c r="AH4" s="108"/>
+      <c r="AI4" s="108"/>
+      <c r="AJ4" s="108"/>
+      <c r="AK4" s="108"/>
+      <c r="AL4" s="108"/>
+      <c r="AM4" s="108"/>
+      <c r="AN4" s="108"/>
+      <c r="AO4" s="108"/>
+      <c r="AP4" s="108"/>
+      <c r="AQ4" s="108"/>
+      <c r="AR4" s="108"/>
+      <c r="AS4" s="108"/>
+      <c r="AT4" s="108"/>
+      <c r="AU4" s="108"/>
+      <c r="AV4" s="108"/>
+      <c r="AW4" s="108"/>
+      <c r="AX4" s="108"/>
+      <c r="AY4" s="109"/>
+      <c r="AZ4" s="109"/>
+      <c r="BA4" s="109"/>
+      <c r="BB4" s="109"/>
+      <c r="BC4" s="109"/>
+      <c r="BD4" s="110"/>
+      <c r="BE4" s="111"/>
+      <c r="BF4" s="111"/>
+      <c r="BG4" s="111"/>
+      <c r="BH4" s="111"/>
+      <c r="BI4" s="111"/>
+      <c r="BJ4" s="111"/>
+      <c r="BK4" s="111"/>
+      <c r="BL4" s="111"/>
+      <c r="BM4" s="111"/>
+      <c r="BN4" s="111"/>
+      <c r="BO4" s="111"/>
+      <c r="BP4" s="111"/>
+      <c r="BQ4" s="111"/>
+      <c r="BR4" s="111"/>
+      <c r="BS4" s="111"/>
+      <c r="BT4" s="111"/>
+      <c r="BU4" s="111"/>
+      <c r="BV4" s="111"/>
+      <c r="BW4" s="111"/>
+      <c r="BX4" s="111"/>
+      <c r="BY4" s="111"/>
+      <c r="BZ4" s="111"/>
+      <c r="CA4" s="111"/>
+      <c r="CB4" s="111"/>
+      <c r="CC4" s="111"/>
+      <c r="CD4" s="111"/>
+      <c r="CE4" s="111"/>
+      <c r="CF4" s="111"/>
+      <c r="CG4" s="111"/>
+      <c r="CH4" s="111"/>
+      <c r="CI4" s="111"/>
+      <c r="CJ4" s="111"/>
+      <c r="CK4" s="111"/>
+      <c r="CL4" s="111"/>
+      <c r="CM4" s="111"/>
+      <c r="CN4" s="111"/>
+      <c r="CO4" s="111"/>
+      <c r="CP4" s="111"/>
+      <c r="CQ4" s="111"/>
+      <c r="CR4" s="111"/>
+      <c r="CS4" s="111"/>
+      <c r="CT4" s="111"/>
+      <c r="CU4" s="111"/>
+      <c r="CV4" s="111"/>
+      <c r="CW4" s="112"/>
+    </row>
+    <row r="5" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="132" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="113" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="114" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="115"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="116"/>
+      <c r="V5" s="116"/>
+      <c r="W5" s="116"/>
+      <c r="X5" s="116"/>
+      <c r="Y5" s="116"/>
+      <c r="Z5" s="116"/>
+      <c r="AA5" s="116"/>
+      <c r="AB5" s="116"/>
+      <c r="AC5" s="116"/>
+      <c r="AD5" s="116"/>
+      <c r="AE5" s="116"/>
+      <c r="AF5" s="116"/>
+      <c r="AG5" s="116"/>
+      <c r="AH5" s="116"/>
+      <c r="AI5" s="116"/>
+      <c r="AJ5" s="116"/>
+      <c r="AK5" s="116"/>
+      <c r="AL5" s="116"/>
+      <c r="AM5" s="116"/>
+      <c r="AN5" s="116"/>
+      <c r="AO5" s="116"/>
+      <c r="AP5" s="116"/>
+      <c r="AQ5" s="116"/>
+      <c r="AR5" s="116"/>
+      <c r="AS5" s="116"/>
+      <c r="AT5" s="116"/>
+      <c r="AU5" s="116"/>
+      <c r="AV5" s="116"/>
+      <c r="AW5" s="116"/>
+      <c r="AX5" s="116"/>
+      <c r="AY5" s="116"/>
+      <c r="AZ5" s="116"/>
+      <c r="BA5" s="116"/>
+      <c r="BB5" s="116"/>
+      <c r="BC5" s="116"/>
+      <c r="BD5" s="116"/>
+      <c r="BE5" s="116"/>
+      <c r="BF5" s="116"/>
+      <c r="BG5" s="116"/>
+      <c r="BH5" s="116"/>
+      <c r="BI5" s="116"/>
+      <c r="BJ5" s="116"/>
+      <c r="BK5" s="116"/>
+      <c r="BL5" s="116"/>
+      <c r="BM5" s="116"/>
+      <c r="BN5" s="116"/>
+      <c r="BO5" s="116"/>
+      <c r="BP5" s="116"/>
+      <c r="BQ5" s="116"/>
+      <c r="BR5" s="116"/>
+      <c r="BS5" s="116"/>
+      <c r="BT5" s="116"/>
+      <c r="BU5" s="116"/>
+      <c r="BV5" s="116"/>
+      <c r="BW5" s="116"/>
+      <c r="BX5" s="116"/>
+      <c r="BY5" s="116"/>
+      <c r="BZ5" s="116"/>
+      <c r="CA5" s="116"/>
+      <c r="CB5" s="116"/>
+      <c r="CC5" s="116"/>
+      <c r="CD5" s="116"/>
+      <c r="CE5" s="116"/>
+      <c r="CF5" s="116"/>
+      <c r="CG5" s="116"/>
+      <c r="CH5" s="116"/>
+      <c r="CI5" s="116"/>
+      <c r="CJ5" s="116"/>
+      <c r="CK5" s="116"/>
+      <c r="CL5" s="116"/>
+      <c r="CM5" s="116"/>
+      <c r="CN5" s="116"/>
+      <c r="CO5" s="116"/>
+      <c r="CP5" s="116"/>
+      <c r="CQ5" s="116"/>
+      <c r="CR5" s="116"/>
+      <c r="CS5" s="116"/>
+      <c r="CT5" s="116"/>
+      <c r="CU5" s="116"/>
+      <c r="CV5" s="116"/>
+      <c r="CW5" s="117"/>
+    </row>
+    <row r="6" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="135"/>
+      <c r="B6" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="118" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="115"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="116"/>
+      <c r="Q6" s="116"/>
+      <c r="R6" s="116"/>
+      <c r="S6" s="116"/>
+      <c r="T6" s="116"/>
+      <c r="U6" s="116"/>
+      <c r="V6" s="116"/>
+      <c r="W6" s="116"/>
+      <c r="X6" s="116"/>
+      <c r="Y6" s="116"/>
+      <c r="Z6" s="116"/>
+      <c r="AA6" s="116"/>
+      <c r="AB6" s="116"/>
+      <c r="AC6" s="116"/>
+      <c r="AD6" s="116"/>
+      <c r="AE6" s="116"/>
+      <c r="AF6" s="116"/>
+      <c r="AG6" s="116"/>
+      <c r="AH6" s="116"/>
+      <c r="AI6" s="116"/>
+      <c r="AJ6" s="116"/>
+      <c r="AK6" s="116"/>
+      <c r="AL6" s="116"/>
+      <c r="AM6" s="116"/>
+      <c r="AN6" s="116"/>
+      <c r="AO6" s="116"/>
+      <c r="AP6" s="116"/>
+      <c r="AQ6" s="116"/>
+      <c r="AR6" s="116"/>
+      <c r="AS6" s="116"/>
+      <c r="AT6" s="116"/>
+      <c r="AU6" s="116"/>
+      <c r="AV6" s="116"/>
+      <c r="AW6" s="116"/>
+      <c r="AX6" s="116"/>
+      <c r="AY6" s="116"/>
+      <c r="AZ6" s="116"/>
+      <c r="BA6" s="116"/>
+      <c r="BB6" s="116"/>
+      <c r="BC6" s="116"/>
+      <c r="BD6" s="116"/>
+      <c r="BE6" s="116"/>
+      <c r="BF6" s="116"/>
+      <c r="BG6" s="116"/>
+      <c r="BH6" s="116"/>
+      <c r="BI6" s="116"/>
+      <c r="BJ6" s="116"/>
+      <c r="BK6" s="116"/>
+      <c r="BL6" s="116"/>
+      <c r="BM6" s="116"/>
+      <c r="BN6" s="116"/>
+      <c r="BO6" s="116"/>
+      <c r="BP6" s="116"/>
+      <c r="BQ6" s="116"/>
+      <c r="BR6" s="116"/>
+      <c r="BS6" s="116"/>
+      <c r="BT6" s="116"/>
+      <c r="BU6" s="116"/>
+      <c r="BV6" s="116"/>
+      <c r="BW6" s="116"/>
+      <c r="BX6" s="116"/>
+      <c r="BY6" s="116"/>
+      <c r="BZ6" s="116"/>
+      <c r="CA6" s="116"/>
+      <c r="CB6" s="116"/>
+      <c r="CC6" s="116"/>
+      <c r="CD6" s="116"/>
+      <c r="CE6" s="116"/>
+      <c r="CF6" s="116"/>
+      <c r="CG6" s="116"/>
+      <c r="CH6" s="116"/>
+      <c r="CI6" s="116"/>
+      <c r="CJ6" s="116"/>
+      <c r="CK6" s="116"/>
+      <c r="CL6" s="116"/>
+      <c r="CM6" s="116"/>
+      <c r="CN6" s="116"/>
+      <c r="CO6" s="116"/>
+      <c r="CP6" s="116"/>
+      <c r="CQ6" s="116"/>
+      <c r="CR6" s="116"/>
+      <c r="CS6" s="116"/>
+      <c r="CT6" s="116"/>
+      <c r="CU6" s="116"/>
+      <c r="CV6" s="116"/>
+      <c r="CW6" s="117"/>
+    </row>
+    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A7" s="135"/>
+      <c r="B7" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="119" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="115"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="116"/>
+      <c r="U7" s="116"/>
+      <c r="V7" s="116"/>
+      <c r="W7" s="116"/>
+      <c r="X7" s="116"/>
+      <c r="Y7" s="116"/>
+      <c r="Z7" s="116"/>
+      <c r="AA7" s="116"/>
+      <c r="AB7" s="116"/>
+      <c r="AC7" s="116"/>
+      <c r="AD7" s="116"/>
+      <c r="AE7" s="116"/>
+      <c r="AF7" s="116"/>
+      <c r="AG7" s="116"/>
+      <c r="AH7" s="116"/>
+      <c r="AI7" s="116"/>
+      <c r="AJ7" s="116"/>
+      <c r="AK7" s="116"/>
+      <c r="AL7" s="116"/>
+      <c r="AM7" s="116"/>
+      <c r="AN7" s="116"/>
+      <c r="AO7" s="116"/>
+      <c r="AP7" s="116"/>
+      <c r="AQ7" s="116"/>
+      <c r="AR7" s="116"/>
+      <c r="AS7" s="116"/>
+      <c r="AT7" s="116"/>
+      <c r="AU7" s="116"/>
+      <c r="AV7" s="116"/>
+      <c r="AW7" s="116"/>
+      <c r="AX7" s="116"/>
+      <c r="AY7" s="116"/>
+      <c r="AZ7" s="116"/>
+      <c r="BA7" s="116"/>
+      <c r="BB7" s="116"/>
+      <c r="BC7" s="116"/>
+      <c r="BD7" s="116"/>
+      <c r="BE7" s="116"/>
+      <c r="BF7" s="116"/>
+      <c r="BG7" s="116"/>
+      <c r="BH7" s="116"/>
+      <c r="BI7" s="116"/>
+      <c r="BJ7" s="116"/>
+      <c r="BK7" s="116"/>
+      <c r="BL7" s="116"/>
+      <c r="BM7" s="116"/>
+      <c r="BN7" s="116"/>
+      <c r="BO7" s="116"/>
+      <c r="BP7" s="116"/>
+      <c r="BQ7" s="116"/>
+      <c r="BR7" s="116"/>
+      <c r="BS7" s="116"/>
+      <c r="BT7" s="116"/>
+      <c r="BU7" s="116"/>
+      <c r="BV7" s="116"/>
+      <c r="BW7" s="116"/>
+      <c r="BX7" s="116"/>
+      <c r="BY7" s="116"/>
+      <c r="BZ7" s="116"/>
+      <c r="CA7" s="116"/>
+      <c r="CB7" s="116"/>
+      <c r="CC7" s="116"/>
+      <c r="CD7" s="116"/>
+      <c r="CE7" s="116"/>
+      <c r="CF7" s="116"/>
+      <c r="CG7" s="116"/>
+      <c r="CH7" s="116"/>
+      <c r="CI7" s="116"/>
+      <c r="CJ7" s="116"/>
+      <c r="CK7" s="116"/>
+      <c r="CL7" s="116"/>
+      <c r="CM7" s="116"/>
+      <c r="CN7" s="116"/>
+      <c r="CO7" s="116"/>
+      <c r="CP7" s="116"/>
+      <c r="CQ7" s="116"/>
+      <c r="CR7" s="116"/>
+      <c r="CS7" s="116"/>
+      <c r="CT7" s="116"/>
+      <c r="CU7" s="116"/>
+      <c r="CV7" s="116"/>
+      <c r="CW7" s="117"/>
+    </row>
+    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A8" s="135"/>
+      <c r="B8" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="119" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="115"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="116"/>
+      <c r="V8" s="116"/>
+      <c r="W8" s="116"/>
+      <c r="X8" s="116"/>
+      <c r="Y8" s="116"/>
+      <c r="Z8" s="116"/>
+      <c r="AA8" s="116"/>
+      <c r="AB8" s="116"/>
+      <c r="AC8" s="116"/>
+      <c r="AD8" s="116"/>
+      <c r="AE8" s="116"/>
+      <c r="AF8" s="116"/>
+      <c r="AG8" s="116"/>
+      <c r="AH8" s="116"/>
+      <c r="AI8" s="116"/>
+      <c r="AJ8" s="116"/>
+      <c r="AK8" s="116"/>
+      <c r="AL8" s="116"/>
+      <c r="AM8" s="116"/>
+      <c r="AN8" s="116"/>
+      <c r="AO8" s="116"/>
+      <c r="AP8" s="116"/>
+      <c r="AQ8" s="116"/>
+      <c r="AR8" s="116"/>
+      <c r="AS8" s="116"/>
+      <c r="AT8" s="116"/>
+      <c r="AU8" s="116"/>
+      <c r="AV8" s="116"/>
+      <c r="AW8" s="116"/>
+      <c r="AX8" s="116"/>
+      <c r="AY8" s="116"/>
+      <c r="AZ8" s="116"/>
+      <c r="BA8" s="116"/>
+      <c r="BB8" s="116"/>
+      <c r="BC8" s="116"/>
+      <c r="BD8" s="116"/>
+      <c r="BE8" s="116"/>
+      <c r="BF8" s="116"/>
+      <c r="BG8" s="116"/>
+      <c r="BH8" s="116"/>
+      <c r="BI8" s="116"/>
+      <c r="BJ8" s="116"/>
+      <c r="BK8" s="116"/>
+      <c r="BL8" s="116"/>
+      <c r="BM8" s="116"/>
+      <c r="BN8" s="116"/>
+      <c r="BO8" s="116"/>
+      <c r="BP8" s="116"/>
+      <c r="BQ8" s="116"/>
+      <c r="BR8" s="116"/>
+      <c r="BS8" s="116"/>
+      <c r="BT8" s="116"/>
+      <c r="BU8" s="116"/>
+      <c r="BV8" s="116"/>
+      <c r="BW8" s="116"/>
+      <c r="BX8" s="116"/>
+      <c r="BY8" s="116"/>
+      <c r="BZ8" s="116"/>
+      <c r="CA8" s="116"/>
+      <c r="CB8" s="116"/>
+      <c r="CC8" s="116"/>
+      <c r="CD8" s="116"/>
+      <c r="CE8" s="116"/>
+      <c r="CF8" s="116"/>
+      <c r="CG8" s="116"/>
+      <c r="CH8" s="116"/>
+      <c r="CI8" s="116"/>
+      <c r="CJ8" s="116"/>
+      <c r="CK8" s="116"/>
+      <c r="CL8" s="116"/>
+      <c r="CM8" s="116"/>
+      <c r="CN8" s="116"/>
+      <c r="CO8" s="116"/>
+      <c r="CP8" s="116"/>
+      <c r="CQ8" s="116"/>
+      <c r="CR8" s="116"/>
+      <c r="CS8" s="116"/>
+      <c r="CT8" s="116"/>
+      <c r="CU8" s="116"/>
+      <c r="CV8" s="116"/>
+      <c r="CW8" s="117"/>
+    </row>
+    <row r="9" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="135"/>
+      <c r="B9" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="119" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="115"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="116"/>
+      <c r="R9" s="116"/>
+      <c r="S9" s="116"/>
+      <c r="T9" s="116"/>
+      <c r="U9" s="116"/>
+      <c r="V9" s="116"/>
+      <c r="W9" s="116"/>
+      <c r="X9" s="116"/>
+      <c r="Y9" s="116"/>
+      <c r="Z9" s="116"/>
+      <c r="AA9" s="116"/>
+      <c r="AB9" s="116"/>
+      <c r="AC9" s="116"/>
+      <c r="AD9" s="116"/>
+      <c r="AE9" s="116"/>
+      <c r="AF9" s="116"/>
+      <c r="AG9" s="116"/>
+      <c r="AH9" s="116"/>
+      <c r="AI9" s="116"/>
+      <c r="AJ9" s="116"/>
+      <c r="AK9" s="116"/>
+      <c r="AL9" s="116"/>
+      <c r="AM9" s="116"/>
+      <c r="AN9" s="116"/>
+      <c r="AO9" s="116"/>
+      <c r="AP9" s="116"/>
+      <c r="AQ9" s="116"/>
+      <c r="AR9" s="116"/>
+      <c r="AS9" s="116"/>
+      <c r="AT9" s="116"/>
+      <c r="AU9" s="116"/>
+      <c r="AV9" s="116"/>
+      <c r="AW9" s="116"/>
+      <c r="AX9" s="116"/>
+      <c r="AY9" s="116"/>
+      <c r="AZ9" s="116"/>
+      <c r="BA9" s="116"/>
+      <c r="BB9" s="116"/>
+      <c r="BC9" s="116"/>
+      <c r="BD9" s="116"/>
+      <c r="BE9" s="116"/>
+      <c r="BF9" s="116"/>
+      <c r="BG9" s="116"/>
+      <c r="BH9" s="116"/>
+      <c r="BI9" s="116"/>
+      <c r="BJ9" s="116"/>
+      <c r="BK9" s="116"/>
+      <c r="BL9" s="116"/>
+      <c r="BM9" s="116"/>
+      <c r="BN9" s="116"/>
+      <c r="BO9" s="116"/>
+      <c r="BP9" s="116"/>
+      <c r="BQ9" s="116"/>
+      <c r="BR9" s="116"/>
+      <c r="BS9" s="116"/>
+      <c r="BT9" s="116"/>
+      <c r="BU9" s="116"/>
+      <c r="BV9" s="116"/>
+      <c r="BW9" s="116"/>
+      <c r="BX9" s="116"/>
+      <c r="BY9" s="116"/>
+      <c r="BZ9" s="116"/>
+      <c r="CA9" s="116"/>
+      <c r="CB9" s="116"/>
+      <c r="CC9" s="116"/>
+      <c r="CD9" s="116"/>
+      <c r="CE9" s="116"/>
+      <c r="CF9" s="116"/>
+      <c r="CG9" s="116"/>
+      <c r="CH9" s="116"/>
+      <c r="CI9" s="116"/>
+      <c r="CJ9" s="116"/>
+      <c r="CK9" s="116"/>
+      <c r="CL9" s="116"/>
+      <c r="CM9" s="116"/>
+      <c r="CN9" s="116"/>
+      <c r="CO9" s="116"/>
+      <c r="CP9" s="116"/>
+      <c r="CQ9" s="116"/>
+      <c r="CR9" s="116"/>
+      <c r="CS9" s="116"/>
+      <c r="CT9" s="116"/>
+      <c r="CU9" s="116"/>
+      <c r="CV9" s="116"/>
+      <c r="CW9" s="117"/>
+    </row>
+    <row r="10" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="135"/>
+      <c r="B10" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="119" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="115"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="116"/>
+      <c r="R10" s="116"/>
+      <c r="S10" s="116"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="116"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="116"/>
+      <c r="Y10" s="116"/>
+      <c r="Z10" s="116"/>
+      <c r="AA10" s="116"/>
+      <c r="AB10" s="116"/>
+      <c r="AC10" s="116"/>
+      <c r="AD10" s="116"/>
+      <c r="AE10" s="116"/>
+      <c r="AF10" s="116"/>
+      <c r="AG10" s="116"/>
+      <c r="AH10" s="116"/>
+      <c r="AI10" s="116"/>
+      <c r="AJ10" s="116"/>
+      <c r="AK10" s="116"/>
+      <c r="AL10" s="116"/>
+      <c r="AM10" s="116"/>
+      <c r="AN10" s="116"/>
+      <c r="AO10" s="116"/>
+      <c r="AP10" s="116"/>
+      <c r="AQ10" s="116"/>
+      <c r="AR10" s="116"/>
+      <c r="AS10" s="116"/>
+      <c r="AT10" s="116"/>
+      <c r="AU10" s="116"/>
+      <c r="AV10" s="116"/>
+      <c r="AW10" s="116"/>
+      <c r="AX10" s="116"/>
+      <c r="AY10" s="116"/>
+      <c r="AZ10" s="116"/>
+      <c r="BA10" s="116"/>
+      <c r="BB10" s="116"/>
+      <c r="BC10" s="116"/>
+      <c r="BD10" s="116"/>
+      <c r="BE10" s="116"/>
+      <c r="BF10" s="116"/>
+      <c r="BG10" s="116"/>
+      <c r="BH10" s="116"/>
+      <c r="BI10" s="116"/>
+      <c r="BJ10" s="116"/>
+      <c r="BK10" s="116"/>
+      <c r="BL10" s="116"/>
+      <c r="BM10" s="116"/>
+      <c r="BN10" s="116"/>
+      <c r="BO10" s="116"/>
+      <c r="BP10" s="116"/>
+      <c r="BQ10" s="116"/>
+      <c r="BR10" s="116"/>
+      <c r="BS10" s="116"/>
+      <c r="BT10" s="116"/>
+      <c r="BU10" s="116"/>
+      <c r="BV10" s="116"/>
+      <c r="BW10" s="116"/>
+      <c r="BX10" s="116"/>
+      <c r="BY10" s="116"/>
+      <c r="BZ10" s="116"/>
+      <c r="CA10" s="116"/>
+      <c r="CB10" s="116"/>
+      <c r="CC10" s="116"/>
+      <c r="CD10" s="116"/>
+      <c r="CE10" s="116"/>
+      <c r="CF10" s="116"/>
+      <c r="CG10" s="116"/>
+      <c r="CH10" s="116"/>
+      <c r="CI10" s="116"/>
+      <c r="CJ10" s="116"/>
+      <c r="CK10" s="116"/>
+      <c r="CL10" s="116"/>
+      <c r="CM10" s="116"/>
+      <c r="CN10" s="116"/>
+      <c r="CO10" s="116"/>
+      <c r="CP10" s="116"/>
+      <c r="CQ10" s="116"/>
+      <c r="CR10" s="116"/>
+      <c r="CS10" s="116"/>
+      <c r="CT10" s="116"/>
+      <c r="CU10" s="116"/>
+      <c r="CV10" s="116"/>
+      <c r="CW10" s="117"/>
+    </row>
+    <row r="11" spans="1:101" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="137"/>
+      <c r="B11" s="120" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="121"/>
+      <c r="D11" s="122" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="115"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="116"/>
+      <c r="M11" s="116"/>
+      <c r="N11" s="116"/>
+      <c r="O11" s="116"/>
+      <c r="P11" s="116"/>
+      <c r="Q11" s="116"/>
+      <c r="R11" s="116"/>
+      <c r="S11" s="116"/>
+      <c r="T11" s="116"/>
+      <c r="U11" s="116"/>
+      <c r="V11" s="116"/>
+      <c r="W11" s="116"/>
+      <c r="X11" s="116"/>
+      <c r="Y11" s="116"/>
+      <c r="Z11" s="116"/>
+      <c r="AA11" s="116"/>
+      <c r="AB11" s="116"/>
+      <c r="AC11" s="116"/>
+      <c r="AD11" s="116"/>
+      <c r="AE11" s="116"/>
+      <c r="AF11" s="116"/>
+      <c r="AG11" s="116"/>
+      <c r="AH11" s="116"/>
+      <c r="AI11" s="116"/>
+      <c r="AJ11" s="116"/>
+      <c r="AK11" s="116"/>
+      <c r="AL11" s="116"/>
+      <c r="AM11" s="116"/>
+      <c r="AN11" s="116"/>
+      <c r="AO11" s="116"/>
+      <c r="AP11" s="116"/>
+      <c r="AQ11" s="116"/>
+      <c r="AR11" s="116"/>
+      <c r="AS11" s="116"/>
+      <c r="AT11" s="116"/>
+      <c r="AU11" s="116"/>
+      <c r="AV11" s="116"/>
+      <c r="AW11" s="116"/>
+      <c r="AX11" s="116"/>
+      <c r="AY11" s="116"/>
+      <c r="AZ11" s="116"/>
+      <c r="BA11" s="116"/>
+      <c r="BB11" s="116"/>
+      <c r="BC11" s="116"/>
+      <c r="BD11" s="116"/>
+      <c r="BE11" s="116"/>
+      <c r="BF11" s="116"/>
+      <c r="BG11" s="116"/>
+      <c r="BH11" s="116"/>
+      <c r="BI11" s="116"/>
+      <c r="BJ11" s="116"/>
+      <c r="BK11" s="116"/>
+      <c r="BL11" s="116"/>
+      <c r="BM11" s="116"/>
+      <c r="BN11" s="116"/>
+      <c r="BO11" s="116"/>
+      <c r="BP11" s="116"/>
+      <c r="BQ11" s="116"/>
+      <c r="BR11" s="116"/>
+      <c r="BS11" s="116"/>
+      <c r="BT11" s="116"/>
+      <c r="BU11" s="116"/>
+      <c r="BV11" s="116"/>
+      <c r="BW11" s="116"/>
+      <c r="BX11" s="116"/>
+      <c r="BY11" s="116"/>
+      <c r="BZ11" s="116"/>
+      <c r="CA11" s="116"/>
+      <c r="CB11" s="116"/>
+      <c r="CC11" s="116"/>
+      <c r="CD11" s="116"/>
+      <c r="CE11" s="116"/>
+      <c r="CF11" s="116"/>
+      <c r="CG11" s="116"/>
+      <c r="CH11" s="116"/>
+      <c r="CI11" s="116"/>
+      <c r="CJ11" s="116"/>
+      <c r="CK11" s="116"/>
+      <c r="CL11" s="116"/>
+      <c r="CM11" s="116"/>
+      <c r="CN11" s="116"/>
+      <c r="CO11" s="116"/>
+      <c r="CP11" s="116"/>
+      <c r="CQ11" s="116"/>
+      <c r="CR11" s="116"/>
+      <c r="CS11" s="116"/>
+      <c r="CT11" s="116"/>
+      <c r="CU11" s="116"/>
+      <c r="CV11" s="116"/>
+      <c r="CW11" s="117"/>
+    </row>
+    <row r="12" spans="1:101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="132" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="124" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="114">
+        <v>187</v>
+      </c>
+      <c r="F12" s="115"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="116"/>
+      <c r="L12" s="116"/>
+      <c r="M12" s="116"/>
+      <c r="N12" s="116"/>
+      <c r="O12" s="116"/>
+      <c r="P12" s="116"/>
+      <c r="Q12" s="116"/>
+      <c r="R12" s="116"/>
+      <c r="S12" s="116"/>
+      <c r="T12" s="116"/>
+      <c r="U12" s="116"/>
+      <c r="V12" s="116"/>
+      <c r="W12" s="116"/>
+      <c r="X12" s="116"/>
+      <c r="Y12" s="116"/>
+      <c r="Z12" s="116"/>
+      <c r="AA12" s="116"/>
+      <c r="AB12" s="116"/>
+      <c r="AC12" s="116"/>
+      <c r="AD12" s="116"/>
+      <c r="AE12" s="116"/>
+      <c r="AF12" s="116"/>
+      <c r="AG12" s="116"/>
+      <c r="AH12" s="116"/>
+      <c r="AI12" s="116"/>
+      <c r="AJ12" s="116"/>
+      <c r="AK12" s="116"/>
+      <c r="AL12" s="116"/>
+      <c r="AM12" s="116"/>
+      <c r="AN12" s="116"/>
+      <c r="AO12" s="116"/>
+      <c r="AP12" s="116"/>
+      <c r="AQ12" s="116"/>
+      <c r="AR12" s="116"/>
+      <c r="AS12" s="116"/>
+      <c r="AT12" s="116"/>
+      <c r="AU12" s="116"/>
+      <c r="AV12" s="116"/>
+      <c r="AW12" s="116"/>
+      <c r="AX12" s="116"/>
+      <c r="AY12" s="116"/>
+      <c r="AZ12" s="116"/>
+      <c r="BA12" s="116"/>
+      <c r="BB12" s="116"/>
+      <c r="BC12" s="116"/>
+      <c r="BD12" s="116"/>
+      <c r="BE12" s="116"/>
+      <c r="BF12" s="116"/>
+      <c r="BG12" s="116"/>
+      <c r="BH12" s="116"/>
+      <c r="BI12" s="116"/>
+      <c r="BJ12" s="116"/>
+      <c r="BK12" s="116"/>
+      <c r="BL12" s="116"/>
+      <c r="BM12" s="116"/>
+      <c r="BN12" s="116"/>
+      <c r="BO12" s="116"/>
+      <c r="BP12" s="116"/>
+      <c r="BQ12" s="116"/>
+      <c r="BR12" s="116"/>
+      <c r="BS12" s="116"/>
+      <c r="BT12" s="116"/>
+      <c r="BU12" s="116"/>
+      <c r="BV12" s="116"/>
+      <c r="BW12" s="116"/>
+      <c r="BX12" s="116"/>
+      <c r="BY12" s="116"/>
+      <c r="BZ12" s="116"/>
+      <c r="CA12" s="116"/>
+      <c r="CB12" s="116"/>
+      <c r="CC12" s="116"/>
+      <c r="CD12" s="116"/>
+      <c r="CE12" s="116"/>
+      <c r="CF12" s="116"/>
+      <c r="CG12" s="116"/>
+      <c r="CH12" s="116"/>
+      <c r="CI12" s="116"/>
+      <c r="CJ12" s="116"/>
+      <c r="CK12" s="116"/>
+      <c r="CL12" s="116"/>
+      <c r="CM12" s="116"/>
+      <c r="CN12" s="116"/>
+      <c r="CO12" s="116"/>
+      <c r="CP12" s="116"/>
+      <c r="CQ12" s="116"/>
+      <c r="CR12" s="116"/>
+      <c r="CS12" s="116"/>
+      <c r="CT12" s="116"/>
+      <c r="CU12" s="116"/>
+      <c r="CV12" s="116"/>
+      <c r="CW12" s="117"/>
+    </row>
+    <row r="13" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A13" s="135"/>
+      <c r="B13" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="39">
+        <v>2012309</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="126">
+        <v>162</v>
+      </c>
+      <c r="F13" s="115"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="116"/>
+      <c r="M13" s="116"/>
+      <c r="N13" s="116"/>
+      <c r="O13" s="116"/>
+      <c r="P13" s="116"/>
+      <c r="Q13" s="116"/>
+      <c r="R13" s="116"/>
+      <c r="S13" s="116"/>
+      <c r="T13" s="116"/>
+      <c r="U13" s="116"/>
+      <c r="V13" s="116"/>
+      <c r="W13" s="116"/>
+      <c r="X13" s="116"/>
+      <c r="Y13" s="116"/>
+      <c r="Z13" s="116"/>
+      <c r="AA13" s="116"/>
+      <c r="AB13" s="116"/>
+      <c r="AC13" s="116"/>
+      <c r="AD13" s="116"/>
+      <c r="AE13" s="116"/>
+      <c r="AF13" s="116"/>
+      <c r="AG13" s="116"/>
+      <c r="AH13" s="116"/>
+      <c r="AI13" s="116"/>
+      <c r="AJ13" s="116"/>
+      <c r="AK13" s="116"/>
+      <c r="AL13" s="116"/>
+      <c r="AM13" s="116"/>
+      <c r="AN13" s="116"/>
+      <c r="AO13" s="116"/>
+      <c r="AP13" s="116"/>
+      <c r="AQ13" s="116"/>
+      <c r="AR13" s="116"/>
+      <c r="AS13" s="116"/>
+      <c r="AT13" s="116"/>
+      <c r="AU13" s="116"/>
+      <c r="AV13" s="116"/>
+      <c r="AW13" s="116"/>
+      <c r="AX13" s="116"/>
+      <c r="AY13" s="116"/>
+      <c r="AZ13" s="116"/>
+      <c r="BA13" s="116"/>
+      <c r="BB13" s="116"/>
+      <c r="BC13" s="116"/>
+      <c r="BD13" s="116"/>
+      <c r="BE13" s="116"/>
+      <c r="BF13" s="116"/>
+      <c r="BG13" s="116"/>
+      <c r="BH13" s="116"/>
+      <c r="BI13" s="116"/>
+      <c r="BJ13" s="116"/>
+      <c r="BK13" s="116"/>
+      <c r="BL13" s="116"/>
+      <c r="BM13" s="116"/>
+      <c r="BN13" s="116"/>
+      <c r="BO13" s="116"/>
+      <c r="BP13" s="116"/>
+      <c r="BQ13" s="116"/>
+      <c r="BR13" s="116"/>
+      <c r="BS13" s="116"/>
+      <c r="BT13" s="116"/>
+      <c r="BU13" s="116"/>
+      <c r="BV13" s="116"/>
+      <c r="BW13" s="116"/>
+      <c r="BX13" s="116"/>
+      <c r="BY13" s="116"/>
+      <c r="BZ13" s="116"/>
+      <c r="CA13" s="116"/>
+      <c r="CB13" s="116"/>
+      <c r="CC13" s="116"/>
+      <c r="CD13" s="116"/>
+      <c r="CE13" s="116"/>
+      <c r="CF13" s="116"/>
+      <c r="CG13" s="116"/>
+      <c r="CH13" s="116"/>
+      <c r="CI13" s="116"/>
+      <c r="CJ13" s="116"/>
+      <c r="CK13" s="116"/>
+      <c r="CL13" s="116"/>
+      <c r="CM13" s="116"/>
+      <c r="CN13" s="116"/>
+      <c r="CO13" s="116"/>
+      <c r="CP13" s="116"/>
+      <c r="CQ13" s="116"/>
+      <c r="CR13" s="116"/>
+      <c r="CS13" s="116"/>
+      <c r="CT13" s="116"/>
+      <c r="CU13" s="116"/>
+      <c r="CV13" s="116"/>
+      <c r="CW13" s="117"/>
+    </row>
+    <row r="14" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A14" s="135"/>
+      <c r="B14" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="127">
+        <v>2011200</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="126">
+        <v>233</v>
+      </c>
+      <c r="F14" s="115"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="116"/>
+      <c r="L14" s="116"/>
+      <c r="M14" s="116"/>
+      <c r="N14" s="116"/>
+      <c r="O14" s="116"/>
+      <c r="P14" s="116"/>
+      <c r="Q14" s="116"/>
+      <c r="R14" s="116"/>
+      <c r="S14" s="116"/>
+      <c r="T14" s="116"/>
+      <c r="U14" s="116"/>
+      <c r="V14" s="116"/>
+      <c r="W14" s="116"/>
+      <c r="X14" s="116"/>
+      <c r="Y14" s="116"/>
+      <c r="Z14" s="116"/>
+      <c r="AA14" s="116"/>
+      <c r="AB14" s="116"/>
+      <c r="AC14" s="116"/>
+      <c r="AD14" s="116"/>
+      <c r="AE14" s="116"/>
+      <c r="AF14" s="116"/>
+      <c r="AG14" s="116"/>
+      <c r="AH14" s="116"/>
+      <c r="AI14" s="116"/>
+      <c r="AJ14" s="116"/>
+      <c r="AK14" s="116"/>
+      <c r="AL14" s="116"/>
+      <c r="AM14" s="116"/>
+      <c r="AN14" s="116"/>
+      <c r="AO14" s="116"/>
+      <c r="AP14" s="116"/>
+      <c r="AQ14" s="116"/>
+      <c r="AR14" s="116"/>
+      <c r="AS14" s="116"/>
+      <c r="AT14" s="116"/>
+      <c r="AU14" s="116"/>
+      <c r="AV14" s="116"/>
+      <c r="AW14" s="116"/>
+      <c r="AX14" s="116"/>
+      <c r="AY14" s="116"/>
+      <c r="AZ14" s="116"/>
+      <c r="BA14" s="116"/>
+      <c r="BB14" s="116"/>
+      <c r="BC14" s="116"/>
+      <c r="BD14" s="116"/>
+      <c r="BE14" s="116"/>
+      <c r="BF14" s="116"/>
+      <c r="BG14" s="116"/>
+      <c r="BH14" s="116"/>
+      <c r="BI14" s="116"/>
+      <c r="BJ14" s="116"/>
+      <c r="BK14" s="116"/>
+      <c r="BL14" s="116"/>
+      <c r="BM14" s="116"/>
+      <c r="BN14" s="116"/>
+      <c r="BO14" s="116"/>
+      <c r="BP14" s="116"/>
+      <c r="BQ14" s="116"/>
+      <c r="BR14" s="116"/>
+      <c r="BS14" s="116"/>
+      <c r="BT14" s="116"/>
+      <c r="BU14" s="116"/>
+      <c r="BV14" s="116"/>
+      <c r="BW14" s="116"/>
+      <c r="BX14" s="116"/>
+      <c r="BY14" s="116"/>
+      <c r="BZ14" s="116"/>
+      <c r="CA14" s="116"/>
+      <c r="CB14" s="116"/>
+      <c r="CC14" s="116"/>
+      <c r="CD14" s="116"/>
+      <c r="CE14" s="116"/>
+      <c r="CF14" s="116"/>
+      <c r="CG14" s="116"/>
+      <c r="CH14" s="116"/>
+      <c r="CI14" s="116"/>
+      <c r="CJ14" s="116"/>
+      <c r="CK14" s="116"/>
+      <c r="CL14" s="116"/>
+      <c r="CM14" s="116"/>
+      <c r="CN14" s="116"/>
+      <c r="CO14" s="116"/>
+      <c r="CP14" s="116"/>
+      <c r="CQ14" s="116"/>
+      <c r="CR14" s="116"/>
+      <c r="CS14" s="116"/>
+      <c r="CT14" s="116"/>
+      <c r="CU14" s="116"/>
+      <c r="CV14" s="116"/>
+      <c r="CW14" s="117"/>
+    </row>
+    <row r="15" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A15" s="135"/>
+      <c r="B15" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="90">
+        <v>2012311</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="128">
+        <v>334</v>
+      </c>
+      <c r="F15" s="115"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="116"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="116"/>
+      <c r="M15" s="116"/>
+      <c r="N15" s="116"/>
+      <c r="O15" s="116"/>
+      <c r="P15" s="116"/>
+      <c r="Q15" s="116"/>
+      <c r="R15" s="116"/>
+      <c r="S15" s="116"/>
+      <c r="T15" s="116"/>
+      <c r="U15" s="116"/>
+      <c r="V15" s="116"/>
+      <c r="W15" s="116"/>
+      <c r="X15" s="116"/>
+      <c r="Y15" s="116"/>
+      <c r="Z15" s="116"/>
+      <c r="AA15" s="116"/>
+      <c r="AB15" s="116"/>
+      <c r="AC15" s="116"/>
+      <c r="AD15" s="116"/>
+      <c r="AE15" s="116"/>
+      <c r="AF15" s="116"/>
+      <c r="AG15" s="116"/>
+      <c r="AH15" s="116"/>
+      <c r="AI15" s="116"/>
+      <c r="AJ15" s="116"/>
+      <c r="AK15" s="116"/>
+      <c r="AL15" s="116"/>
+      <c r="AM15" s="116"/>
+      <c r="AN15" s="116"/>
+      <c r="AO15" s="116"/>
+      <c r="AP15" s="116"/>
+      <c r="AQ15" s="116"/>
+      <c r="AR15" s="116"/>
+      <c r="AS15" s="116"/>
+      <c r="AT15" s="116"/>
+      <c r="AU15" s="116"/>
+      <c r="AV15" s="116"/>
+      <c r="AW15" s="116"/>
+      <c r="AX15" s="116"/>
+      <c r="AY15" s="116"/>
+      <c r="AZ15" s="116"/>
+      <c r="BA15" s="116"/>
+      <c r="BB15" s="116"/>
+      <c r="BC15" s="116"/>
+      <c r="BD15" s="116"/>
+      <c r="BE15" s="116"/>
+      <c r="BF15" s="116"/>
+      <c r="BG15" s="116"/>
+      <c r="BH15" s="116"/>
+      <c r="BI15" s="116"/>
+      <c r="BJ15" s="116"/>
+      <c r="BK15" s="116"/>
+      <c r="BL15" s="116"/>
+      <c r="BM15" s="116"/>
+      <c r="BN15" s="116"/>
+      <c r="BO15" s="116"/>
+      <c r="BP15" s="116"/>
+      <c r="BQ15" s="116"/>
+      <c r="BR15" s="116"/>
+      <c r="BS15" s="116"/>
+      <c r="BT15" s="116"/>
+      <c r="BU15" s="116"/>
+      <c r="BV15" s="116"/>
+      <c r="BW15" s="116"/>
+      <c r="BX15" s="116"/>
+      <c r="BY15" s="116"/>
+      <c r="BZ15" s="116"/>
+      <c r="CA15" s="116"/>
+      <c r="CB15" s="116"/>
+      <c r="CC15" s="116"/>
+      <c r="CD15" s="116"/>
+      <c r="CE15" s="116"/>
+      <c r="CF15" s="116"/>
+      <c r="CG15" s="116"/>
+      <c r="CH15" s="116"/>
+      <c r="CI15" s="116"/>
+      <c r="CJ15" s="116"/>
+      <c r="CK15" s="116"/>
+      <c r="CL15" s="116"/>
+      <c r="CM15" s="116"/>
+      <c r="CN15" s="116"/>
+      <c r="CO15" s="116"/>
+      <c r="CP15" s="116"/>
+      <c r="CQ15" s="116"/>
+      <c r="CR15" s="116"/>
+      <c r="CS15" s="116"/>
+      <c r="CT15" s="116"/>
+      <c r="CU15" s="116"/>
+      <c r="CV15" s="116"/>
+      <c r="CW15" s="117"/>
+    </row>
+    <row r="16" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A16" s="77"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="80"/>
+      <c r="Q16" s="80"/>
+      <c r="R16" s="80"/>
+      <c r="S16" s="80"/>
+      <c r="T16" s="80"/>
+      <c r="U16" s="80"/>
+      <c r="V16" s="80"/>
+      <c r="W16" s="80"/>
+      <c r="X16" s="80"/>
+      <c r="Y16" s="80"/>
+      <c r="Z16" s="80"/>
+      <c r="AA16" s="80"/>
+      <c r="AB16" s="80"/>
+      <c r="AC16" s="80"/>
+      <c r="AD16" s="80"/>
+      <c r="AE16" s="80"/>
+      <c r="AF16" s="80"/>
+      <c r="AG16" s="80"/>
+      <c r="AH16" s="80"/>
+      <c r="AI16" s="80"/>
+      <c r="AJ16" s="80"/>
+      <c r="AK16" s="80"/>
+      <c r="AL16" s="80"/>
+      <c r="AM16" s="29"/>
+      <c r="AN16" s="29"/>
+      <c r="AO16" s="29"/>
+      <c r="AP16" s="29"/>
+      <c r="AQ16" s="29"/>
+      <c r="AR16" s="29"/>
+      <c r="AS16" s="29"/>
+      <c r="AT16" s="29"/>
+      <c r="AU16" s="29"/>
+      <c r="AV16" s="29"/>
+      <c r="AW16" s="29"/>
+      <c r="AX16" s="29"/>
+      <c r="AY16" s="29"/>
+      <c r="AZ16" s="29"/>
+      <c r="BA16" s="29"/>
+    </row>
+    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A17" s="77"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="129"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="80"/>
+      <c r="Q17" s="80"/>
+      <c r="R17" s="80"/>
+      <c r="S17" s="80"/>
+      <c r="T17" s="80"/>
+      <c r="U17" s="80"/>
+      <c r="V17" s="80"/>
+      <c r="W17" s="80"/>
+      <c r="X17" s="80"/>
+      <c r="Y17" s="80"/>
+      <c r="Z17" s="80"/>
+      <c r="AA17" s="80"/>
+      <c r="AB17" s="80"/>
+      <c r="AC17" s="80"/>
+      <c r="AD17" s="80"/>
+      <c r="AE17" s="80"/>
+      <c r="AF17" s="80"/>
+      <c r="AG17" s="80"/>
+      <c r="AH17" s="80"/>
+      <c r="AI17" s="80"/>
+      <c r="AJ17" s="80"/>
+      <c r="AK17" s="80"/>
+      <c r="AL17" s="80"/>
+      <c r="AM17" s="29"/>
+      <c r="AN17" s="29"/>
+      <c r="AO17" s="29"/>
+      <c r="AP17" s="29"/>
+      <c r="AQ17" s="29"/>
+      <c r="AR17" s="29"/>
+      <c r="AS17" s="29"/>
+      <c r="AT17" s="29"/>
+      <c r="AU17" s="29"/>
+      <c r="AV17" s="29"/>
+      <c r="AW17" s="29"/>
+      <c r="AX17" s="29"/>
+      <c r="AY17" s="29"/>
+      <c r="AZ17" s="29"/>
+      <c r="BA17" s="29"/>
+    </row>
+    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A18" s="77"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="80"/>
+      <c r="Q18" s="80"/>
+      <c r="R18" s="80"/>
+      <c r="S18" s="80"/>
+      <c r="T18" s="80"/>
+      <c r="U18" s="80"/>
+      <c r="V18" s="80"/>
+      <c r="W18" s="80"/>
+      <c r="X18" s="80"/>
+      <c r="Y18" s="80"/>
+      <c r="Z18" s="80"/>
+      <c r="AA18" s="80"/>
+      <c r="AB18" s="80"/>
+      <c r="AC18" s="80"/>
+      <c r="AD18" s="80"/>
+      <c r="AE18" s="80"/>
+      <c r="AF18" s="80"/>
+      <c r="AG18" s="80"/>
+      <c r="AH18" s="80"/>
+      <c r="AI18" s="80"/>
+      <c r="AJ18" s="80"/>
+      <c r="AK18" s="80"/>
+      <c r="AL18" s="80"/>
+      <c r="AM18" s="29"/>
+      <c r="AN18" s="29"/>
+      <c r="AO18" s="29"/>
+      <c r="AP18" s="29"/>
+      <c r="AQ18" s="29"/>
+      <c r="AR18" s="29"/>
+      <c r="AS18" s="29"/>
+      <c r="AT18" s="29"/>
+      <c r="AU18" s="29"/>
+      <c r="AV18" s="29"/>
+      <c r="AW18" s="29"/>
+      <c r="AX18" s="29"/>
+      <c r="AY18" s="29"/>
+      <c r="AZ18" s="29"/>
+      <c r="BA18" s="29"/>
+    </row>
+    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A19" s="77"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="80"/>
+      <c r="P19" s="80"/>
+      <c r="Q19" s="80"/>
+      <c r="R19" s="80"/>
+      <c r="S19" s="80"/>
+      <c r="T19" s="80"/>
+      <c r="U19" s="80"/>
+      <c r="V19" s="80"/>
+      <c r="W19" s="80"/>
+      <c r="X19" s="80"/>
+      <c r="Y19" s="80"/>
+      <c r="Z19" s="80"/>
+      <c r="AA19" s="80"/>
+      <c r="AB19" s="80"/>
+      <c r="AC19" s="80"/>
+      <c r="AD19" s="80"/>
+      <c r="AE19" s="80"/>
+      <c r="AF19" s="80"/>
+      <c r="AG19" s="80"/>
+      <c r="AH19" s="80"/>
+      <c r="AI19" s="80"/>
+      <c r="AJ19" s="80"/>
+      <c r="AK19" s="80"/>
+      <c r="AL19" s="80"/>
+      <c r="AM19" s="29"/>
+      <c r="AN19" s="29"/>
+      <c r="AO19" s="29"/>
+      <c r="AP19" s="29"/>
+      <c r="AQ19" s="29"/>
+      <c r="AR19" s="29"/>
+      <c r="AS19" s="29"/>
+      <c r="AT19" s="29"/>
+      <c r="AU19" s="29"/>
+      <c r="AV19" s="29"/>
+      <c r="AW19" s="29"/>
+      <c r="AX19" s="29"/>
+      <c r="AY19" s="29"/>
+      <c r="AZ19" s="29"/>
+      <c r="BA19" s="29"/>
+    </row>
+    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A20" s="77"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
+      <c r="P20" s="80"/>
+      <c r="Q20" s="80"/>
+      <c r="R20" s="80"/>
+      <c r="S20" s="80"/>
+      <c r="T20" s="80"/>
+      <c r="U20" s="80"/>
+      <c r="V20" s="80"/>
+      <c r="W20" s="80"/>
+      <c r="X20" s="80"/>
+      <c r="Y20" s="80"/>
+      <c r="Z20" s="80"/>
+      <c r="AA20" s="80"/>
+      <c r="AB20" s="80"/>
+      <c r="AC20" s="80"/>
+      <c r="AD20" s="80"/>
+      <c r="AE20" s="80"/>
+      <c r="AF20" s="80"/>
+      <c r="AG20" s="80"/>
+      <c r="AH20" s="80"/>
+      <c r="AI20" s="80"/>
+      <c r="AJ20" s="80"/>
+      <c r="AK20" s="80"/>
+      <c r="AL20" s="80"/>
+      <c r="AM20" s="29"/>
+      <c r="AN20" s="29"/>
+      <c r="AO20" s="29"/>
+      <c r="AP20" s="29"/>
+      <c r="AQ20" s="29"/>
+      <c r="AR20" s="29"/>
+      <c r="AS20" s="29"/>
+      <c r="AT20" s="29"/>
+      <c r="AU20" s="29"/>
+      <c r="AV20" s="29"/>
+      <c r="AW20" s="29"/>
+      <c r="AX20" s="29"/>
+      <c r="AY20" s="29"/>
+      <c r="AZ20" s="29"/>
+      <c r="BA20" s="29"/>
+    </row>
+    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A21" s="77"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="80"/>
+      <c r="P21" s="80"/>
+      <c r="Q21" s="80"/>
+      <c r="R21" s="80"/>
+      <c r="S21" s="80"/>
+      <c r="T21" s="80"/>
+      <c r="U21" s="80"/>
+      <c r="V21" s="80"/>
+      <c r="W21" s="80"/>
+      <c r="X21" s="80"/>
+      <c r="Y21" s="80"/>
+      <c r="Z21" s="80"/>
+      <c r="AA21" s="80"/>
+      <c r="AB21" s="80"/>
+      <c r="AC21" s="80"/>
+      <c r="AD21" s="80"/>
+      <c r="AE21" s="80"/>
+      <c r="AF21" s="80"/>
+      <c r="AG21" s="80"/>
+      <c r="AH21" s="80"/>
+      <c r="AI21" s="80"/>
+      <c r="AJ21" s="80"/>
+      <c r="AK21" s="80"/>
+      <c r="AL21" s="80"/>
+      <c r="AM21" s="29"/>
+      <c r="AN21" s="29"/>
+      <c r="AO21" s="29"/>
+      <c r="AP21" s="29"/>
+      <c r="AQ21" s="29"/>
+      <c r="AR21" s="29"/>
+      <c r="AS21" s="29"/>
+      <c r="AT21" s="29"/>
+      <c r="AU21" s="29"/>
+      <c r="AV21" s="29"/>
+      <c r="AW21" s="29"/>
+      <c r="AX21" s="29"/>
+      <c r="AY21" s="29"/>
+      <c r="AZ21" s="29"/>
+      <c r="BA21" s="29"/>
+    </row>
+    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="M23" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="M25" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="M26" s="32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="F2:BA2"/>
     <mergeCell ref="F3:I3"/>
@@ -11072,6 +12645,24 @@
     <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="AD3:AG3"/>
     <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="BJ3:BM3"/>
+    <mergeCell ref="BN3:BQ3"/>
+    <mergeCell ref="BR3:BU3"/>
+    <mergeCell ref="BV3:BY3"/>
+    <mergeCell ref="AL3:AO3"/>
+    <mergeCell ref="AP3:AS3"/>
+    <mergeCell ref="AT3:AW3"/>
+    <mergeCell ref="AX3:BA3"/>
+    <mergeCell ref="BB3:BE3"/>
+    <mergeCell ref="BF3:BI3"/>
+    <mergeCell ref="CH3:CK3"/>
+    <mergeCell ref="CL3:CO3"/>
+    <mergeCell ref="CP3:CS3"/>
+    <mergeCell ref="CT3:CW3"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="BZ3:CC3"/>
+    <mergeCell ref="CD3:CG3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>

--- a/sourse.xlsx
+++ b/sourse.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1080" windowWidth="24915" windowHeight="11625" tabRatio="892" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="1080" windowWidth="24915" windowHeight="11625" tabRatio="892" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Комбайн" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="17.11" sheetId="73" r:id="rId3"/>
     <sheet name="19.11" sheetId="72" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525" refMode="R1C1"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -3182,7 +3182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="90">
   <si>
     <t>Держ №</t>
   </si>
@@ -3550,7 +3550,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3623,8 +3623,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="42">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -4125,19 +4130,32 @@
     </border>
     <border>
       <left/>
-      <right style="hair">
+      <right/>
+      <top/>
+      <bottom style="hair">
         <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4146,7 +4164,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4374,10 +4392,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4391,23 +4426,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4418,7 +4450,13 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4430,30 +4468,11 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -4777,24 +4796,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="136" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7502,63 +7521,63 @@
       </c>
     </row>
     <row r="2" spans="1:53" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="139"/>
+      <c r="B2" s="137"/>
       <c r="C2" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="140" t="s">
+      <c r="F2" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="140"/>
-      <c r="T2" s="140"/>
-      <c r="U2" s="140"/>
-      <c r="V2" s="140"/>
-      <c r="W2" s="140"/>
-      <c r="X2" s="140"/>
-      <c r="Y2" s="140"/>
-      <c r="Z2" s="140"/>
-      <c r="AA2" s="140"/>
-      <c r="AB2" s="140"/>
-      <c r="AC2" s="140"/>
-      <c r="AD2" s="140"/>
-      <c r="AE2" s="140"/>
-      <c r="AF2" s="140"/>
-      <c r="AG2" s="140"/>
-      <c r="AH2" s="140"/>
-      <c r="AI2" s="140"/>
-      <c r="AJ2" s="140"/>
-      <c r="AK2" s="140"/>
-      <c r="AL2" s="140"/>
-      <c r="AM2" s="140"/>
-      <c r="AN2" s="140"/>
-      <c r="AO2" s="140"/>
-      <c r="AP2" s="140"/>
-      <c r="AQ2" s="140"/>
-      <c r="AR2" s="140"/>
-      <c r="AS2" s="140"/>
-      <c r="AT2" s="140"/>
-      <c r="AU2" s="140"/>
-      <c r="AV2" s="140"/>
-      <c r="AW2" s="140"/>
-      <c r="AX2" s="140"/>
-      <c r="AY2" s="140"/>
-      <c r="AZ2" s="140"/>
-      <c r="BA2" s="140"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="138"/>
+      <c r="T2" s="138"/>
+      <c r="U2" s="138"/>
+      <c r="V2" s="138"/>
+      <c r="W2" s="138"/>
+      <c r="X2" s="138"/>
+      <c r="Y2" s="138"/>
+      <c r="Z2" s="138"/>
+      <c r="AA2" s="138"/>
+      <c r="AB2" s="138"/>
+      <c r="AC2" s="138"/>
+      <c r="AD2" s="138"/>
+      <c r="AE2" s="138"/>
+      <c r="AF2" s="138"/>
+      <c r="AG2" s="138"/>
+      <c r="AH2" s="138"/>
+      <c r="AI2" s="138"/>
+      <c r="AJ2" s="138"/>
+      <c r="AK2" s="138"/>
+      <c r="AL2" s="138"/>
+      <c r="AM2" s="138"/>
+      <c r="AN2" s="138"/>
+      <c r="AO2" s="138"/>
+      <c r="AP2" s="138"/>
+      <c r="AQ2" s="138"/>
+      <c r="AR2" s="138"/>
+      <c r="AS2" s="138"/>
+      <c r="AT2" s="138"/>
+      <c r="AU2" s="138"/>
+      <c r="AV2" s="138"/>
+      <c r="AW2" s="138"/>
+      <c r="AX2" s="138"/>
+      <c r="AY2" s="138"/>
+      <c r="AZ2" s="138"/>
+      <c r="BA2" s="138"/>
     </row>
     <row r="3" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
@@ -7576,102 +7595,102 @@
       <c r="E3" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="136">
+      <c r="F3" s="139">
         <v>7</v>
       </c>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136">
+      <c r="G3" s="139"/>
+      <c r="H3" s="139">
         <v>8</v>
       </c>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136">
+      <c r="I3" s="139"/>
+      <c r="J3" s="139">
         <v>9</v>
       </c>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136">
+      <c r="K3" s="139"/>
+      <c r="L3" s="139">
         <v>10</v>
       </c>
-      <c r="M3" s="136"/>
-      <c r="N3" s="136">
+      <c r="M3" s="139"/>
+      <c r="N3" s="139">
         <v>11</v>
       </c>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136">
+      <c r="O3" s="139"/>
+      <c r="P3" s="139">
         <v>12</v>
       </c>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136">
+      <c r="Q3" s="139"/>
+      <c r="R3" s="139">
         <v>13</v>
       </c>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136">
+      <c r="S3" s="139"/>
+      <c r="T3" s="139">
         <v>14</v>
       </c>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136">
+      <c r="U3" s="139"/>
+      <c r="V3" s="139">
         <v>15</v>
       </c>
-      <c r="W3" s="136"/>
-      <c r="X3" s="136">
+      <c r="W3" s="139"/>
+      <c r="X3" s="139">
         <v>16</v>
       </c>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="138">
+      <c r="Y3" s="139"/>
+      <c r="Z3" s="146">
         <v>17</v>
       </c>
-      <c r="AA3" s="138"/>
-      <c r="AB3" s="138">
+      <c r="AA3" s="146"/>
+      <c r="AB3" s="146">
         <v>18</v>
       </c>
-      <c r="AC3" s="138"/>
-      <c r="AD3" s="136">
+      <c r="AC3" s="146"/>
+      <c r="AD3" s="139">
         <v>19</v>
       </c>
-      <c r="AE3" s="136"/>
-      <c r="AF3" s="136">
+      <c r="AE3" s="139"/>
+      <c r="AF3" s="139">
         <v>20</v>
       </c>
-      <c r="AG3" s="136"/>
-      <c r="AH3" s="136">
+      <c r="AG3" s="139"/>
+      <c r="AH3" s="139">
         <v>21</v>
       </c>
-      <c r="AI3" s="136"/>
-      <c r="AJ3" s="136">
+      <c r="AI3" s="139"/>
+      <c r="AJ3" s="139">
         <v>22</v>
       </c>
-      <c r="AK3" s="136"/>
-      <c r="AL3" s="136">
+      <c r="AK3" s="139"/>
+      <c r="AL3" s="139">
         <v>23</v>
       </c>
-      <c r="AM3" s="136"/>
-      <c r="AN3" s="136">
+      <c r="AM3" s="139"/>
+      <c r="AN3" s="139">
         <v>24</v>
       </c>
-      <c r="AO3" s="136"/>
-      <c r="AP3" s="136">
+      <c r="AO3" s="139"/>
+      <c r="AP3" s="139">
         <v>1</v>
       </c>
-      <c r="AQ3" s="136"/>
-      <c r="AR3" s="136">
+      <c r="AQ3" s="139"/>
+      <c r="AR3" s="139">
         <v>2</v>
       </c>
-      <c r="AS3" s="136"/>
-      <c r="AT3" s="136">
+      <c r="AS3" s="139"/>
+      <c r="AT3" s="139">
         <v>3</v>
       </c>
-      <c r="AU3" s="136"/>
-      <c r="AV3" s="136">
+      <c r="AU3" s="139"/>
+      <c r="AV3" s="139">
         <v>4</v>
       </c>
-      <c r="AW3" s="136"/>
-      <c r="AX3" s="136">
+      <c r="AW3" s="139"/>
+      <c r="AX3" s="139">
         <v>5</v>
       </c>
-      <c r="AY3" s="136"/>
-      <c r="AZ3" s="136">
+      <c r="AY3" s="139"/>
+      <c r="AZ3" s="139">
         <v>6</v>
       </c>
-      <c r="BA3" s="141"/>
+      <c r="BA3" s="140"/>
     </row>
     <row r="4" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="94" t="s">
@@ -7731,7 +7750,7 @@
       <c r="BA4" s="97"/>
     </row>
     <row r="5" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="132" t="s">
+      <c r="A5" s="141" t="s">
         <v>72</v>
       </c>
       <c r="B5" s="59" t="s">
@@ -7798,7 +7817,7 @@
       <c r="BA5" s="50"/>
     </row>
     <row r="6" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="135"/>
+      <c r="A6" s="144"/>
       <c r="B6" s="34" t="s">
         <v>62</v>
       </c>
@@ -7865,7 +7884,7 @@
       <c r="BA6" s="51"/>
     </row>
     <row r="7" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="133"/>
+      <c r="A7" s="142"/>
       <c r="B7" s="40" t="s">
         <v>62</v>
       </c>
@@ -7930,7 +7949,7 @@
       <c r="BA7" s="57"/>
     </row>
     <row r="8" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="134" t="s">
+      <c r="A8" s="143" t="s">
         <v>67</v>
       </c>
       <c r="B8" s="38" t="s">
@@ -7997,7 +8016,7 @@
       <c r="BA8" s="74"/>
     </row>
     <row r="9" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="137"/>
+      <c r="A9" s="145"/>
       <c r="B9" s="87" t="s">
         <v>32</v>
       </c>
@@ -8060,7 +8079,7 @@
       <c r="BA9" s="70"/>
     </row>
     <row r="10" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="132" t="s">
+      <c r="A10" s="141" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="59" t="s">
@@ -8125,7 +8144,7 @@
       <c r="BA10" s="50"/>
     </row>
     <row r="11" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="133"/>
+      <c r="A11" s="142"/>
       <c r="B11" s="40" t="s">
         <v>69</v>
       </c>
@@ -8184,7 +8203,7 @@
       <c r="BA11" s="57"/>
     </row>
     <row r="12" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="134" t="s">
+      <c r="A12" s="143" t="s">
         <v>70</v>
       </c>
       <c r="B12" s="58" t="s">
@@ -8253,7 +8272,7 @@
       <c r="BA12" s="71"/>
     </row>
     <row r="13" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="135"/>
+      <c r="A13" s="144"/>
       <c r="B13" s="34" t="s">
         <v>24</v>
       </c>
@@ -8320,7 +8339,7 @@
       <c r="BA13" s="51"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A14" s="135"/>
+      <c r="A14" s="144"/>
       <c r="B14" s="34" t="s">
         <v>24</v>
       </c>
@@ -8385,7 +8404,7 @@
       <c r="BA14" s="51"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A15" s="135"/>
+      <c r="A15" s="144"/>
       <c r="B15" s="34" t="s">
         <v>24</v>
       </c>
@@ -8448,7 +8467,7 @@
       <c r="BA15" s="51"/>
     </row>
     <row r="16" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="135"/>
+      <c r="A16" s="144"/>
       <c r="B16" s="34" t="s">
         <v>45</v>
       </c>
@@ -8509,7 +8528,7 @@
       <c r="BA16" s="51"/>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A17" s="135"/>
+      <c r="A17" s="144"/>
       <c r="B17" s="34" t="s">
         <v>24</v>
       </c>
@@ -8574,7 +8593,7 @@
       <c r="BA17" s="51"/>
     </row>
     <row r="18" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="133"/>
+      <c r="A18" s="142"/>
       <c r="B18" s="40" t="s">
         <v>24</v>
       </c>
@@ -8639,7 +8658,7 @@
       <c r="BA18" s="57"/>
     </row>
     <row r="19" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="134" t="s">
+      <c r="A19" s="143" t="s">
         <v>71</v>
       </c>
       <c r="B19" s="38" t="s">
@@ -8706,7 +8725,7 @@
       <c r="BA19" s="71"/>
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A20" s="135"/>
+      <c r="A20" s="144"/>
       <c r="B20" s="41" t="s">
         <v>32</v>
       </c>
@@ -8769,7 +8788,7 @@
       <c r="BA20" s="51"/>
     </row>
     <row r="21" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="133"/>
+      <c r="A21" s="142"/>
       <c r="B21" s="60" t="s">
         <v>32</v>
       </c>
@@ -9292,21 +9311,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:BA2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="AX3:AY3"/>
-    <mergeCell ref="AZ3:BA3"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="AR3:AS3"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="A19:A21"/>
@@ -9323,6 +9327,21 @@
     <mergeCell ref="AB3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:BA2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="AX3:AY3"/>
+    <mergeCell ref="AZ3:BA3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AR3:AS3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
@@ -9334,10 +9353,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="X18" sqref="X18"/>
-      <selection pane="bottomLeft" activeCell="V12" sqref="V12"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17:BN24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9352,63 +9371,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:53" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="139"/>
+      <c r="B2" s="137"/>
       <c r="C2" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="140" t="s">
+      <c r="F2" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="140"/>
-      <c r="T2" s="140"/>
-      <c r="U2" s="140"/>
-      <c r="V2" s="140"/>
-      <c r="W2" s="140"/>
-      <c r="X2" s="140"/>
-      <c r="Y2" s="140"/>
-      <c r="Z2" s="140"/>
-      <c r="AA2" s="140"/>
-      <c r="AB2" s="140"/>
-      <c r="AC2" s="140"/>
-      <c r="AD2" s="140"/>
-      <c r="AE2" s="140"/>
-      <c r="AF2" s="140"/>
-      <c r="AG2" s="140"/>
-      <c r="AH2" s="140"/>
-      <c r="AI2" s="140"/>
-      <c r="AJ2" s="140"/>
-      <c r="AK2" s="140"/>
-      <c r="AL2" s="140"/>
-      <c r="AM2" s="140"/>
-      <c r="AN2" s="140"/>
-      <c r="AO2" s="140"/>
-      <c r="AP2" s="140"/>
-      <c r="AQ2" s="140"/>
-      <c r="AR2" s="140"/>
-      <c r="AS2" s="140"/>
-      <c r="AT2" s="140"/>
-      <c r="AU2" s="140"/>
-      <c r="AV2" s="140"/>
-      <c r="AW2" s="140"/>
-      <c r="AX2" s="140"/>
-      <c r="AY2" s="140"/>
-      <c r="AZ2" s="140"/>
-      <c r="BA2" s="140"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="138"/>
+      <c r="T2" s="138"/>
+      <c r="U2" s="138"/>
+      <c r="V2" s="138"/>
+      <c r="W2" s="138"/>
+      <c r="X2" s="138"/>
+      <c r="Y2" s="138"/>
+      <c r="Z2" s="138"/>
+      <c r="AA2" s="138"/>
+      <c r="AB2" s="138"/>
+      <c r="AC2" s="138"/>
+      <c r="AD2" s="138"/>
+      <c r="AE2" s="138"/>
+      <c r="AF2" s="138"/>
+      <c r="AG2" s="138"/>
+      <c r="AH2" s="138"/>
+      <c r="AI2" s="138"/>
+      <c r="AJ2" s="138"/>
+      <c r="AK2" s="138"/>
+      <c r="AL2" s="138"/>
+      <c r="AM2" s="138"/>
+      <c r="AN2" s="138"/>
+      <c r="AO2" s="138"/>
+      <c r="AP2" s="138"/>
+      <c r="AQ2" s="138"/>
+      <c r="AR2" s="138"/>
+      <c r="AS2" s="138"/>
+      <c r="AT2" s="138"/>
+      <c r="AU2" s="138"/>
+      <c r="AV2" s="138"/>
+      <c r="AW2" s="138"/>
+      <c r="AX2" s="138"/>
+      <c r="AY2" s="138"/>
+      <c r="AZ2" s="138"/>
+      <c r="BA2" s="138"/>
     </row>
     <row r="3" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
@@ -9426,102 +9445,102 @@
       <c r="E3" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="136">
+      <c r="F3" s="139">
         <v>7</v>
       </c>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136">
+      <c r="G3" s="139"/>
+      <c r="H3" s="139">
         <v>8</v>
       </c>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136">
+      <c r="I3" s="139"/>
+      <c r="J3" s="139">
         <v>9</v>
       </c>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136">
+      <c r="K3" s="139"/>
+      <c r="L3" s="139">
         <v>10</v>
       </c>
-      <c r="M3" s="136"/>
-      <c r="N3" s="136">
+      <c r="M3" s="139"/>
+      <c r="N3" s="139">
         <v>11</v>
       </c>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136">
+      <c r="O3" s="139"/>
+      <c r="P3" s="139">
         <v>12</v>
       </c>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136">
+      <c r="Q3" s="139"/>
+      <c r="R3" s="139">
         <v>13</v>
       </c>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136">
+      <c r="S3" s="139"/>
+      <c r="T3" s="139">
         <v>14</v>
       </c>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136">
+      <c r="U3" s="139"/>
+      <c r="V3" s="139">
         <v>15</v>
       </c>
-      <c r="W3" s="136"/>
-      <c r="X3" s="136">
+      <c r="W3" s="139"/>
+      <c r="X3" s="139">
         <v>16</v>
       </c>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="138">
+      <c r="Y3" s="139"/>
+      <c r="Z3" s="146">
         <v>17</v>
       </c>
-      <c r="AA3" s="138"/>
-      <c r="AB3" s="138">
+      <c r="AA3" s="146"/>
+      <c r="AB3" s="146">
         <v>18</v>
       </c>
-      <c r="AC3" s="138"/>
-      <c r="AD3" s="136">
+      <c r="AC3" s="146"/>
+      <c r="AD3" s="139">
         <v>19</v>
       </c>
-      <c r="AE3" s="136"/>
-      <c r="AF3" s="136">
+      <c r="AE3" s="139"/>
+      <c r="AF3" s="139">
         <v>20</v>
       </c>
-      <c r="AG3" s="136"/>
-      <c r="AH3" s="136">
+      <c r="AG3" s="139"/>
+      <c r="AH3" s="139">
         <v>21</v>
       </c>
-      <c r="AI3" s="136"/>
-      <c r="AJ3" s="136">
+      <c r="AI3" s="139"/>
+      <c r="AJ3" s="139">
         <v>22</v>
       </c>
-      <c r="AK3" s="136"/>
-      <c r="AL3" s="136">
+      <c r="AK3" s="139"/>
+      <c r="AL3" s="139">
         <v>23</v>
       </c>
-      <c r="AM3" s="136"/>
-      <c r="AN3" s="136">
+      <c r="AM3" s="139"/>
+      <c r="AN3" s="139">
         <v>24</v>
       </c>
-      <c r="AO3" s="136"/>
-      <c r="AP3" s="136">
+      <c r="AO3" s="139"/>
+      <c r="AP3" s="139">
         <v>1</v>
       </c>
-      <c r="AQ3" s="136"/>
-      <c r="AR3" s="136">
+      <c r="AQ3" s="139"/>
+      <c r="AR3" s="139">
         <v>2</v>
       </c>
-      <c r="AS3" s="136"/>
-      <c r="AT3" s="136">
+      <c r="AS3" s="139"/>
+      <c r="AT3" s="139">
         <v>3</v>
       </c>
-      <c r="AU3" s="136"/>
-      <c r="AV3" s="136">
+      <c r="AU3" s="139"/>
+      <c r="AV3" s="139">
         <v>4</v>
       </c>
-      <c r="AW3" s="136"/>
-      <c r="AX3" s="136">
+      <c r="AW3" s="139"/>
+      <c r="AX3" s="139">
         <v>5</v>
       </c>
-      <c r="AY3" s="136"/>
-      <c r="AZ3" s="136">
+      <c r="AY3" s="139"/>
+      <c r="AZ3" s="139">
         <v>6</v>
       </c>
-      <c r="BA3" s="141"/>
+      <c r="BA3" s="140"/>
     </row>
     <row r="4" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="94" t="s">
@@ -9581,7 +9600,7 @@
       <c r="BA4" s="97"/>
     </row>
     <row r="5" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="132" t="s">
+      <c r="A5" s="141" t="s">
         <v>82</v>
       </c>
       <c r="B5" s="18" t="s">
@@ -9600,32 +9619,32 @@
       <c r="G5" s="49"/>
       <c r="H5" s="49"/>
       <c r="I5" s="49"/>
-      <c r="J5" s="155"/>
-      <c r="K5" s="155"/>
-      <c r="L5" s="155"/>
-      <c r="M5" s="155"/>
-      <c r="N5" s="155"/>
-      <c r="O5" s="155"/>
-      <c r="P5" s="155"/>
-      <c r="Q5" s="155"/>
-      <c r="R5" s="156" t="s">
+      <c r="J5" s="130"/>
+      <c r="K5" s="130"/>
+      <c r="L5" s="130"/>
+      <c r="M5" s="130"/>
+      <c r="N5" s="130"/>
+      <c r="O5" s="130"/>
+      <c r="P5" s="130"/>
+      <c r="Q5" s="130"/>
+      <c r="R5" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="S5" s="155"/>
-      <c r="T5" s="155"/>
-      <c r="U5" s="155"/>
-      <c r="V5" s="155"/>
-      <c r="W5" s="155"/>
-      <c r="X5" s="155"/>
-      <c r="Y5" s="155"/>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="155"/>
-      <c r="AB5" s="155"/>
-      <c r="AC5" s="155"/>
-      <c r="AD5" s="155"/>
-      <c r="AE5" s="155"/>
-      <c r="AF5" s="155"/>
-      <c r="AG5" s="155"/>
+      <c r="S5" s="130"/>
+      <c r="T5" s="130"/>
+      <c r="U5" s="130"/>
+      <c r="V5" s="130"/>
+      <c r="W5" s="130"/>
+      <c r="X5" s="130"/>
+      <c r="Y5" s="130"/>
+      <c r="Z5" s="130"/>
+      <c r="AA5" s="130"/>
+      <c r="AB5" s="130"/>
+      <c r="AC5" s="130"/>
+      <c r="AD5" s="130"/>
+      <c r="AE5" s="130"/>
+      <c r="AF5" s="130"/>
+      <c r="AG5" s="130"/>
       <c r="AH5" s="49"/>
       <c r="AI5" s="49"/>
       <c r="AJ5" s="49"/>
@@ -9648,7 +9667,7 @@
       <c r="BA5" s="50"/>
     </row>
     <row r="6" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="135"/>
+      <c r="A6" s="144"/>
       <c r="B6" s="34" t="s">
         <v>24</v>
       </c>
@@ -9673,7 +9692,7 @@
       <c r="O6" s="36"/>
       <c r="P6" s="36"/>
       <c r="Q6" s="36"/>
-      <c r="R6" s="156" t="s">
+      <c r="R6" s="131" t="s">
         <v>46</v>
       </c>
       <c r="S6" s="36"/>
@@ -9713,7 +9732,7 @@
       <c r="BA6" s="51"/>
     </row>
     <row r="7" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="135"/>
+      <c r="A7" s="144"/>
       <c r="B7" s="34" t="s">
         <v>24</v>
       </c>
@@ -9738,12 +9757,12 @@
       <c r="O7" s="33"/>
       <c r="P7" s="33"/>
       <c r="Q7" s="33"/>
-      <c r="R7" s="157" t="s">
+      <c r="R7" s="132" t="s">
         <v>88</v>
       </c>
-      <c r="S7" s="158"/>
-      <c r="T7" s="158"/>
-      <c r="U7" s="158"/>
+      <c r="S7" s="133"/>
+      <c r="T7" s="133"/>
+      <c r="U7" s="133"/>
       <c r="V7" s="33"/>
       <c r="W7" s="33"/>
       <c r="X7" s="33"/>
@@ -9778,7 +9797,7 @@
       <c r="BA7" s="51"/>
     </row>
     <row r="8" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="135"/>
+      <c r="A8" s="144"/>
       <c r="B8" s="34" t="s">
         <v>24</v>
       </c>
@@ -9803,7 +9822,7 @@
       <c r="O8" s="36"/>
       <c r="P8" s="36"/>
       <c r="Q8" s="36"/>
-      <c r="R8" s="156" t="s">
+      <c r="R8" s="131" t="s">
         <v>46</v>
       </c>
       <c r="S8" s="36"/>
@@ -9843,7 +9862,7 @@
       <c r="BA8" s="51"/>
     </row>
     <row r="9" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="135"/>
+      <c r="A9" s="144"/>
       <c r="B9" s="34" t="s">
         <v>24</v>
       </c>
@@ -9868,7 +9887,7 @@
       <c r="O9" s="36"/>
       <c r="P9" s="36"/>
       <c r="Q9" s="36"/>
-      <c r="R9" s="156" t="s">
+      <c r="R9" s="131" t="s">
         <v>46</v>
       </c>
       <c r="S9" s="36"/>
@@ -9908,7 +9927,7 @@
       <c r="BA9" s="51"/>
     </row>
     <row r="10" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="135"/>
+      <c r="A10" s="144"/>
       <c r="B10" s="34" t="s">
         <v>24</v>
       </c>
@@ -9973,7 +9992,7 @@
       <c r="BA10" s="51"/>
     </row>
     <row r="11" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="137"/>
+      <c r="A11" s="145"/>
       <c r="B11" s="120" t="s">
         <v>45</v>
       </c>
@@ -9981,7 +10000,7 @@
       <c r="D11" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="159" t="s">
+      <c r="E11" s="134" t="s">
         <v>56</v>
       </c>
       <c r="F11" s="68"/>
@@ -10036,7 +10055,7 @@
       <c r="BA11" s="70"/>
     </row>
     <row r="12" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="132" t="s">
+      <c r="A12" s="141" t="s">
         <v>83</v>
       </c>
       <c r="B12" s="124" t="s">
@@ -10103,7 +10122,7 @@
       <c r="BA12" s="50"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A13" s="135"/>
+      <c r="A13" s="144"/>
       <c r="B13" s="41" t="s">
         <v>32</v>
       </c>
@@ -10170,7 +10189,7 @@
       <c r="BA13" s="51"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A14" s="135"/>
+      <c r="A14" s="144"/>
       <c r="B14" s="41" t="s">
         <v>32</v>
       </c>
@@ -10237,7 +10256,7 @@
       <c r="BA14" s="51"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A15" s="135"/>
+      <c r="A15" s="144"/>
       <c r="B15" s="41" t="s">
         <v>32</v>
       </c>
@@ -10247,7 +10266,7 @@
       <c r="D15" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="160">
+      <c r="E15" s="135">
         <v>334</v>
       </c>
       <c r="F15" s="34"/>
@@ -10666,24 +10685,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="AT3:AU3"/>
-    <mergeCell ref="AV3:AW3"/>
-    <mergeCell ref="AX3:AY3"/>
-    <mergeCell ref="AZ3:BA3"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="F2:BA2"/>
     <mergeCell ref="F3:G3"/>
@@ -10694,6 +10695,24 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="T3:U3"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="AV3:AW3"/>
+    <mergeCell ref="AX3:AY3"/>
+    <mergeCell ref="AZ3:BA3"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AR3:AS3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
@@ -10705,10 +10724,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:CW26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="X18" sqref="X18"/>
-      <selection pane="bottomLeft" activeCell="AT33" sqref="AT33"/>
+      <selection pane="bottomLeft" activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10723,63 +10742,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:101" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="139"/>
+      <c r="B2" s="137"/>
       <c r="C2" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="140" t="s">
+      <c r="F2" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="140"/>
-      <c r="T2" s="140"/>
-      <c r="U2" s="140"/>
-      <c r="V2" s="140"/>
-      <c r="W2" s="140"/>
-      <c r="X2" s="140"/>
-      <c r="Y2" s="140"/>
-      <c r="Z2" s="140"/>
-      <c r="AA2" s="140"/>
-      <c r="AB2" s="140"/>
-      <c r="AC2" s="140"/>
-      <c r="AD2" s="140"/>
-      <c r="AE2" s="140"/>
-      <c r="AF2" s="140"/>
-      <c r="AG2" s="140"/>
-      <c r="AH2" s="140"/>
-      <c r="AI2" s="140"/>
-      <c r="AJ2" s="140"/>
-      <c r="AK2" s="140"/>
-      <c r="AL2" s="140"/>
-      <c r="AM2" s="140"/>
-      <c r="AN2" s="140"/>
-      <c r="AO2" s="140"/>
-      <c r="AP2" s="140"/>
-      <c r="AQ2" s="140"/>
-      <c r="AR2" s="140"/>
-      <c r="AS2" s="140"/>
-      <c r="AT2" s="140"/>
-      <c r="AU2" s="140"/>
-      <c r="AV2" s="140"/>
-      <c r="AW2" s="140"/>
-      <c r="AX2" s="140"/>
-      <c r="AY2" s="140"/>
-      <c r="AZ2" s="140"/>
-      <c r="BA2" s="140"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="138"/>
+      <c r="T2" s="138"/>
+      <c r="U2" s="138"/>
+      <c r="V2" s="138"/>
+      <c r="W2" s="138"/>
+      <c r="X2" s="138"/>
+      <c r="Y2" s="138"/>
+      <c r="Z2" s="138"/>
+      <c r="AA2" s="138"/>
+      <c r="AB2" s="138"/>
+      <c r="AC2" s="138"/>
+      <c r="AD2" s="138"/>
+      <c r="AE2" s="138"/>
+      <c r="AF2" s="138"/>
+      <c r="AG2" s="138"/>
+      <c r="AH2" s="138"/>
+      <c r="AI2" s="138"/>
+      <c r="AJ2" s="138"/>
+      <c r="AK2" s="138"/>
+      <c r="AL2" s="138"/>
+      <c r="AM2" s="138"/>
+      <c r="AN2" s="138"/>
+      <c r="AO2" s="138"/>
+      <c r="AP2" s="138"/>
+      <c r="AQ2" s="138"/>
+      <c r="AR2" s="138"/>
+      <c r="AS2" s="138"/>
+      <c r="AT2" s="138"/>
+      <c r="AU2" s="138"/>
+      <c r="AV2" s="138"/>
+      <c r="AW2" s="138"/>
+      <c r="AX2" s="138"/>
+      <c r="AY2" s="138"/>
+      <c r="AZ2" s="138"/>
+      <c r="BA2" s="138"/>
     </row>
     <row r="3" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="104" t="s">
@@ -10797,150 +10816,150 @@
       <c r="E3" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="149">
+      <c r="F3" s="147">
         <v>7</v>
       </c>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="142">
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="150">
         <v>8</v>
       </c>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="144"/>
-      <c r="N3" s="142">
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="152"/>
+      <c r="N3" s="150">
         <v>9</v>
       </c>
-      <c r="O3" s="143"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="144"/>
-      <c r="R3" s="142">
+      <c r="O3" s="151"/>
+      <c r="P3" s="151"/>
+      <c r="Q3" s="152"/>
+      <c r="R3" s="150">
         <v>10</v>
       </c>
-      <c r="S3" s="143"/>
-      <c r="T3" s="143"/>
-      <c r="U3" s="144"/>
-      <c r="V3" s="142">
+      <c r="S3" s="151"/>
+      <c r="T3" s="151"/>
+      <c r="U3" s="152"/>
+      <c r="V3" s="150">
         <v>11</v>
       </c>
-      <c r="W3" s="143"/>
-      <c r="X3" s="143"/>
-      <c r="Y3" s="144"/>
-      <c r="Z3" s="152">
+      <c r="W3" s="151"/>
+      <c r="X3" s="151"/>
+      <c r="Y3" s="152"/>
+      <c r="Z3" s="153">
         <v>12</v>
       </c>
-      <c r="AA3" s="153"/>
-      <c r="AB3" s="153"/>
-      <c r="AC3" s="154"/>
-      <c r="AD3" s="142">
+      <c r="AA3" s="154"/>
+      <c r="AB3" s="154"/>
+      <c r="AC3" s="155"/>
+      <c r="AD3" s="150">
         <v>13</v>
       </c>
-      <c r="AE3" s="143"/>
-      <c r="AF3" s="143"/>
-      <c r="AG3" s="144"/>
-      <c r="AH3" s="142">
+      <c r="AE3" s="151"/>
+      <c r="AF3" s="151"/>
+      <c r="AG3" s="152"/>
+      <c r="AH3" s="150">
         <v>14</v>
       </c>
-      <c r="AI3" s="143"/>
-      <c r="AJ3" s="143"/>
-      <c r="AK3" s="144"/>
-      <c r="AL3" s="142">
+      <c r="AI3" s="151"/>
+      <c r="AJ3" s="151"/>
+      <c r="AK3" s="152"/>
+      <c r="AL3" s="150">
         <v>15</v>
       </c>
-      <c r="AM3" s="143"/>
-      <c r="AN3" s="143"/>
-      <c r="AO3" s="144"/>
-      <c r="AP3" s="142">
+      <c r="AM3" s="151"/>
+      <c r="AN3" s="151"/>
+      <c r="AO3" s="152"/>
+      <c r="AP3" s="150">
         <v>16</v>
       </c>
-      <c r="AQ3" s="143"/>
-      <c r="AR3" s="143"/>
-      <c r="AS3" s="144"/>
-      <c r="AT3" s="142">
+      <c r="AQ3" s="151"/>
+      <c r="AR3" s="151"/>
+      <c r="AS3" s="152"/>
+      <c r="AT3" s="150">
         <v>17</v>
       </c>
-      <c r="AU3" s="143"/>
-      <c r="AV3" s="143"/>
-      <c r="AW3" s="144"/>
-      <c r="AX3" s="142">
+      <c r="AU3" s="151"/>
+      <c r="AV3" s="151"/>
+      <c r="AW3" s="152"/>
+      <c r="AX3" s="150">
         <v>18</v>
       </c>
-      <c r="AY3" s="143"/>
-      <c r="AZ3" s="143"/>
-      <c r="BA3" s="145"/>
-      <c r="BB3" s="149">
+      <c r="AY3" s="151"/>
+      <c r="AZ3" s="151"/>
+      <c r="BA3" s="159"/>
+      <c r="BB3" s="147">
         <v>19</v>
       </c>
-      <c r="BC3" s="150"/>
-      <c r="BD3" s="150"/>
-      <c r="BE3" s="151"/>
-      <c r="BF3" s="142">
+      <c r="BC3" s="148"/>
+      <c r="BD3" s="148"/>
+      <c r="BE3" s="149"/>
+      <c r="BF3" s="150">
         <v>20</v>
       </c>
-      <c r="BG3" s="143"/>
-      <c r="BH3" s="143"/>
-      <c r="BI3" s="144"/>
-      <c r="BJ3" s="142">
+      <c r="BG3" s="151"/>
+      <c r="BH3" s="151"/>
+      <c r="BI3" s="152"/>
+      <c r="BJ3" s="150">
         <v>21</v>
       </c>
-      <c r="BK3" s="143"/>
-      <c r="BL3" s="143"/>
-      <c r="BM3" s="144"/>
-      <c r="BN3" s="142">
+      <c r="BK3" s="151"/>
+      <c r="BL3" s="151"/>
+      <c r="BM3" s="152"/>
+      <c r="BN3" s="150">
         <v>22</v>
       </c>
-      <c r="BO3" s="143"/>
-      <c r="BP3" s="143"/>
-      <c r="BQ3" s="144"/>
-      <c r="BR3" s="142">
+      <c r="BO3" s="151"/>
+      <c r="BP3" s="151"/>
+      <c r="BQ3" s="152"/>
+      <c r="BR3" s="150">
         <v>23</v>
       </c>
-      <c r="BS3" s="143"/>
-      <c r="BT3" s="143"/>
-      <c r="BU3" s="143"/>
-      <c r="BV3" s="146">
+      <c r="BS3" s="151"/>
+      <c r="BT3" s="151"/>
+      <c r="BU3" s="151"/>
+      <c r="BV3" s="156">
         <v>24</v>
       </c>
-      <c r="BW3" s="147"/>
-      <c r="BX3" s="147"/>
-      <c r="BY3" s="148"/>
-      <c r="BZ3" s="143">
+      <c r="BW3" s="157"/>
+      <c r="BX3" s="157"/>
+      <c r="BY3" s="158"/>
+      <c r="BZ3" s="151">
         <v>1</v>
       </c>
-      <c r="CA3" s="143"/>
-      <c r="CB3" s="143"/>
-      <c r="CC3" s="144"/>
-      <c r="CD3" s="142">
+      <c r="CA3" s="151"/>
+      <c r="CB3" s="151"/>
+      <c r="CC3" s="152"/>
+      <c r="CD3" s="150">
         <v>2</v>
       </c>
-      <c r="CE3" s="143"/>
-      <c r="CF3" s="143"/>
-      <c r="CG3" s="144"/>
-      <c r="CH3" s="142">
+      <c r="CE3" s="151"/>
+      <c r="CF3" s="151"/>
+      <c r="CG3" s="152"/>
+      <c r="CH3" s="150">
         <v>3</v>
       </c>
-      <c r="CI3" s="143"/>
-      <c r="CJ3" s="143"/>
-      <c r="CK3" s="144"/>
-      <c r="CL3" s="142">
+      <c r="CI3" s="151"/>
+      <c r="CJ3" s="151"/>
+      <c r="CK3" s="152"/>
+      <c r="CL3" s="150">
         <v>4</v>
       </c>
-      <c r="CM3" s="143"/>
-      <c r="CN3" s="143"/>
-      <c r="CO3" s="144"/>
-      <c r="CP3" s="142">
+      <c r="CM3" s="151"/>
+      <c r="CN3" s="151"/>
+      <c r="CO3" s="152"/>
+      <c r="CP3" s="150">
         <v>5</v>
       </c>
-      <c r="CQ3" s="143"/>
-      <c r="CR3" s="143"/>
-      <c r="CS3" s="144"/>
-      <c r="CT3" s="142">
+      <c r="CQ3" s="151"/>
+      <c r="CR3" s="151"/>
+      <c r="CS3" s="152"/>
+      <c r="CT3" s="150">
         <v>6</v>
       </c>
-      <c r="CU3" s="143"/>
-      <c r="CV3" s="143"/>
-      <c r="CW3" s="145"/>
+      <c r="CU3" s="151"/>
+      <c r="CV3" s="151"/>
+      <c r="CW3" s="159"/>
     </row>
     <row r="4" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="106" t="s">
@@ -11048,7 +11067,7 @@
       <c r="CW4" s="112"/>
     </row>
     <row r="5" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="132" t="s">
+      <c r="A5" s="141" t="s">
         <v>82</v>
       </c>
       <c r="B5" s="18" t="s">
@@ -11161,7 +11180,7 @@
       <c r="CW5" s="117"/>
     </row>
     <row r="6" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="135"/>
+      <c r="A6" s="144"/>
       <c r="B6" s="34" t="s">
         <v>24</v>
       </c>
@@ -11272,7 +11291,7 @@
       <c r="CW6" s="117"/>
     </row>
     <row r="7" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A7" s="135"/>
+      <c r="A7" s="144"/>
       <c r="B7" s="34" t="s">
         <v>24</v>
       </c>
@@ -11383,7 +11402,7 @@
       <c r="CW7" s="117"/>
     </row>
     <row r="8" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A8" s="135"/>
+      <c r="A8" s="144"/>
       <c r="B8" s="34" t="s">
         <v>24</v>
       </c>
@@ -11494,7 +11513,7 @@
       <c r="CW8" s="117"/>
     </row>
     <row r="9" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="135"/>
+      <c r="A9" s="144"/>
       <c r="B9" s="34" t="s">
         <v>24</v>
       </c>
@@ -11605,7 +11624,7 @@
       <c r="CW9" s="117"/>
     </row>
     <row r="10" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="135"/>
+      <c r="A10" s="144"/>
       <c r="B10" s="34" t="s">
         <v>24</v>
       </c>
@@ -11716,7 +11735,7 @@
       <c r="CW10" s="117"/>
     </row>
     <row r="11" spans="1:101" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="137"/>
+      <c r="A11" s="145"/>
       <c r="B11" s="120" t="s">
         <v>45</v>
       </c>
@@ -11825,7 +11844,7 @@
       <c r="CW11" s="117"/>
     </row>
     <row r="12" spans="1:101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="132" t="s">
+      <c r="A12" s="141" t="s">
         <v>83</v>
       </c>
       <c r="B12" s="124" t="s">
@@ -11938,7 +11957,7 @@
       <c r="CW12" s="117"/>
     </row>
     <row r="13" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A13" s="135"/>
+      <c r="A13" s="144"/>
       <c r="B13" s="41" t="s">
         <v>32</v>
       </c>
@@ -12049,7 +12068,7 @@
       <c r="CW13" s="117"/>
     </row>
     <row r="14" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A14" s="135"/>
+      <c r="A14" s="144"/>
       <c r="B14" s="41" t="s">
         <v>32</v>
       </c>
@@ -12160,7 +12179,7 @@
       <c r="CW14" s="117"/>
     </row>
     <row r="15" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A15" s="135"/>
+      <c r="A15" s="144"/>
       <c r="B15" s="41" t="s">
         <v>32</v>
       </c>
@@ -12325,293 +12344,536 @@
       <c r="AZ16" s="29"/>
       <c r="BA16" s="29"/>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A17" s="77"/>
       <c r="B17" s="78"/>
       <c r="C17" s="79"/>
       <c r="D17" s="80"/>
       <c r="E17" s="81"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="129"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="80"/>
-      <c r="P17" s="80"/>
-      <c r="Q17" s="80"/>
-      <c r="R17" s="80"/>
-      <c r="S17" s="80"/>
-      <c r="T17" s="80"/>
-      <c r="U17" s="80"/>
-      <c r="V17" s="80"/>
-      <c r="W17" s="80"/>
-      <c r="X17" s="80"/>
-      <c r="Y17" s="80"/>
-      <c r="Z17" s="80"/>
-      <c r="AA17" s="80"/>
-      <c r="AB17" s="80"/>
-      <c r="AC17" s="80"/>
-      <c r="AD17" s="80"/>
-      <c r="AE17" s="80"/>
-      <c r="AF17" s="80"/>
-      <c r="AG17" s="80"/>
-      <c r="AH17" s="80"/>
-      <c r="AI17" s="80"/>
-      <c r="AJ17" s="80"/>
-      <c r="AK17" s="80"/>
-      <c r="AL17" s="80"/>
-      <c r="AM17" s="29"/>
-      <c r="AN17" s="29"/>
-      <c r="AO17" s="29"/>
-      <c r="AP17" s="29"/>
-      <c r="AQ17" s="29"/>
-      <c r="AR17" s="29"/>
-      <c r="AS17" s="29"/>
-      <c r="AT17" s="29"/>
-      <c r="AU17" s="29"/>
-      <c r="AV17" s="29"/>
-      <c r="AW17" s="29"/>
-      <c r="AX17" s="29"/>
-      <c r="AY17" s="29"/>
-      <c r="AZ17" s="29"/>
-      <c r="BA17" s="29"/>
+      <c r="F17" s="160"/>
+      <c r="G17" s="160"/>
+      <c r="H17" s="160"/>
+      <c r="I17" s="160"/>
+      <c r="J17" s="160"/>
+      <c r="K17" s="160"/>
+      <c r="L17" s="160"/>
+      <c r="M17" s="160"/>
+      <c r="N17" s="160"/>
+      <c r="O17" s="161"/>
+      <c r="P17" s="161"/>
+      <c r="Q17" s="161"/>
+      <c r="R17" s="161"/>
+      <c r="S17" s="161"/>
+      <c r="T17" s="161"/>
+      <c r="U17" s="161"/>
+      <c r="V17" s="161"/>
+      <c r="W17" s="161"/>
+      <c r="X17" s="161"/>
+      <c r="Y17" s="161"/>
+      <c r="Z17" s="161"/>
+      <c r="AA17" s="161"/>
+      <c r="AB17" s="161"/>
+      <c r="AC17" s="161"/>
+      <c r="AD17" s="161"/>
+      <c r="AE17" s="161"/>
+      <c r="AF17" s="161"/>
+      <c r="AG17" s="161"/>
+      <c r="AH17" s="161"/>
+      <c r="AI17" s="161"/>
+      <c r="AJ17" s="161"/>
+      <c r="AK17" s="161"/>
+      <c r="AL17" s="161"/>
+      <c r="AM17" s="161"/>
+      <c r="AN17" s="161"/>
+      <c r="AO17" s="161"/>
+      <c r="AP17" s="161"/>
+      <c r="AQ17" s="161"/>
+      <c r="AR17" s="161"/>
+      <c r="AS17" s="161"/>
+      <c r="AT17" s="161"/>
+      <c r="AU17" s="161"/>
+      <c r="AV17" s="161"/>
+      <c r="AW17" s="161"/>
+      <c r="AX17" s="161"/>
+      <c r="AY17" s="161"/>
+      <c r="AZ17" s="161"/>
+      <c r="BA17" s="161"/>
+      <c r="BB17" s="161"/>
+      <c r="BC17" s="161"/>
+      <c r="BD17" s="161"/>
+      <c r="BE17" s="161"/>
+      <c r="BF17" s="161"/>
+      <c r="BG17" s="161"/>
+      <c r="BH17" s="161"/>
+      <c r="BI17" s="160"/>
+      <c r="BJ17" s="160"/>
+      <c r="BK17" s="160"/>
+      <c r="BL17" s="160"/>
+      <c r="BM17" s="160"/>
+      <c r="BN17" s="160"/>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A18" s="77"/>
       <c r="B18" s="78"/>
       <c r="C18" s="79"/>
       <c r="D18" s="80"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="80"/>
-      <c r="N18" s="80"/>
-      <c r="O18" s="80"/>
-      <c r="P18" s="80"/>
-      <c r="Q18" s="80"/>
-      <c r="R18" s="80"/>
-      <c r="S18" s="80"/>
-      <c r="T18" s="80"/>
-      <c r="U18" s="80"/>
-      <c r="V18" s="80"/>
-      <c r="W18" s="80"/>
-      <c r="X18" s="80"/>
-      <c r="Y18" s="80"/>
-      <c r="Z18" s="80"/>
-      <c r="AA18" s="80"/>
-      <c r="AB18" s="80"/>
-      <c r="AC18" s="80"/>
-      <c r="AD18" s="80"/>
-      <c r="AE18" s="80"/>
-      <c r="AF18" s="80"/>
-      <c r="AG18" s="80"/>
-      <c r="AH18" s="80"/>
-      <c r="AI18" s="80"/>
-      <c r="AJ18" s="80"/>
-      <c r="AK18" s="80"/>
-      <c r="AL18" s="80"/>
-      <c r="AM18" s="29"/>
-      <c r="AN18" s="29"/>
-      <c r="AO18" s="29"/>
-      <c r="AP18" s="29"/>
-      <c r="AQ18" s="29"/>
-      <c r="AR18" s="29"/>
-      <c r="AS18" s="29"/>
-      <c r="AT18" s="29"/>
-      <c r="AU18" s="29"/>
-      <c r="AV18" s="29"/>
-      <c r="AW18" s="29"/>
-      <c r="AX18" s="29"/>
-      <c r="AY18" s="29"/>
-      <c r="AZ18" s="29"/>
-      <c r="BA18" s="29"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="160"/>
+      <c r="G18" s="160"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="160"/>
+      <c r="J18" s="160"/>
+      <c r="K18" s="160"/>
+      <c r="L18" s="160"/>
+      <c r="M18" s="160"/>
+      <c r="N18" s="160"/>
+      <c r="O18" s="161"/>
+      <c r="P18" s="161"/>
+      <c r="Q18" s="161"/>
+      <c r="R18" s="161"/>
+      <c r="S18" s="161"/>
+      <c r="T18" s="161"/>
+      <c r="U18" s="161"/>
+      <c r="V18" s="161"/>
+      <c r="W18" s="161"/>
+      <c r="X18" s="161"/>
+      <c r="Y18" s="161"/>
+      <c r="Z18" s="161"/>
+      <c r="AA18" s="161"/>
+      <c r="AB18" s="161"/>
+      <c r="AC18" s="161"/>
+      <c r="AD18" s="161"/>
+      <c r="AE18" s="161"/>
+      <c r="AF18" s="161"/>
+      <c r="AG18" s="161"/>
+      <c r="AH18" s="161"/>
+      <c r="AI18" s="161"/>
+      <c r="AJ18" s="161"/>
+      <c r="AK18" s="161"/>
+      <c r="AL18" s="161"/>
+      <c r="AM18" s="161"/>
+      <c r="AN18" s="161"/>
+      <c r="AO18" s="161"/>
+      <c r="AP18" s="161"/>
+      <c r="AQ18" s="161"/>
+      <c r="AR18" s="161"/>
+      <c r="AS18" s="161"/>
+      <c r="AT18" s="161"/>
+      <c r="AU18" s="161"/>
+      <c r="AV18" s="161"/>
+      <c r="AW18" s="161"/>
+      <c r="AX18" s="161"/>
+      <c r="AY18" s="161"/>
+      <c r="AZ18" s="161"/>
+      <c r="BA18" s="161"/>
+      <c r="BB18" s="161"/>
+      <c r="BC18" s="161"/>
+      <c r="BD18" s="161"/>
+      <c r="BE18" s="161"/>
+      <c r="BF18" s="161"/>
+      <c r="BG18" s="161"/>
+      <c r="BH18" s="161"/>
+      <c r="BI18" s="160"/>
+      <c r="BJ18" s="160"/>
+      <c r="BK18" s="160"/>
+      <c r="BL18" s="160"/>
+      <c r="BM18" s="160"/>
+      <c r="BN18" s="160"/>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A19" s="77"/>
       <c r="B19" s="78"/>
       <c r="C19" s="79"/>
       <c r="D19" s="80"/>
       <c r="E19" s="81"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="80"/>
-      <c r="N19" s="80"/>
-      <c r="O19" s="80"/>
-      <c r="P19" s="80"/>
-      <c r="Q19" s="80"/>
-      <c r="R19" s="80"/>
-      <c r="S19" s="80"/>
-      <c r="T19" s="80"/>
-      <c r="U19" s="80"/>
-      <c r="V19" s="80"/>
-      <c r="W19" s="80"/>
-      <c r="X19" s="80"/>
-      <c r="Y19" s="80"/>
-      <c r="Z19" s="80"/>
-      <c r="AA19" s="80"/>
-      <c r="AB19" s="80"/>
-      <c r="AC19" s="80"/>
-      <c r="AD19" s="80"/>
-      <c r="AE19" s="80"/>
-      <c r="AF19" s="80"/>
-      <c r="AG19" s="80"/>
-      <c r="AH19" s="80"/>
-      <c r="AI19" s="80"/>
-      <c r="AJ19" s="80"/>
-      <c r="AK19" s="80"/>
-      <c r="AL19" s="80"/>
-      <c r="AM19" s="29"/>
-      <c r="AN19" s="29"/>
-      <c r="AO19" s="29"/>
-      <c r="AP19" s="29"/>
-      <c r="AQ19" s="29"/>
-      <c r="AR19" s="29"/>
-      <c r="AS19" s="29"/>
-      <c r="AT19" s="29"/>
-      <c r="AU19" s="29"/>
-      <c r="AV19" s="29"/>
-      <c r="AW19" s="29"/>
-      <c r="AX19" s="29"/>
-      <c r="AY19" s="29"/>
-      <c r="AZ19" s="29"/>
-      <c r="BA19" s="29"/>
+      <c r="F19" s="160"/>
+      <c r="G19" s="160"/>
+      <c r="H19" s="160"/>
+      <c r="I19" s="160"/>
+      <c r="J19" s="160"/>
+      <c r="K19" s="160"/>
+      <c r="L19" s="160"/>
+      <c r="M19" s="160"/>
+      <c r="N19" s="160"/>
+      <c r="O19" s="160"/>
+      <c r="P19" s="160"/>
+      <c r="Q19" s="160"/>
+      <c r="R19" s="160"/>
+      <c r="S19" s="160"/>
+      <c r="T19" s="160"/>
+      <c r="U19" s="160"/>
+      <c r="V19" s="160"/>
+      <c r="W19" s="160"/>
+      <c r="X19" s="160"/>
+      <c r="Y19" s="160"/>
+      <c r="Z19" s="160"/>
+      <c r="AA19" s="160"/>
+      <c r="AB19" s="160"/>
+      <c r="AC19" s="160"/>
+      <c r="AD19" s="161"/>
+      <c r="AE19" s="161"/>
+      <c r="AF19" s="161"/>
+      <c r="AG19" s="161"/>
+      <c r="AH19" s="161"/>
+      <c r="AI19" s="161"/>
+      <c r="AJ19" s="161"/>
+      <c r="AK19" s="160"/>
+      <c r="AL19" s="160"/>
+      <c r="AM19" s="160"/>
+      <c r="AN19" s="160"/>
+      <c r="AO19" s="160"/>
+      <c r="AP19" s="160"/>
+      <c r="AQ19" s="160"/>
+      <c r="AR19" s="160"/>
+      <c r="AS19" s="160"/>
+      <c r="AT19" s="160"/>
+      <c r="AU19" s="160"/>
+      <c r="AV19" s="160"/>
+      <c r="AW19" s="160"/>
+      <c r="AX19" s="160"/>
+      <c r="AY19" s="160"/>
+      <c r="AZ19" s="160"/>
+      <c r="BA19" s="160"/>
+      <c r="BB19" s="160"/>
+      <c r="BC19" s="160"/>
+      <c r="BD19" s="160"/>
+      <c r="BE19" s="160"/>
+      <c r="BF19" s="160"/>
+      <c r="BG19" s="160"/>
+      <c r="BH19" s="160"/>
+      <c r="BI19" s="160"/>
+      <c r="BJ19" s="160"/>
+      <c r="BK19" s="160"/>
+      <c r="BL19" s="160"/>
+      <c r="BM19" s="160"/>
+      <c r="BN19" s="160"/>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A20" s="77"/>
       <c r="B20" s="78"/>
       <c r="C20" s="79"/>
       <c r="D20" s="80"/>
       <c r="E20" s="81"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="80"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="80"/>
-      <c r="P20" s="80"/>
-      <c r="Q20" s="80"/>
-      <c r="R20" s="80"/>
-      <c r="S20" s="80"/>
-      <c r="T20" s="80"/>
-      <c r="U20" s="80"/>
-      <c r="V20" s="80"/>
-      <c r="W20" s="80"/>
-      <c r="X20" s="80"/>
-      <c r="Y20" s="80"/>
-      <c r="Z20" s="80"/>
-      <c r="AA20" s="80"/>
-      <c r="AB20" s="80"/>
-      <c r="AC20" s="80"/>
-      <c r="AD20" s="80"/>
-      <c r="AE20" s="80"/>
-      <c r="AF20" s="80"/>
-      <c r="AG20" s="80"/>
-      <c r="AH20" s="80"/>
-      <c r="AI20" s="80"/>
-      <c r="AJ20" s="80"/>
-      <c r="AK20" s="80"/>
-      <c r="AL20" s="80"/>
-      <c r="AM20" s="29"/>
-      <c r="AN20" s="29"/>
-      <c r="AO20" s="29"/>
-      <c r="AP20" s="29"/>
-      <c r="AQ20" s="29"/>
-      <c r="AR20" s="29"/>
-      <c r="AS20" s="29"/>
-      <c r="AT20" s="29"/>
-      <c r="AU20" s="29"/>
-      <c r="AV20" s="29"/>
-      <c r="AW20" s="29"/>
-      <c r="AX20" s="29"/>
-      <c r="AY20" s="29"/>
-      <c r="AZ20" s="29"/>
-      <c r="BA20" s="29"/>
+      <c r="F20" s="160"/>
+      <c r="G20" s="160"/>
+      <c r="H20" s="160"/>
+      <c r="I20" s="160"/>
+      <c r="J20" s="160"/>
+      <c r="K20" s="160"/>
+      <c r="L20" s="160"/>
+      <c r="M20" s="160"/>
+      <c r="N20" s="160"/>
+      <c r="O20" s="160"/>
+      <c r="P20" s="160"/>
+      <c r="Q20" s="160"/>
+      <c r="R20" s="160"/>
+      <c r="S20" s="161"/>
+      <c r="T20" s="161"/>
+      <c r="U20" s="161"/>
+      <c r="V20" s="161"/>
+      <c r="W20" s="161"/>
+      <c r="X20" s="161"/>
+      <c r="Y20" s="161"/>
+      <c r="Z20" s="161"/>
+      <c r="AA20" s="161"/>
+      <c r="AB20" s="161"/>
+      <c r="AC20" s="161"/>
+      <c r="AD20" s="161"/>
+      <c r="AE20" s="161"/>
+      <c r="AF20" s="161"/>
+      <c r="AG20" s="161"/>
+      <c r="AH20" s="161"/>
+      <c r="AI20" s="161"/>
+      <c r="AJ20" s="161"/>
+      <c r="AK20" s="161"/>
+      <c r="AL20" s="161"/>
+      <c r="AM20" s="161"/>
+      <c r="AN20" s="161"/>
+      <c r="AO20" s="161"/>
+      <c r="AP20" s="161"/>
+      <c r="AQ20" s="161"/>
+      <c r="AR20" s="161"/>
+      <c r="AS20" s="161"/>
+      <c r="AT20" s="161"/>
+      <c r="AU20" s="161"/>
+      <c r="AV20" s="161"/>
+      <c r="AW20" s="161"/>
+      <c r="AX20" s="161"/>
+      <c r="AY20" s="161"/>
+      <c r="AZ20" s="161"/>
+      <c r="BA20" s="161"/>
+      <c r="BB20" s="161"/>
+      <c r="BC20" s="161"/>
+      <c r="BD20" s="161"/>
+      <c r="BE20" s="161"/>
+      <c r="BF20" s="161"/>
+      <c r="BG20" s="161"/>
+      <c r="BH20" s="160"/>
+      <c r="BI20" s="160"/>
+      <c r="BJ20" s="160"/>
+      <c r="BK20" s="160"/>
+      <c r="BL20" s="160"/>
+      <c r="BM20" s="160"/>
+      <c r="BN20" s="160"/>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A21" s="77"/>
       <c r="B21" s="78"/>
       <c r="C21" s="79"/>
       <c r="D21" s="80"/>
       <c r="E21" s="81"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="80"/>
-      <c r="N21" s="80"/>
-      <c r="O21" s="80"/>
-      <c r="P21" s="80"/>
-      <c r="Q21" s="80"/>
-      <c r="R21" s="80"/>
-      <c r="S21" s="80"/>
-      <c r="T21" s="80"/>
-      <c r="U21" s="80"/>
-      <c r="V21" s="80"/>
-      <c r="W21" s="80"/>
-      <c r="X21" s="80"/>
-      <c r="Y21" s="80"/>
-      <c r="Z21" s="80"/>
-      <c r="AA21" s="80"/>
-      <c r="AB21" s="80"/>
-      <c r="AC21" s="80"/>
-      <c r="AD21" s="80"/>
-      <c r="AE21" s="80"/>
-      <c r="AF21" s="80"/>
-      <c r="AG21" s="80"/>
-      <c r="AH21" s="80"/>
-      <c r="AI21" s="80"/>
-      <c r="AJ21" s="80"/>
-      <c r="AK21" s="80"/>
-      <c r="AL21" s="80"/>
-      <c r="AM21" s="29"/>
-      <c r="AN21" s="29"/>
-      <c r="AO21" s="29"/>
-      <c r="AP21" s="29"/>
-      <c r="AQ21" s="29"/>
-      <c r="AR21" s="29"/>
-      <c r="AS21" s="29"/>
-      <c r="AT21" s="29"/>
-      <c r="AU21" s="29"/>
-      <c r="AV21" s="29"/>
-      <c r="AW21" s="29"/>
-      <c r="AX21" s="29"/>
-      <c r="AY21" s="29"/>
-      <c r="AZ21" s="29"/>
-      <c r="BA21" s="29"/>
+      <c r="F21" s="160"/>
+      <c r="G21" s="160"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="160"/>
+      <c r="J21" s="160"/>
+      <c r="K21" s="160"/>
+      <c r="L21" s="160"/>
+      <c r="M21" s="160"/>
+      <c r="N21" s="160"/>
+      <c r="O21" s="161"/>
+      <c r="P21" s="161"/>
+      <c r="Q21" s="161"/>
+      <c r="R21" s="161"/>
+      <c r="S21" s="161"/>
+      <c r="T21" s="161"/>
+      <c r="U21" s="161"/>
+      <c r="V21" s="161"/>
+      <c r="W21" s="161"/>
+      <c r="X21" s="161"/>
+      <c r="Y21" s="161"/>
+      <c r="Z21" s="161"/>
+      <c r="AA21" s="161"/>
+      <c r="AB21" s="161"/>
+      <c r="AC21" s="161"/>
+      <c r="AD21" s="161"/>
+      <c r="AE21" s="161"/>
+      <c r="AF21" s="161"/>
+      <c r="AG21" s="161"/>
+      <c r="AH21" s="161"/>
+      <c r="AI21" s="161"/>
+      <c r="AJ21" s="161"/>
+      <c r="AK21" s="161"/>
+      <c r="AL21" s="161"/>
+      <c r="AM21" s="161"/>
+      <c r="AN21" s="161"/>
+      <c r="AO21" s="161"/>
+      <c r="AP21" s="161"/>
+      <c r="AQ21" s="161"/>
+      <c r="AR21" s="161"/>
+      <c r="AS21" s="161"/>
+      <c r="AT21" s="161"/>
+      <c r="AU21" s="161"/>
+      <c r="AV21" s="161"/>
+      <c r="AW21" s="161"/>
+      <c r="AX21" s="161"/>
+      <c r="AY21" s="161"/>
+      <c r="AZ21" s="161"/>
+      <c r="BA21" s="161"/>
+      <c r="BB21" s="161"/>
+      <c r="BC21" s="161"/>
+      <c r="BD21" s="161"/>
+      <c r="BE21" s="161"/>
+      <c r="BF21" s="161"/>
+      <c r="BG21" s="161"/>
+      <c r="BH21" s="160"/>
+      <c r="BI21" s="160"/>
+      <c r="BJ21" s="160"/>
+      <c r="BK21" s="160"/>
+      <c r="BL21" s="160"/>
+      <c r="BM21" s="160"/>
+      <c r="BN21" s="160"/>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="M23" s="32" t="s">
-        <v>58</v>
-      </c>
+    <row r="22" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="F22" s="160"/>
+      <c r="G22" s="160"/>
+      <c r="H22" s="160"/>
+      <c r="I22" s="160"/>
+      <c r="J22" s="160"/>
+      <c r="K22" s="160"/>
+      <c r="L22" s="160"/>
+      <c r="M22" s="160"/>
+      <c r="N22" s="160"/>
+      <c r="O22" s="160"/>
+      <c r="P22" s="160"/>
+      <c r="Q22" s="161"/>
+      <c r="R22" s="161"/>
+      <c r="S22" s="161"/>
+      <c r="T22" s="161"/>
+      <c r="U22" s="161"/>
+      <c r="V22" s="161"/>
+      <c r="W22" s="161"/>
+      <c r="X22" s="161"/>
+      <c r="Y22" s="161"/>
+      <c r="Z22" s="161"/>
+      <c r="AA22" s="161"/>
+      <c r="AB22" s="161"/>
+      <c r="AC22" s="161"/>
+      <c r="AD22" s="161"/>
+      <c r="AE22" s="161"/>
+      <c r="AF22" s="161"/>
+      <c r="AG22" s="161"/>
+      <c r="AH22" s="161"/>
+      <c r="AI22" s="161"/>
+      <c r="AJ22" s="161"/>
+      <c r="AK22" s="161"/>
+      <c r="AL22" s="161"/>
+      <c r="AM22" s="161"/>
+      <c r="AN22" s="161"/>
+      <c r="AO22" s="161"/>
+      <c r="AP22" s="161"/>
+      <c r="AQ22" s="161"/>
+      <c r="AR22" s="161"/>
+      <c r="AS22" s="161"/>
+      <c r="AT22" s="161"/>
+      <c r="AU22" s="161"/>
+      <c r="AV22" s="161"/>
+      <c r="AW22" s="161"/>
+      <c r="AX22" s="161"/>
+      <c r="AY22" s="161"/>
+      <c r="AZ22" s="161"/>
+      <c r="BA22" s="161"/>
+      <c r="BB22" s="161"/>
+      <c r="BC22" s="161"/>
+      <c r="BD22" s="161"/>
+      <c r="BE22" s="161"/>
+      <c r="BF22" s="161"/>
+      <c r="BG22" s="161"/>
+      <c r="BH22" s="161"/>
+      <c r="BI22" s="160"/>
+      <c r="BJ22" s="160"/>
+      <c r="BK22" s="160"/>
+      <c r="BL22" s="160"/>
+      <c r="BM22" s="160"/>
+      <c r="BN22" s="160"/>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="F23" s="160"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="160"/>
+      <c r="I23" s="160"/>
+      <c r="J23" s="160"/>
+      <c r="K23" s="160"/>
+      <c r="L23" s="160"/>
+      <c r="M23" s="160"/>
+      <c r="N23" s="160"/>
+      <c r="O23" s="160"/>
+      <c r="P23" s="160"/>
+      <c r="Q23" s="160"/>
+      <c r="R23" s="160"/>
+      <c r="S23" s="160"/>
+      <c r="T23" s="160"/>
+      <c r="U23" s="160"/>
+      <c r="V23" s="160"/>
+      <c r="W23" s="160"/>
+      <c r="X23" s="160"/>
+      <c r="Y23" s="160"/>
+      <c r="Z23" s="160"/>
+      <c r="AA23" s="160"/>
+      <c r="AB23" s="160"/>
+      <c r="AC23" s="160"/>
+      <c r="AD23" s="160"/>
+      <c r="AE23" s="160"/>
+      <c r="AF23" s="160"/>
+      <c r="AG23" s="160"/>
+      <c r="AH23" s="160"/>
+      <c r="AI23" s="160"/>
+      <c r="AJ23" s="160"/>
+      <c r="AK23" s="160"/>
+      <c r="AL23" s="160"/>
+      <c r="AM23" s="160"/>
+      <c r="AN23" s="160"/>
+      <c r="AO23" s="160"/>
+      <c r="AP23" s="160"/>
+      <c r="AQ23" s="160"/>
+      <c r="AR23" s="160"/>
+      <c r="AS23" s="160"/>
+      <c r="AT23" s="160"/>
+      <c r="AU23" s="160"/>
+      <c r="AV23" s="160"/>
+      <c r="AW23" s="160"/>
+      <c r="AX23" s="160"/>
+      <c r="AY23" s="160"/>
+      <c r="AZ23" s="160"/>
+      <c r="BA23" s="160"/>
+      <c r="BB23" s="160"/>
+      <c r="BC23" s="160"/>
+      <c r="BD23" s="160"/>
+      <c r="BE23" s="160"/>
+      <c r="BF23" s="160"/>
+      <c r="BG23" s="160"/>
+      <c r="BH23" s="160"/>
+      <c r="BI23" s="160"/>
+      <c r="BJ23" s="160"/>
+      <c r="BK23" s="160"/>
+      <c r="BL23" s="160"/>
+      <c r="BM23" s="160"/>
+      <c r="BN23" s="160"/>
+    </row>
+    <row r="24" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="F24" s="160"/>
+      <c r="G24" s="160"/>
+      <c r="H24" s="160"/>
+      <c r="I24" s="160"/>
+      <c r="J24" s="160"/>
+      <c r="K24" s="160"/>
+      <c r="L24" s="160"/>
+      <c r="M24" s="160"/>
+      <c r="N24" s="161"/>
+      <c r="O24" s="161"/>
+      <c r="P24" s="161"/>
+      <c r="Q24" s="161"/>
+      <c r="R24" s="161"/>
+      <c r="S24" s="161"/>
+      <c r="T24" s="161"/>
+      <c r="U24" s="161"/>
+      <c r="V24" s="161"/>
+      <c r="W24" s="161"/>
+      <c r="X24" s="161"/>
+      <c r="Y24" s="161"/>
+      <c r="Z24" s="161"/>
+      <c r="AA24" s="161"/>
+      <c r="AB24" s="161"/>
+      <c r="AC24" s="161"/>
+      <c r="AD24" s="161"/>
+      <c r="AE24" s="161"/>
+      <c r="AF24" s="161"/>
+      <c r="AG24" s="161"/>
+      <c r="AH24" s="161"/>
+      <c r="AI24" s="161"/>
+      <c r="AJ24" s="161"/>
+      <c r="AK24" s="161"/>
+      <c r="AL24" s="161"/>
+      <c r="AM24" s="161"/>
+      <c r="AN24" s="161"/>
+      <c r="AO24" s="161"/>
+      <c r="AP24" s="161"/>
+      <c r="AQ24" s="161"/>
+      <c r="AR24" s="161"/>
+      <c r="AS24" s="161"/>
+      <c r="AT24" s="161"/>
+      <c r="AU24" s="161"/>
+      <c r="AV24" s="161"/>
+      <c r="AW24" s="161"/>
+      <c r="AX24" s="161"/>
+      <c r="AY24" s="161"/>
+      <c r="AZ24" s="161"/>
+      <c r="BA24" s="161"/>
+      <c r="BB24" s="161"/>
+      <c r="BC24" s="161"/>
+      <c r="BD24" s="161"/>
+      <c r="BE24" s="161"/>
+      <c r="BF24" s="161"/>
+      <c r="BG24" s="161"/>
+      <c r="BH24" s="161"/>
+      <c r="BI24" s="160"/>
+      <c r="BJ24" s="160"/>
+      <c r="BK24" s="160"/>
+      <c r="BL24" s="160"/>
+      <c r="BM24" s="160"/>
+      <c r="BN24" s="160"/>
+    </row>
+    <row r="25" spans="1:66" x14ac:dyDescent="0.25">
       <c r="I25" s="65"/>
       <c r="J25" s="65"/>
       <c r="K25" s="65"/>
@@ -12622,7 +12884,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:66" x14ac:dyDescent="0.25">
       <c r="I26" s="42"/>
       <c r="J26" s="42"/>
       <c r="K26" s="42"/>
@@ -12635,16 +12897,13 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:BA2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="CH3:CK3"/>
+    <mergeCell ref="CL3:CO3"/>
+    <mergeCell ref="CP3:CS3"/>
+    <mergeCell ref="CT3:CW3"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="BZ3:CC3"/>
+    <mergeCell ref="CD3:CG3"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="BJ3:BM3"/>
     <mergeCell ref="BN3:BQ3"/>
@@ -12656,13 +12915,16 @@
     <mergeCell ref="AX3:BA3"/>
     <mergeCell ref="BB3:BE3"/>
     <mergeCell ref="BF3:BI3"/>
-    <mergeCell ref="CH3:CK3"/>
-    <mergeCell ref="CL3:CO3"/>
-    <mergeCell ref="CP3:CS3"/>
-    <mergeCell ref="CT3:CW3"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="BZ3:CC3"/>
-    <mergeCell ref="CD3:CG3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:BA2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AH3:AK3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
